--- a/ARCHERY SHEETS/Archery.xlsx
+++ b/ARCHERY SHEETS/Archery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\corey-richardson\ARCHERY SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54049EC2-BD89-4C6A-ADC9-D118651D8DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C98558-3EB8-4A53-9A2E-FDC3B3860D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
   </bookViews>
   <sheets>
     <sheet name="24-25-Indoors" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,8 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'24-25-Indoors'!$M$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'24-25-Indoors'!$M$2:$M$96</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'24-25-Indoors'!$M$3:$M$96</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'24-Outdoors'!$M$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'24-Outdoors'!$M$2:$M$93</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'24-Outdoors'!$M$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'24-Outdoors'!$M$2:$M$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="180">
   <si>
     <t>Swansea SWWU</t>
   </si>
@@ -566,6 +565,24 @@
   </si>
   <si>
     <t>NEW PORTSMOUTH PB!</t>
+  </si>
+  <si>
+    <t>New stabilisers!</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>First half 321, MASTER BOWMAN IS 640. Second half 280. The halfway break really ruined me here.</t>
+  </si>
+  <si>
+    <t>loss, first end was TEN TEN MISS</t>
+  </si>
+  <si>
+    <t>I was so tired</t>
+  </si>
+  <si>
+    <t>H/C</t>
   </si>
 </sst>
 </file>
@@ -824,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -970,22 +987,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1000,22 +1035,16 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1024,50 +1053,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <fill>
         <patternFill>
@@ -1093,188 +1083,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1323,6 +1131,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -1330,7 +1145,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1358,7 +1187,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1366,34 +1195,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1506,6 +1307,209 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1925,10 +1929,10 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'24-Outdoors'!$P$2:$P$99</c:f>
+              <c:f>'24-Outdoors'!$P$2:$P$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="2">
                   <c:v>43</c:v>
                 </c:pt>
@@ -1998,8 +2002,11 @@
                 <c:pt idx="69">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>29</c:v>
+                <c:pt idx="72">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2263,7 +2270,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2293,7 +2300,7 @@
         <cx:series layoutId="waterfall" uniqueId="{B1F696BD-D9F7-4E52-B643-A260CEFCCE4E}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Num. Arrows</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4616,7 +4623,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="24163683" y="5151782"/>
+              <a:off x="24163683" y="5342282"/>
               <a:ext cx="4568687" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5133,12 +5140,12 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
@@ -5156,10 +5163,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="71">
+      <c r="A2" s="2">
         <v>45517</v>
       </c>
-      <c r="B2" s="72" t="str">
+      <c r="B2" s="1" t="str">
         <f t="shared" ref="B2" si="0">TEXT(A2, "dddd")</f>
         <v>Tuesday</v>
       </c>
@@ -5247,21 +5254,21 @@
       <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="69"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="53"/>
       <c r="R5" s="13" t="s">
         <v>32</v>
       </c>
@@ -5325,21 +5332,21 @@
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="68"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="52"/>
       <c r="R8" s="16" t="s">
         <v>34</v>
       </c>
@@ -5382,21 +5389,21 @@
       <c r="D10" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="68"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="52"/>
       <c r="R10" s="17" t="s">
         <v>35</v>
       </c>
@@ -5982,13 +5989,13 @@
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="F46" s="70" t="s">
+      <c r="F46" s="54" t="s">
         <v>140</v>
       </c>
       <c r="G46" s="43"/>
@@ -6004,9 +6011,9 @@
         <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="59"/>
-      <c r="F47" s="70"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="55"/>
+      <c r="F47" s="54"/>
       <c r="G47" s="43"/>
       <c r="H47" s="3" t="s">
         <v>141</v>
@@ -6020,8 +6027,8 @@
         <f t="shared" ref="B48" si="2">TEXT(A48, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="59"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="55"/>
       <c r="F48" s="43" t="s">
         <v>142</v>
       </c>
@@ -7185,7 +7192,41 @@
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="E10:Q10"/>
   </mergeCells>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="7" operator="containsText" text="University">
+      <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="8" operator="containsText" text="Yelverton">
+      <formula>NOT(ISERROR(SEARCH("Yelverton",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C3">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
@@ -7196,21 +7237,13 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="162">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C46 C49:C117">
-    <cfRule type="containsText" dxfId="29" priority="34" operator="containsText" text="University">
+    <cfRule type="containsText" dxfId="62" priority="35" operator="containsText" text="Yelverton">
+      <formula>NOT(ISERROR(SEARCH("Yelverton",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="34" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="35" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
@@ -7294,6 +7327,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -7304,7 +7345,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="10">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C105 C9:C11 C13:C14 C16:C46">
+    <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7312,8 +7355,6 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:C105 C9:C11 C13:C14 C16:C46">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
@@ -7322,14 +7363,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="169">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -7474,6 +7507,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:C117">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -7484,108 +7525,112 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="37">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1 D3:D46">
+    <cfRule type="containsText" dxfId="60" priority="124" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D46">
+    <cfRule type="containsText" dxfId="59" priority="125" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="126" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D117">
+    <cfRule type="containsText" dxfId="57" priority="31" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="33" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="32" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="containsText" dxfId="54" priority="147" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="148" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="146" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E12">
+    <cfRule type="containsText" dxfId="51" priority="93" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="92" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="91" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E15">
+    <cfRule type="containsText" dxfId="48" priority="97" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="98" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="99" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E18">
+    <cfRule type="containsText" dxfId="45" priority="137" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="138" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="139" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E21 E23:E24 E26:E28 E30:E31 E33:E34 E36:E37 E39:E40 E42:E43 E45:E49 E51:E52 E54:E55 E57:E58 E60:E61 E63:E64 E66:E67 E69:E71 E73:E74 E76:E77 E79:E80 E82:E85 E87:E89 E91:E92 E94:E96 E98:E99 E101:E102">
+    <cfRule type="containsText" dxfId="42" priority="131" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="132" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="133" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104:E117">
+    <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G2">
+    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="Club Target Day">
+      <formula>NOT(ISERROR(SEARCH("Club Target Day",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1 D3:D46">
-    <cfRule type="containsText" dxfId="27" priority="124" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D46">
-    <cfRule type="containsText" dxfId="26" priority="125" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="126" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D117">
-    <cfRule type="containsText" dxfId="24" priority="31" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="32" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="33" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="21" priority="146" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="147" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="148" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
-    <cfRule type="containsText" dxfId="18" priority="91" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="92" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="93" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
-    <cfRule type="containsText" dxfId="15" priority="97" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="98" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="99" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
-    <cfRule type="containsText" dxfId="12" priority="137" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="138" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="139" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21 E23:E24 E26:E28 E30:E31 E33:E34 E36:E37 E39:E40 E42:E43 E45:E49 E51:E52 E54:E55 E57:E58 E60:E61 E63:E64 E66:E67 E69:E71 E73:E74 E76:E77 E79:E80 E82:E85 E87:E89 E91:E92 E94:E96 E98:E99 E101:E102">
-    <cfRule type="containsText" dxfId="9" priority="131" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="132" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="133" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104:E117">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E104)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="3" priority="193" operator="containsText" text="Club Target Day">
-      <formula>NOT(ISERROR(SEARCH("Club Target Day",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
@@ -7598,13 +7643,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M7 M1 M9 M11:M1048576 M3:M4">
-    <cfRule type="colorScale" priority="180">
+  <conditionalFormatting sqref="M2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -7615,6 +7660,16 @@
         <cfvo type="max"/>
         <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M7 M1 M9 M11:M1048576 M3:M4">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -7630,83 +7685,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P7 P1 P9 P11:P1048576 P3:P4">
-    <cfRule type="colorScale" priority="178">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="colorScale" priority="359">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="University">
-      <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G2">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Club Target Day">
-      <formula>NOT(ISERROR(SEARCH("Club Target Day",F2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P2">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -7719,6 +7697,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P3">
+    <cfRule type="colorScale" priority="359">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:P7 P1 P9 P11:P1048576 P3:P4">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7726,12 +7724,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF9BC55-E030-4D83-A3CE-E85DC3922C40}">
-  <dimension ref="A1:U93"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="L82" sqref="L82"/>
+      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7774,12 +7772,12 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
@@ -7829,7 +7827,9 @@
       <c r="S2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="37"/>
+      <c r="U2" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
@@ -7860,7 +7860,10 @@
       <c r="S3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="37"/>
+      <c r="U3" s="3">
+        <f>_xlfn.FLOOR.MATH(AVERAGE(SMALL(P1:P100, 1), SMALL(P1:P100, 2), SMALL(P1:P100, 3)))</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -7906,7 +7909,6 @@
       <c r="S4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -8328,7 +8330,7 @@
       <c r="P16" s="33">
         <v>38</v>
       </c>
-      <c r="Q16" s="52" t="s">
+      <c r="Q16" s="49" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8349,7 +8351,7 @@
       <c r="E17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="52"/>
+      <c r="Q17" s="49"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -8365,7 +8367,7 @@
       <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="52"/>
+      <c r="Q18" s="49"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -8384,7 +8386,7 @@
       <c r="E19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="52"/>
+      <c r="Q19" s="49"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -8394,16 +8396,16 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="55" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="52"/>
+      <c r="Q20" s="49"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -8413,9 +8415,9 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="59"/>
-      <c r="F21" s="65" t="s">
+      <c r="C21" s="49"/>
+      <c r="D21" s="55"/>
+      <c r="F21" s="69" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="25"/>
@@ -8436,33 +8438,33 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
-      <c r="Q21" s="52" t="s">
+      <c r="Q21" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
+      <c r="A22" s="57">
         <v>45431</v>
       </c>
-      <c r="B22" s="50" t="str">
+      <c r="B22" s="60" t="str">
         <f>TEXT(A22, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="65"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="66" t="s">
+      <c r="I22" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="62"/>
+      <c r="K22" s="68"/>
       <c r="M22" s="5">
         <v>72</v>
       </c>
@@ -8475,20 +8477,20 @@
       <c r="P22" s="3">
         <v>37</v>
       </c>
-      <c r="Q22" s="52"/>
+      <c r="Q22" s="49"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="65"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="62"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="68"/>
       <c r="M23" s="5">
         <v>72</v>
       </c>
@@ -8501,11 +8503,11 @@
       <c r="P23" s="3">
         <v>37</v>
       </c>
-      <c r="Q23" s="52"/>
+      <c r="Q23" s="49"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
@@ -8531,10 +8533,10 @@
       <c r="P24" s="21"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="50">
+      <c r="A25" s="60">
         <v>45433</v>
       </c>
-      <c r="B25" s="50" t="str">
+      <c r="B25" s="60" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
@@ -8552,25 +8554,25 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="63" t="s">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -8689,10 +8691,10 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="50">
+      <c r="A30" s="60">
         <v>45443</v>
       </c>
-      <c r="B30" s="50" t="str">
+      <c r="B30" s="60" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
@@ -8716,25 +8718,25 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="55" t="s">
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -8842,20 +8844,20 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="49">
+      <c r="A35" s="57">
         <v>45451</v>
       </c>
-      <c r="B35" s="50" t="str">
+      <c r="B35" s="60" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="69" t="s">
         <v>52</v>
       </c>
       <c r="G35" s="25"/>
@@ -8882,11 +8884,11 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="59"/>
-      <c r="F36" s="65"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="55"/>
+      <c r="F36" s="69"/>
       <c r="G36" s="25"/>
       <c r="H36" s="31" t="s">
         <v>170</v>
@@ -8915,9 +8917,9 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="59"/>
-      <c r="F37" s="65"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="55"/>
+      <c r="F37" s="69"/>
       <c r="G37" s="25"/>
       <c r="H37" s="5" t="s">
         <v>7</v>
@@ -8955,10 +8957,10 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="57"/>
+      <c r="D38" s="63"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
       <c r="Q38" s="24" t="s">
@@ -8973,8 +8975,8 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
       <c r="Q39" s="24" t="s">
@@ -8989,23 +8991,23 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
@@ -9015,10 +9017,10 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="57"/>
+      <c r="D41" s="63"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
       <c r="Q41" s="24" t="s">
@@ -9033,8 +9035,8 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
       <c r="Q42" s="24" t="s">
@@ -9049,23 +9051,23 @@
         <f>TEXT(A43, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="64"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
@@ -9109,9 +9111,6 @@
       <c r="I45" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="M45" s="5">
-        <v>144</v>
-      </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
@@ -9457,10 +9456,10 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="61"/>
+      <c r="D57" s="66"/>
       <c r="E57" s="8" t="s">
         <v>27</v>
       </c>
@@ -9476,23 +9475,23 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="51"/>
-      <c r="O58" s="51"/>
-      <c r="P58" s="51"/>
-      <c r="Q58" s="51"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
@@ -9502,10 +9501,10 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C59" s="61" t="s">
+      <c r="C59" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="61"/>
+      <c r="D59" s="66"/>
       <c r="F59" s="24" t="s">
         <v>92</v>
       </c>
@@ -9524,23 +9523,23 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C60" s="63" t="s">
+      <c r="C60" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="63"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="63"/>
-      <c r="P60" s="63"/>
-      <c r="Q60" s="63"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="67"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -9615,20 +9614,20 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="50">
+      <c r="A63" s="60">
         <v>45501</v>
       </c>
-      <c r="B63" s="53" t="str">
+      <c r="B63" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="52" t="s">
+      <c r="D63" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="54" t="s">
+      <c r="E63" s="59" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -9660,11 +9659,11 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="54"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="59"/>
       <c r="F64" s="3" t="s">
         <v>152</v>
       </c>
@@ -9685,20 +9684,20 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="50">
+      <c r="A65" s="60">
         <v>45503</v>
       </c>
-      <c r="B65" s="53" t="str">
+      <c r="B65" s="58" t="str">
         <f>TEXT(A65, "dddd")</f>
         <v>Tuesday</v>
       </c>
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="54" t="s">
+      <c r="E65" s="59" t="s">
         <v>27</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -9724,11 +9723,11 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="54"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="59"/>
       <c r="F66" s="3" t="s">
         <v>152</v>
       </c>
@@ -9972,9 +9971,6 @@
       <c r="O72" s="3">
         <v>700</v>
       </c>
-      <c r="P72" s="3">
-        <v>29</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>173</v>
       </c>
@@ -10010,20 +10006,20 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="49">
+      <c r="A74" s="57">
         <v>45521</v>
       </c>
-      <c r="B74" s="53" t="str">
-        <f t="shared" ref="B74:B88" si="2">TEXT(A74, "dddd")</f>
+      <c r="B74" s="58" t="str">
+        <f t="shared" ref="B74:B89" si="2">TEXT(A74, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="C74" s="52" t="s">
+      <c r="C74" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="59" t="s">
+      <c r="D74" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="60" t="s">
+      <c r="F74" s="65" t="s">
         <v>77</v>
       </c>
       <c r="G74" s="45"/>
@@ -10036,16 +10032,25 @@
       <c r="M74" s="3">
         <v>72</v>
       </c>
+      <c r="N74" s="5">
+        <v>601</v>
+      </c>
       <c r="O74" s="3">
         <v>720</v>
       </c>
+      <c r="P74" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="59"/>
-      <c r="F75" s="60"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="55"/>
+      <c r="F75" s="65"/>
       <c r="G75" s="45"/>
       <c r="H75" s="31" t="s">
         <v>170</v>
@@ -10056,84 +10061,92 @@
       <c r="M75" s="3">
         <v>15</v>
       </c>
+      <c r="N75" s="3">
+        <v>132</v>
+      </c>
       <c r="O75" s="3">
         <v>150</v>
       </c>
+      <c r="Q75" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <v>45522</v>
-      </c>
-      <c r="B76" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C76" s="52"/>
-      <c r="D76" s="59"/>
-      <c r="F76" s="60"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="55"/>
+      <c r="F76" s="65"/>
       <c r="G76" s="45"/>
       <c r="H76" s="31" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="M76" s="3">
-        <v>144</v>
+        <v>15</v>
+      </c>
+      <c r="N76" s="3">
+        <v>120</v>
       </c>
       <c r="O76" s="3">
-        <v>1440</v>
+        <v>150</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="A77" s="4">
         <v>45522</v>
       </c>
       <c r="B77" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="H77" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="I77" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="24" t="s">
-        <v>13</v>
+      <c r="C77" s="49"/>
+      <c r="D77" s="55"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M77" s="3">
+        <v>144</v>
+      </c>
+      <c r="N77" s="3">
+        <v>1203</v>
       </c>
       <c r="O77" s="3">
-        <v>432</v>
+        <v>1440</v>
+      </c>
+      <c r="P77" s="3">
+        <v>34</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45524</v>
+        <v>45522</v>
       </c>
       <c r="B78" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Tuesday</v>
+        <v>Sunday</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>22</v>
@@ -10141,20 +10154,20 @@
       <c r="D78" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E78" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" s="3" t="s">
+      <c r="F78" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H78" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I78" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="J78" s="24" t="s">
         <v>13</v>
-      </c>
-      <c r="M78" s="3">
-        <v>48</v>
       </c>
       <c r="O78" s="3">
         <v>432</v>
@@ -10162,11 +10175,11 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45527</v>
+        <v>45524</v>
       </c>
       <c r="B79" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>22</v>
@@ -10177,35 +10190,20 @@
       <c r="E79" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F79" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G79" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="I79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M79" s="3">
-        <v>48</v>
-      </c>
-      <c r="O79" s="3">
-        <v>432</v>
+        <v>13</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45529</v>
+        <v>45527</v>
       </c>
       <c r="B80" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sunday</v>
+        <v>Friday</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>22</v>
@@ -10213,35 +10211,38 @@
       <c r="D80" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>160</v>
+      <c r="E80" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M80" s="3">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="O80" s="3">
-        <v>864</v>
+        <v>432</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45531</v>
+        <v>45529</v>
       </c>
       <c r="B81" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Tuesday</v>
+        <v>Sunday</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>22</v>
@@ -10249,17 +10250,35 @@
       <c r="D81" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="8" t="s">
-        <v>27</v>
+      <c r="F81" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="3">
+        <v>96</v>
+      </c>
+      <c r="O81" s="3">
+        <v>864</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45534</v>
+        <v>45531</v>
       </c>
       <c r="B82" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>22</v>
@@ -10270,33 +10289,32 @@
       <c r="E82" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F82" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G82" s="25" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
-        <v>45536</v>
+      <c r="A83" s="2">
+        <v>45534</v>
       </c>
       <c r="B83" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sunday</v>
+        <v>Friday</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F83" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="G83" s="31"/>
+      <c r="D83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>157</v>
+      </c>
       <c r="H83" s="3" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>15</v>
@@ -10304,18 +10322,15 @@
       <c r="J83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M83" s="5">
-        <v>108</v>
+      <c r="M83" s="3">
+        <v>48</v>
       </c>
       <c r="O83" s="3">
-        <v>972</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="A84" s="4">
         <v>45536</v>
       </c>
       <c r="B84" s="1" t="str">
@@ -10325,26 +10340,39 @@
       <c r="C84" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" s="24" t="s">
-        <v>161</v>
-      </c>
+      <c r="D84" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G84" s="31"/>
       <c r="H84" s="3" t="s">
-        <v>153</v>
+        <v>127</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M84" s="5">
+        <v>108</v>
+      </c>
+      <c r="O84" s="3">
+        <v>972</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45538</v>
+        <v>45536</v>
       </c>
       <c r="B85" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Tuesday</v>
+        <v>Sunday</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>22</v>
@@ -10352,38 +10380,23 @@
       <c r="D85" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M85" s="3">
-        <v>48</v>
-      </c>
-      <c r="O85" s="3">
-        <v>432</v>
+      <c r="G85" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45541</v>
+        <v>45538</v>
       </c>
       <c r="B86" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>22</v>
@@ -10394,32 +10407,45 @@
       <c r="E86" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="F86" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M86" s="3">
+        <v>48</v>
+      </c>
+      <c r="O86" s="3">
+        <v>432</v>
+      </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
-        <v>45543</v>
+      <c r="A87" s="2">
+        <v>45541</v>
       </c>
       <c r="B87" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C87" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="55"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="55"/>
-      <c r="M87" s="55"/>
-      <c r="N87" s="55"/>
-      <c r="O87" s="55"/>
-      <c r="P87" s="55"/>
-      <c r="Q87" s="55"/>
+        <v>Friday</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
@@ -10429,35 +10455,57 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="61"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="61"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="61"/>
+      <c r="M88" s="61"/>
+      <c r="N88" s="61"/>
+      <c r="O88" s="61"/>
+      <c r="P88" s="61"/>
+      <c r="Q88" s="61"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>45543</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D89" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F89" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="3" t="s">
+      <c r="G89" s="7"/>
+      <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="I89" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M88" s="3">
+      <c r="M89" s="3">
         <v>72</v>
       </c>
-      <c r="O88" s="3">
+      <c r="O89" s="3">
         <v>648</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
@@ -10474,6 +10522,10 @@
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -10497,16 +10549,16 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C87:Q87"/>
+    <mergeCell ref="C88:Q88"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C31:Q31"/>
     <mergeCell ref="C41:D42"/>
     <mergeCell ref="C43:Q43"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="F74:F77"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C60:Q60"/>
@@ -10515,8 +10567,8 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C58:Q58"/>
     <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="E63:E64"/>
     <mergeCell ref="E65:E66"/>
     <mergeCell ref="B63:B64"/>
@@ -10526,12 +10578,20 @@
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="D65:D66"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C20 C24:C25 C27:C36 C44:C56 C72:C75">
-    <cfRule type="containsText" dxfId="65" priority="142" operator="containsText" text="Yelverton">
+  <conditionalFormatting sqref="C2:C20 C24:C25 C27:C36 C44:C56 C72:C76">
+    <cfRule type="containsText" dxfId="35" priority="142" operator="containsText" text="Yelverton">
       <formula>NOT(ISERROR(SEARCH("Yelverton",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C56 D35:D36 D15 D28 C27:C36 C24:C25 C2:C20">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
@@ -10542,7 +10602,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="144">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:C63 C65 C67">
+    <cfRule type="colorScale" priority="354">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10550,8 +10612,6 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C63 C65 C67">
     <cfRule type="colorScale" priority="353">
       <colorScale>
         <cfvo type="min"/>
@@ -10562,20 +10622,12 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="354">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C63 C65 C67:C71 C77:C88">
-    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="University">
+  <conditionalFormatting sqref="C61:C63 C65 C67:C71 C78:C89">
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="14" operator="containsText" text="Yelverton">
+    <cfRule type="containsText" dxfId="33" priority="14" operator="containsText" text="Yelverton">
       <formula>NOT(ISERROR(SEARCH("Yelverton",C61)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10659,8 +10711,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C75 C2:C20 C24:C25 C27:C36 C44:C56">
-    <cfRule type="containsText" dxfId="62" priority="141" operator="containsText" text="University">
+  <conditionalFormatting sqref="C72:C76 C2:C20 C24:C25 C27:C36 C44:C56">
+    <cfRule type="containsText" dxfId="32" priority="141" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10684,7 +10736,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C74:C75">
+  <conditionalFormatting sqref="C74:C76">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -10695,16 +10755,8 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
+  <conditionalFormatting sqref="C78">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -10724,131 +10776,151 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D11 D44:D50 D52:D53 D55:D59 D61:D63 D65 D67:D71 D88:D1048576 D73:D86">
-    <cfRule type="containsText" dxfId="61" priority="6" operator="containsText" text="YMCA">
+  <conditionalFormatting sqref="C79:C89">
+    <cfRule type="colorScale" priority="381">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="382">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D11 D44:D50 D52:D53 D55:D59 D61:D63 D65 D67:D71 D73:D87 D89:D1048576">
+    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11 D13:D20 D24:D25 D27:D36 D44:D48 D49:E49 D73">
-    <cfRule type="containsText" dxfId="60" priority="140" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="30" priority="140" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D20 D24:D25 D27:D36 D49:E49 D73:D75 D2:D11 D44:D48">
-    <cfRule type="containsText" dxfId="59" priority="139" operator="containsText" text="Lip">
+  <conditionalFormatting sqref="D13:D20 D24:D25 D27:D36 D49:E49 D73:D76 D2:D11 D44:D48">
+    <cfRule type="containsText" dxfId="29" priority="139" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D42 D49:E49">
-    <cfRule type="containsText" dxfId="58" priority="137" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="28" priority="137" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50 D52:D53 D55:D56">
-    <cfRule type="containsText" dxfId="57" priority="122" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="27" priority="122" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="123" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="26" priority="123" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61:D63 D65 D67:D71">
-    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77:D86 D88">
-    <cfRule type="containsText" dxfId="53" priority="31" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="32" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D77)))</formula>
+  <conditionalFormatting sqref="D78:D87 D89">
+    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D78)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74:E75">
-    <cfRule type="containsText" dxfId="51" priority="46" operator="containsText" text="Wide">
+  <conditionalFormatting sqref="D74:E76">
+    <cfRule type="containsText" dxfId="21" priority="46" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8 E18">
-    <cfRule type="containsText" dxfId="50" priority="133" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="20" priority="133" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="134" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="19" priority="135" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="134" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="135" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="47" priority="127" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="17" priority="128" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="129" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="127" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="128" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="129" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" dxfId="44" priority="118" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="14" priority="120" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="119" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="118" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="119" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="120" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" dxfId="41" priority="115" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="11" priority="117" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="116" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="115" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="116" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="117" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="38" priority="112" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="8" priority="113" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="114" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="112" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="113" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="114" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E59)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:E75">
-    <cfRule type="containsText" dxfId="35" priority="44" operator="containsText" text="YMCA">
+  <conditionalFormatting sqref="E74:E76">
+    <cfRule type="containsText" dxfId="5" priority="45" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="44" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="45" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E74)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E83)))</formula>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="containsText" dxfId="3" priority="24" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="25" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="26" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E84)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:G42 F44:G59 F61:G62 F63 F64:G67 F68 F88:G1048576 F69:G86">
-    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="Club Target Day">
+  <conditionalFormatting sqref="F1:G42 F44:G59 F61:G62 F63 F64:G67 F68 F69:G87 F89:G1048576">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="Club Target Day">
       <formula>NOT(ISERROR(SEARCH("Club Target Day",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10888,7 +10960,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I88:L88">
+  <conditionalFormatting sqref="I89:L89">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -10900,7 +10972,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M88:M1048576 M1:M30 M44:M59 M61:M86 M32:M42">
+  <conditionalFormatting sqref="M89:M1048576 M1:M30 M44:M59 M32:M42 M61:M87">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10910,7 +10982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P88:P1048576 P41:P42 P59 P1:P30 P32:P39 P44:P57 P61:P86">
+  <conditionalFormatting sqref="P89:P1048576 P41:P42 P59 P1:P30 P32:P39 P44:P57 P61:P87">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
@@ -10922,26 +10994,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C88">
-    <cfRule type="colorScale" priority="381">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="382">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/ARCHERY SHEETS/Archery.xlsx
+++ b/ARCHERY SHEETS/Archery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\corey-richardson\ARCHERY SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C98558-3EB8-4A53-9A2E-FDC3B3860D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F54CA0F-8733-44CF-BDAC-FE85C18ADB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
   </bookViews>
   <sheets>
     <sheet name="24-25-Indoors" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'24-25-Indoors'!$M$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'24-25-Indoors'!$M$2:$M$96</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'24-25-Indoors'!$M$2:$M$103</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'24-Outdoors'!$M$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'24-Outdoors'!$M$2:$M$94</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="204">
   <si>
     <t>Swansea SWWU</t>
   </si>
@@ -309,9 +309,6 @@
     <t>Olympic Target Day</t>
   </si>
   <si>
-    <t>Long Western</t>
-  </si>
-  <si>
     <t>WINDY</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
     <t>Club Target Day</t>
   </si>
   <si>
-    <t>YB Internal Comp</t>
-  </si>
-  <si>
     <t>40yds</t>
   </si>
   <si>
@@ -414,9 +408,6 @@
     <t>key dates</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Think I can pick up at least 4 points on this with a good day.</t>
   </si>
   <si>
@@ -426,12 +417,6 @@
     <t>Exhausted after like 12 arrows? Used the session more as a social.</t>
   </si>
   <si>
-    <t>Long Windsor / Albion</t>
-  </si>
-  <si>
-    <t>SEE OUTDOOR SHEET</t>
-  </si>
-  <si>
     <t>UNI CLUB KIT CHECK</t>
   </si>
   <si>
@@ -468,15 +453,9 @@
     <t>Indoor Nationals</t>
   </si>
   <si>
-    <t>WA 18m + H2Hs</t>
-  </si>
-  <si>
     <t>Junior Indoor Nationals</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>BUCS Indoor Qualifiers</t>
   </si>
   <si>
@@ -504,9 +483,6 @@
     <t>Aim4Paris (Virtual)</t>
   </si>
   <si>
-    <t>Long Metric</t>
-  </si>
-  <si>
     <t>Short Metric I</t>
   </si>
   <si>
@@ -558,9 +534,6 @@
     <t>Compound Elimination Match</t>
   </si>
   <si>
-    <t>Club Target Day / DCAS Postal</t>
-  </si>
-  <si>
     <t>poopy, lost the match but opponent went on to win the competition, as is ranked UK &lt;=10</t>
   </si>
   <si>
@@ -579,17 +552,116 @@
     <t>loss, first end was TEN TEN MISS</t>
   </si>
   <si>
-    <t>I was so tired</t>
-  </si>
-  <si>
     <t>H/C</t>
+  </si>
+  <si>
+    <t>(Half) Warwick</t>
+  </si>
+  <si>
+    <t>Could hold a uni comp?</t>
+  </si>
+  <si>
+    <t>I was so tired :(</t>
+  </si>
+  <si>
+    <t>NEW PORTSMOUTH PB! :)</t>
+  </si>
+  <si>
+    <t>Albion</t>
+  </si>
+  <si>
+    <t>Warwickshire</t>
+  </si>
+  <si>
+    <t>INDOOR NATIONALS ENTRIES OPEN 7PM</t>
+  </si>
+  <si>
+    <t>JUNIOR INDOOR NATIONALS ENTRIES OPEN 7PM</t>
+  </si>
+  <si>
+    <t>UNI CLUB MEMBERSHIP OPENS</t>
+  </si>
+  <si>
+    <t>UNI CLUB CONSTITUTION SIGNING</t>
+  </si>
+  <si>
+    <t>Uni Club Beginners Course</t>
+  </si>
+  <si>
+    <t>Could hold a uni comp with YB?</t>
+  </si>
+  <si>
+    <t>Internal Competition</t>
+  </si>
+  <si>
+    <t>Internal Competition (Alt. Date)</t>
+  </si>
+  <si>
+    <t>York/Bristols (I-V)</t>
+  </si>
+  <si>
+    <t>Aim For Paris</t>
+  </si>
+  <si>
+    <t>PB! Split over two sessions as light is getting limited.</t>
+  </si>
+  <si>
+    <t>BOWMAN 2 ACHIEVED</t>
+  </si>
+  <si>
+    <t>Three Dozen Metric 80-50</t>
+  </si>
+  <si>
+    <t>Dragging left, moved stabiliser inwards</t>
+  </si>
+  <si>
+    <t>H2Hs</t>
+  </si>
+  <si>
+    <t>Bray I</t>
+  </si>
+  <si>
+    <t>18m</t>
+  </si>
+  <si>
+    <t>Plymouth SWWU</t>
+  </si>
+  <si>
+    <t>CHRISTMAS BREAK</t>
+  </si>
+  <si>
+    <t>Bareshaft and rest tuning</t>
+  </si>
+  <si>
+    <t>UNI TASTER SESSION</t>
+  </si>
+  <si>
+    <t>UNI COMMITTEE MEETING</t>
+  </si>
+  <si>
+    <t>Half Portsmouth</t>
+  </si>
+  <si>
+    <t>Possible CTD?</t>
+  </si>
+  <si>
+    <t>PROBABLE CLOSING DATE FOR BUCS INDOOR ENTRIES</t>
+  </si>
+  <si>
+    <t>Partial WA 18m</t>
+  </si>
+  <si>
+    <t>No sight marks for 18m, X10 went through foam and bent :(</t>
+  </si>
+  <si>
+    <t>New arrow tuning- VTAC-23s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +776,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -767,7 +846,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -837,11 +916,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -903,9 +991,6 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,9 +1039,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -987,8 +1069,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -999,17 +1113,23 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1017,17 +1137,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1057,7 +1174,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1103,7 +1227,63 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1152,6 +1332,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -1160,13 +1347,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1195,62 +1375,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1320,27 +1444,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -1370,132 +1473,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1624,12 +1601,21 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>'24-25-Indoors'!$P$2:$P$202</c:f>
+              <c:f>'24-25-Indoors'!$P$2:$P$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="0">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1923,16 +1909,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'24-Outdoors'!$P$2:$P$100</c:f>
+              <c:f>'24-Outdoors'!$P$2:$P$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="2">
                   <c:v>43</c:v>
                 </c:pt>
@@ -1940,9 +1927,6 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
@@ -2007,6 +1991,15 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4541,13 +4534,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>173935</xdr:colOff>
+      <xdr:colOff>182217</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -4579,15 +4572,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>8282</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>157370</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>84482</xdr:rowOff>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -4623,8 +4616,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="24163683" y="5342282"/>
-              <a:ext cx="4568687" cy="2743200"/>
+              <a:off x="24155400" y="5334000"/>
+              <a:ext cx="4568687" cy="3124200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5093,14 +5086,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003F6F8B-BAAF-49C4-80DC-F0AA35A5CBAB}">
-  <dimension ref="A1:S117"/>
+  <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.7109375" style="1" customWidth="1"/>
     <col min="3" max="5" width="13.7109375" style="3" customWidth="1"/>
@@ -5117,7 +5110,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>
@@ -5135,17 +5128,17 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
       <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
@@ -5167,13 +5160,13 @@
         <v>45517</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2" si="0">TEXT(A2, "dddd")</f>
+        <f t="shared" ref="B2:B3" si="0">TEXT(A2, "dddd")</f>
         <v>Tuesday</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -5195,28 +5188,47 @@
         <v>29</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45538</v>
+        <v>45536</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B72" si="1">TEXT(A3, "dddd")</f>
-        <v>Tuesday</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -5224,7 +5236,7 @@
         <v>45541</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B4:B79" si="1">TEXT(A4, "dddd")</f>
         <v>Friday</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -5233,47 +5245,48 @@
       <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>31</v>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="22">
         <v>45543</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="13" t="s">
-        <v>32</v>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -5290,68 +5303,92 @@
       <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="14" t="s">
-        <v>37</v>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="3">
+        <v>30</v>
+      </c>
+      <c r="N6" s="3">
+        <v>271</v>
+      </c>
+      <c r="O6" s="3">
+        <v>300</v>
+      </c>
+      <c r="P6" s="3">
+        <v>29</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
         <v>45548</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>40</v>
+      <c r="E7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="S7" s="57" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45550</v>
       </c>
-      <c r="B8" s="47" t="str">
+      <c r="B8" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="16" t="s">
-        <v>34</v>
+      <c r="E8" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -5368,48 +5405,45 @@
       <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>122</v>
+      <c r="Q9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <v>45553</v>
       </c>
-      <c r="B10" s="47" t="str">
+      <c r="B10" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="D10" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="62"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -5425,12 +5459,6 @@
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="S11" s="19" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -5446,8 +5474,8 @@
       <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R12" s="46"/>
-      <c r="S12" s="31"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="30"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -5457,50 +5485,89 @@
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45562</v>
+        <v>45560</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Friday</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>Wednesday</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45564</v>
+        <v>45561</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>Thursday</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45566</v>
+        <v>45562</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Tuesday</v>
+        <v>Friday</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
@@ -5509,208 +5576,288 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45569</v>
+        <v>45564</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Friday</v>
+        <v>Sunday</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45571</v>
+        <v>45566</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="3">
+        <v>30</v>
+      </c>
+      <c r="N18" s="3">
+        <v>279</v>
+      </c>
+      <c r="O18" s="3">
+        <v>300</v>
+      </c>
+      <c r="P18" s="32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>45567</v>
+      </c>
+      <c r="B19" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45568</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45569</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" s="3">
+        <v>27</v>
+      </c>
+      <c r="N21" s="3">
+        <v>234</v>
+      </c>
+      <c r="O21" s="3">
+        <v>270</v>
+      </c>
+      <c r="P21" s="3">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>45571</v>
+      </c>
+      <c r="B22" s="45" t="str">
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="G22" s="48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
         <v>45573</v>
       </c>
-      <c r="B19" s="1" t="str">
+      <c r="B23" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C23" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D23" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>45576</v>
       </c>
-      <c r="B20" s="1" t="str">
+      <c r="B24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="E24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
         <v>45578</v>
       </c>
-      <c r="B21" s="1" t="str">
+      <c r="B25" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C25" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D25" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="G25" s="48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>45580</v>
       </c>
-      <c r="B22" s="1" t="str">
+      <c r="B26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="H26" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>45583</v>
       </c>
-      <c r="B23" s="1" t="str">
+      <c r="B27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="E27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
         <v>45585</v>
       </c>
-      <c r="B24" s="1" t="str">
+      <c r="B28" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C28" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>45587</v>
-      </c>
-      <c r="B25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>45590</v>
-      </c>
-      <c r="B26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Friday</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>45592</v>
-      </c>
-      <c r="B27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>45592</v>
-      </c>
-      <c r="B28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45594</v>
+        <v>45587</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5722,13 +5869,13 @@
       <c r="D29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45597</v>
+        <v>45590</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5740,91 +5887,109 @@
       <c r="D30" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>45599</v>
-      </c>
-      <c r="B31" s="1" t="str">
+      <c r="E30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="69">
+        <v>45592</v>
+      </c>
+      <c r="B31" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="40"/>
+      <c r="H31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="M31" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="64"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>45592</v>
+      </c>
+      <c r="B33" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>45601</v>
-      </c>
-      <c r="B32" s="1" t="str">
+      <c r="G33" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45594</v>
+      </c>
+      <c r="B34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>45604</v>
-      </c>
-      <c r="B33" s="1" t="str">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>45606</v>
-      </c>
-      <c r="B34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>45608</v>
-      </c>
-      <c r="B35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45611</v>
+        <v>45597</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5836,10 +6001,13 @@
       <c r="D36" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E36" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45613</v>
+        <v>45599</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5855,9 +6023,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45615</v>
+        <v>45601</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5870,9 +6038,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45618</v>
+        <v>45604</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5884,10 +6052,13 @@
       <c r="D39" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45620</v>
+        <v>45606</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5903,9 +6074,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45622</v>
+        <v>45608</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5918,9 +6089,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45625</v>
+        <v>45611</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5932,10 +6103,13 @@
       <c r="D42" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E42" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45627</v>
+        <v>45613</v>
       </c>
       <c r="B43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5951,9 +6125,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45629</v>
+        <v>45615</v>
       </c>
       <c r="B44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5966,9 +6140,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45632</v>
+        <v>45618</v>
       </c>
       <c r="B45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5980,66 +6154,76 @@
       <c r="D45" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>45632</v>
+      <c r="E45" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45620</v>
       </c>
       <c r="B46" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Friday</v>
-      </c>
-      <c r="C46" s="49" t="s">
+        <v>Sunday</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>45633</v>
+      <c r="D46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S46" s="3">
+        <f>(SMALL(P:P,1))</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45622</v>
       </c>
       <c r="B47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Saturday</v>
-      </c>
-      <c r="C47" s="49"/>
-      <c r="D47" s="55"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>45634</v>
+        <v>Tuesday</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S47" s="3">
+        <f>(SMALL(P:P,2))</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>45625</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f t="shared" ref="B48" si="2">TEXT(A48, "dddd")</f>
-        <v>Sunday</v>
-      </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="55"/>
-      <c r="F48" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S48" s="51">
+        <f>(SMALL(P:P,3))</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45634</v>
+        <v>45627</v>
       </c>
       <c r="B49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6054,10 +6238,17 @@
       <c r="E49" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F49" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="S49" s="3">
+        <f>FLOOR(AVERAGE(S46:S48), 1)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45636</v>
+        <v>45629</v>
       </c>
       <c r="B50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6070,9 +6261,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45639</v>
+        <v>45632</v>
       </c>
       <c r="B51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6084,274 +6275,287 @@
       <c r="D51" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>45641</v>
+      <c r="E51" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>45632</v>
       </c>
       <c r="B52" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C52" s="3" t="s">
+        <v>Friday</v>
+      </c>
+      <c r="C52" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>45643</v>
+      <c r="D52" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="41"/>
+      <c r="H52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M52" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>45633</v>
       </c>
       <c r="B53" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C53" s="66"/>
+      <c r="D53" s="64"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>45634</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f t="shared" ref="B54" si="2">TEXT(A54, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C54" s="66"/>
+      <c r="D54" s="64"/>
+      <c r="F54" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" s="41"/>
+      <c r="H54" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45634</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45636</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G53" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>45646</v>
-      </c>
-      <c r="B54" s="1" t="str">
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45639</v>
+      </c>
+      <c r="B57" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="39">
-        <v>45648</v>
-      </c>
-      <c r="B55" s="40" t="str">
+      <c r="E57" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45641</v>
+      </c>
+      <c r="B58" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C58" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D58" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="39">
-        <v>45650</v>
-      </c>
-      <c r="B56" s="40" t="str">
+      <c r="F58" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M58" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45643</v>
+      </c>
+      <c r="B59" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D59" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="24"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="39">
-        <v>45653</v>
-      </c>
-      <c r="B57" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Friday</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="24"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="39">
-        <v>45655</v>
-      </c>
-      <c r="B58" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="39">
-        <v>45657</v>
-      </c>
-      <c r="B59" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59" s="24"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45660</v>
+        <v>45646</v>
       </c>
       <c r="B60" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>45662</v>
-      </c>
-      <c r="B61" s="1" t="str">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="37">
+        <v>45648</v>
+      </c>
+      <c r="B61" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>45664</v>
-      </c>
-      <c r="B62" s="1" t="str">
+      <c r="C61" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="37">
+        <v>45650</v>
+      </c>
+      <c r="B62" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>45667</v>
-      </c>
-      <c r="B63" s="1" t="str">
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="37">
+        <v>45653</v>
+      </c>
+      <c r="B63" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>45669</v>
-      </c>
-      <c r="B64" s="1" t="str">
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="37">
+        <v>45655</v>
+      </c>
+      <c r="B64" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>45671</v>
-      </c>
-      <c r="B65" s="1" t="str">
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="37">
+        <v>45657</v>
+      </c>
+      <c r="B65" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45674</v>
+        <v>45660</v>
       </c>
       <c r="B66" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45676</v>
+        <v>45662</v>
       </c>
       <c r="B67" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45678</v>
+        <v>45664</v>
       </c>
       <c r="B68" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6364,24 +6568,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45681</v>
+        <v>45667</v>
       </c>
       <c r="B69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>45683</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45669</v>
       </c>
       <c r="B70" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6390,38 +6594,32 @@
       <c r="C70" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45683</v>
+        <v>45671</v>
       </c>
       <c r="B71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45685</v>
+        <v>45674</v>
       </c>
       <c r="B72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Tuesday</v>
+        <v>Friday</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>22</v>
@@ -6430,13 +6628,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45688</v>
+        <v>45676</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f t="shared" ref="B73:B117" si="3">TEXT(A73, "dddd")</f>
-        <v>Friday</v>
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>20</v>
@@ -6444,229 +6642,253 @@
       <c r="D73" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
+        <v>45678</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45678</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="F75" s="58"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="58"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="58"/>
+      <c r="L75" s="58"/>
+      <c r="M75" s="58"/>
+      <c r="N75" s="58"/>
+      <c r="O75" s="58"/>
+      <c r="P75" s="58"/>
+      <c r="Q75" s="58"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>45681</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>45683</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>45683</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>45685</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f t="shared" ref="B80:B124" si="3">TEXT(A80, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>45690</v>
       </c>
-      <c r="B74" s="1" t="str">
+      <c r="B81" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
         <v>45692</v>
       </c>
-      <c r="B75" s="1" t="str">
+      <c r="B82" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
         <v>45695</v>
       </c>
-      <c r="B76" s="1" t="str">
+      <c r="B83" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>45697</v>
-      </c>
-      <c r="B77" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>45699</v>
-      </c>
-      <c r="B78" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>45702</v>
-      </c>
-      <c r="B79" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Friday</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>45704</v>
-      </c>
-      <c r="B80" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>45706</v>
-      </c>
-      <c r="B81" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>45709</v>
-      </c>
-      <c r="B82" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Friday</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
-        <v>45710</v>
-      </c>
-      <c r="B83" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Saturday</v>
-      </c>
       <c r="C83" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F83" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="G83" s="42"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
-        <v>45711</v>
+      <c r="D83" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>45697</v>
       </c>
       <c r="B84" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="G84" s="42"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45711</v>
+        <v>45699</v>
       </c>
       <c r="B85" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sunday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45713</v>
+        <v>45702</v>
       </c>
       <c r="B86" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
+        <v>Friday</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D86" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45716</v>
+        <v>45704</v>
       </c>
       <c r="B87" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Friday</v>
+        <v>Sunday</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>20</v>
@@ -6674,32 +6896,35 @@
       <c r="D87" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E87" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45718</v>
+        <v>45706</v>
       </c>
       <c r="B88" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sunday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D88" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45718</v>
+        <v>45709</v>
       </c>
       <c r="B89" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sunday</v>
+        <v>Friday</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>20</v>
@@ -6708,42 +6933,62 @@
         <v>26</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>45720</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>45710</v>
       </c>
       <c r="B90" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
+        <v>Saturday</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>45723</v>
+        <v>20</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F90" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G90" s="40"/>
+      <c r="H90" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M90" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>45711</v>
       </c>
       <c r="B91" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Friday</v>
+        <v>Sunday</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G91" s="40"/>
+      <c r="H91" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M91" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45725</v>
+        <v>45711</v>
       </c>
       <c r="B92" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6759,9 +7004,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45727</v>
+        <v>45713</v>
       </c>
       <c r="B93" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6774,9 +7019,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45730</v>
+        <v>45716</v>
       </c>
       <c r="B94" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6788,28 +7033,31 @@
       <c r="D94" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E94" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45731</v>
+        <v>45718</v>
       </c>
       <c r="B95" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45732</v>
+        <v>45718</v>
       </c>
       <c r="B96" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6825,9 +7073,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45734</v>
+        <v>45720</v>
       </c>
       <c r="B97" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6840,9 +7088,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45737</v>
+        <v>45723</v>
       </c>
       <c r="B98" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6854,10 +7102,13 @@
       <c r="D98" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E98" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45739</v>
+        <v>45725</v>
       </c>
       <c r="B99" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6873,9 +7124,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45741</v>
+        <v>45727</v>
       </c>
       <c r="B100" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6888,9 +7139,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45744</v>
+        <v>45730</v>
       </c>
       <c r="B101" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6902,65 +7153,74 @@
       <c r="D101" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E101" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45746</v>
+        <v>45731</v>
       </c>
       <c r="B102" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D102" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M102" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45748</v>
+        <v>45732</v>
       </c>
       <c r="B103" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
+        <v>Sunday</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G103" s="41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45751</v>
+        <v>45734</v>
       </c>
       <c r="B104" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45753</v>
+        <v>45737</v>
       </c>
       <c r="B105" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sunday</v>
+        <v>Friday</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>20</v>
@@ -6969,49 +7229,49 @@
         <v>26</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45755</v>
+        <v>45739</v>
       </c>
       <c r="B106" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
+        <v>Sunday</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D106" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45758</v>
+        <v>45741</v>
       </c>
       <c r="B107" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45760</v>
+        <v>45744</v>
       </c>
       <c r="B108" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sunday</v>
+        <v>Friday</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>20</v>
@@ -7019,53 +7279,50 @@
       <c r="D108" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45762</v>
+        <v>45746</v>
       </c>
       <c r="B109" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
+        <v>Sunday</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D109" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G109" s="41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45765</v>
+        <v>45748</v>
       </c>
       <c r="B110" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G110" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45767</v>
+        <v>45751</v>
       </c>
       <c r="B111" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sunday</v>
+        <v>Friday</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>20</v>
@@ -7074,49 +7331,52 @@
         <v>26</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45769</v>
+        <v>45753</v>
       </c>
       <c r="B112" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
+        <v>Sunday</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D112" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45772</v>
+        <v>45755</v>
       </c>
       <c r="B113" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45774</v>
+        <v>45758</v>
       </c>
       <c r="B114" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sunday</v>
+        <v>Friday</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>20</v>
@@ -7124,50 +7384,53 @@
       <c r="D114" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45776</v>
+        <v>45760</v>
       </c>
       <c r="B115" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
+        <v>Sunday</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D115" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45779</v>
+        <v>45762</v>
       </c>
       <c r="B116" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G116" s="39" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45781</v>
+        <v>45765</v>
       </c>
       <c r="B117" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sunday</v>
+        <v>Friday</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>20</v>
@@ -7175,25 +7438,156 @@
       <c r="D117" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E117" s="3" t="s">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>45767</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G117" s="41" t="s">
-        <v>135</v>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>45769</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>45772</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Friday</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>45774</v>
+      </c>
+      <c r="B121" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>45776</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>45779</v>
+      </c>
+      <c r="B123" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Friday</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>45781</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124" s="39" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C46:C48"/>
+  <mergeCells count="21">
+    <mergeCell ref="C61:E65"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="E75:Q75"/>
+    <mergeCell ref="C75:D75"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="E5:Q5"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="D52:D54"/>
     <mergeCell ref="E10:Q10"/>
+    <mergeCell ref="E20:Q20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E15:Q15"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="E19:Q19"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="E14:Q14"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7203,7 +7597,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7211,15 +7605,15 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="7" operator="containsText" text="University">
+    <cfRule type="containsText" dxfId="44" priority="30" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="8" operator="containsText" text="Yelverton">
+    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="Yelverton">
       <formula>NOT(ISERROR(SEARCH("Yelverton",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="colorScale" priority="162">
+  <conditionalFormatting sqref="C4">
+    <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7227,7 +7621,7 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="161">
+    <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7238,26 +7632,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C46 C49:C117">
-    <cfRule type="containsText" dxfId="62" priority="35" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C3)))</formula>
+  <conditionalFormatting sqref="C4:C31 C33:C52 C55:C61 C66:C124">
+    <cfRule type="containsText" dxfId="42" priority="57" operator="containsText" text="University">
+      <formula>NOT(ISERROR(SEARCH("University",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="34" operator="containsText" text="University">
-      <formula>NOT(ISERROR(SEARCH("University",C3)))</formula>
+    <cfRule type="containsText" dxfId="41" priority="58" operator="containsText" text="Yelverton">
+      <formula>NOT(ISERROR(SEARCH("Yelverton",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="colorScale" priority="154">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="155">
+  <conditionalFormatting sqref="C5">
+    <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7265,77 +7649,7 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C8">
-    <cfRule type="colorScale" priority="175">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="176">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7346,8 +7660,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:C105 C9:C11 C13:C14 C16:C46">
-    <cfRule type="colorScale" priority="169">
+  <conditionalFormatting sqref="C6:C8">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="199">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7355,7 +7679,97 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="168">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55:C61 C9:C11 C15:C16 C18 C20:C31 C66:C112 C33:C52">
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7366,18 +7780,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="123">
+  <conditionalFormatting sqref="C113">
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7385,137 +7789,7 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107:C108">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110:C111">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C113:C114">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116:C117">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7526,103 +7800,164 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1 D3:D46">
-    <cfRule type="containsText" dxfId="60" priority="124" operator="containsText" text="YMCA">
+  <conditionalFormatting sqref="C114:C115">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117:C118">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120:C121">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123:C124">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:E31 E32 D33:E60 D66:E66 D67 D68:E69 D70 D71:E74 E75 D76:E1048576">
+    <cfRule type="containsText" dxfId="40" priority="6" operator="containsText" text="Widewell">
+      <formula>NOT(ISERROR(SEARCH("Widewell",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="Lipson">
+      <formula>NOT(ISERROR(SEARCH("Lipson",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D46">
-    <cfRule type="containsText" dxfId="59" priority="125" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="126" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D117">
-    <cfRule type="containsText" dxfId="57" priority="31" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="33" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="32" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="54" priority="147" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="148" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="146" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
-    <cfRule type="containsText" dxfId="51" priority="93" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="92" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="91" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
-    <cfRule type="containsText" dxfId="48" priority="97" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="98" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="99" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
-    <cfRule type="containsText" dxfId="45" priority="137" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="138" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="139" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21 E23:E24 E26:E28 E30:E31 E33:E34 E36:E37 E39:E40 E42:E43 E45:E49 E51:E52 E54:E55 E57:E58 E60:E61 E63:E64 E66:E67 E69:E71 E73:E74 E76:E77 E79:E80 E82:E85 E87:E89 E91:E92 E94:E96 E98:E99 E101:E102">
-    <cfRule type="containsText" dxfId="42" priority="131" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="132" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="133" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104:E117">
-    <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E104)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F1:G2">
-    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="Club Target Day">
+    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="Club Target Day">
       <formula>NOT(ISERROR(SEARCH("Club Target Day",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7634,7 +7969,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="colorScale" priority="350">
+    <cfRule type="colorScale" priority="373">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7644,7 +7989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7653,18 +7998,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="colorScale" priority="184">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M7 M1 M9 M11:M1048576 M3:M4">
-    <cfRule type="colorScale" priority="180">
+  <conditionalFormatting sqref="M76:M1048576 M6:M7 M1 M9 M11:M12 M4 M16:M18 M21:M74">
+    <cfRule type="colorScale" priority="203">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7674,7 +8009,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="colorScale" priority="351">
+    <cfRule type="colorScale" priority="374">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7686,7 +8033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7697,18 +8044,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="colorScale" priority="359">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P7 P1 P9 P11:P1048576 P3:P4">
-    <cfRule type="colorScale" priority="178">
+  <conditionalFormatting sqref="P76:P1048576 P6:P7 P1 P9 P11:P12 P4 P16:P18 P21:P74">
+    <cfRule type="colorScale" priority="201">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7726,10 +8063,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF9BC55-E030-4D83-A3CE-E85DC3922C40}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
+      <selection pane="bottomLeft" activeCell="S47" sqref="S44:S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7749,7 +8086,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>
@@ -7767,17 +8104,17 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
       <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
@@ -7795,17 +8132,17 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45389</v>
       </c>
-      <c r="B2" s="23" t="str">
+      <c r="B2" s="22" t="str">
         <f>TEXT(A2, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="1"/>
@@ -7815,10 +8152,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="23" t="s">
         <v>58</v>
       </c>
       <c r="R2" s="9" t="s">
@@ -7828,7 +8162,7 @@
         <v>44</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -7862,7 +8196,7 @@
       </c>
       <c r="U3" s="3">
         <f>_xlfn.FLOOR.MATH(AVERAGE(SMALL(P1:P100, 1), SMALL(P1:P100, 2), SMALL(P1:P100, 3)))</f>
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -8018,14 +8352,14 @@
         <v>34</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>45403</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
@@ -8047,11 +8381,11 @@
       <c r="Q8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R8" s="36" t="s">
-        <v>118</v>
+      <c r="R8" s="35" t="s">
+        <v>116</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -8089,9 +8423,7 @@
       <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="33">
-        <v>42</v>
-      </c>
+      <c r="P9" s="32"/>
       <c r="Q9" s="3" t="s">
         <v>67</v>
       </c>
@@ -8103,23 +8435,23 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <v>45408</v>
       </c>
-      <c r="B10" s="23" t="str">
+      <c r="B10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="23" t="s">
         <v>69</v>
       </c>
       <c r="R10" s="18" t="s">
@@ -8130,10 +8462,10 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>45410</v>
       </c>
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
@@ -8163,14 +8495,14 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>45410</v>
       </c>
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -8197,20 +8529,20 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>45415</v>
       </c>
-      <c r="B13" s="23" t="str">
+      <c r="B13" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8228,7 +8560,7 @@
       <c r="D14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -8246,7 +8578,7 @@
       <c r="M14" s="5">
         <v>90</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="5">
         <v>784</v>
       </c>
       <c r="O14" s="3">
@@ -8270,7 +8602,7 @@
       <c r="D15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -8327,10 +8659,10 @@
       <c r="O16" s="3">
         <v>360</v>
       </c>
-      <c r="P16" s="33">
+      <c r="P16" s="32">
         <v>38</v>
       </c>
-      <c r="Q16" s="49" t="s">
+      <c r="Q16" s="66" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8351,7 +8683,7 @@
       <c r="E17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="49"/>
+      <c r="Q17" s="66"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -8367,7 +8699,7 @@
       <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="49"/>
+      <c r="Q18" s="66"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -8386,7 +8718,7 @@
       <c r="E19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="49"/>
+      <c r="Q19" s="66"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -8396,16 +8728,16 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="64" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="49"/>
+      <c r="Q20" s="66"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -8415,56 +8747,53 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="55"/>
-      <c r="F21" s="69" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="64"/>
+      <c r="F21" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="24" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="49" t="s">
-        <v>98</v>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="Q21" s="66" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="57">
+      <c r="A22" s="69">
         <v>45431</v>
       </c>
-      <c r="B22" s="60" t="str">
+      <c r="B22" s="73" t="str">
         <f>TEXT(A22, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="70" t="s">
+      <c r="C22" s="66"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="70" t="s">
+      <c r="I22" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="70" t="s">
+      <c r="J22" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="68"/>
+      <c r="K22" s="79"/>
       <c r="M22" s="5">
         <v>72</v>
       </c>
@@ -8477,20 +8806,20 @@
       <c r="P22" s="3">
         <v>37</v>
       </c>
-      <c r="Q22" s="49"/>
+      <c r="Q22" s="66"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="68"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="79"/>
       <c r="M23" s="5">
         <v>72</v>
       </c>
@@ -8503,40 +8832,37 @@
       <c r="P23" s="3">
         <v>37</v>
       </c>
-      <c r="Q23" s="49"/>
+      <c r="Q23" s="66"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="30" t="s">
+      <c r="G24" s="23"/>
+      <c r="H24" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="60">
+      <c r="A25" s="73">
         <v>45433</v>
       </c>
-      <c r="B25" s="60" t="str">
+      <c r="B25" s="73" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
@@ -8554,25 +8880,25 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="67" t="s">
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -8592,7 +8918,7 @@
         <v>27</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>74</v>
@@ -8630,7 +8956,7 @@
       <c r="D28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -8658,7 +8984,7 @@
         <v>50</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S28" s="1"/>
     </row>
@@ -8680,21 +9006,21 @@
         <v>27</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="60">
+      <c r="A30" s="73">
         <v>45443</v>
       </c>
-      <c r="B30" s="60" t="str">
+      <c r="B30" s="73" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
@@ -8708,35 +9034,35 @@
         <v>27</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q30" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="58" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -8753,7 +9079,7 @@
         <v>24</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>86</v>
@@ -8780,10 +9106,10 @@
         <v>43</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45447</v>
       </c>
@@ -8801,7 +9127,7 @@
         <v>27</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>16</v>
@@ -8815,52 +9141,52 @@
       <c r="O33" s="3">
         <v>360</v>
       </c>
-      <c r="P33" s="33">
+      <c r="P33" s="32">
         <v>41</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
         <v>45450</v>
       </c>
-      <c r="B34" s="23" t="str">
+      <c r="B34" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="Q34" s="24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="57">
+      <c r="Q34" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="69">
         <v>45451</v>
       </c>
-      <c r="B35" s="60" t="str">
+      <c r="B35" s="73" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="25"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="5" t="s">
         <v>79</v>
       </c>
@@ -8880,18 +9206,18 @@
         <v>37</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="55"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="31" t="s">
-        <v>170</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="64"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>16</v>
@@ -8906,10 +9232,10 @@
         <v>150</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45452</v>
       </c>
@@ -8917,10 +9243,10 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="55"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="25"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="64"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="5" t="s">
         <v>7</v>
       </c>
@@ -8931,7 +9257,7 @@
         <v>16</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="M37" s="5">
         <v>90</v>
@@ -8946,10 +9272,10 @@
         <v>35</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>45454</v>
       </c>
@@ -8957,17 +9283,17 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="63"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="Q38" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D38" s="74"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="Q38" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>45457</v>
       </c>
@@ -8975,41 +9301,41 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="Q39" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="23">
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="Q39" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
         <v>45458</v>
       </c>
-      <c r="B40" s="23" t="str">
+      <c r="B40" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>45459</v>
       </c>
@@ -9017,17 +9343,17 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="Q41" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D41" s="74"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="Q41" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>45461</v>
       </c>
@@ -9035,105 +9361,117 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="Q42" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="35">
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="Q42" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
         <v>45464</v>
       </c>
-      <c r="B43" s="35" t="str">
+      <c r="B43" s="34" t="str">
         <f>TEXT(A43, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="C43" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="64"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="34">
+      <c r="C43" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="75"/>
+      <c r="Q43" s="75"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="33">
         <v>45464</v>
       </c>
-      <c r="B44" s="34" t="str">
+      <c r="B44" s="33" t="str">
         <f>TEXT(A44, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="28">
+      <c r="S44" s="3">
+        <f>(SMALL(P:P,1))</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="27">
         <v>45465</v>
       </c>
-      <c r="B45" s="23" t="str">
+      <c r="B45" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="30" t="s">
+      <c r="G45" s="23"/>
+      <c r="H45" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="23">
+      <c r="S45" s="3">
+        <f>(SMALL(P:P,2))</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="22">
         <v>45466</v>
       </c>
-      <c r="B46" s="23" t="str">
+      <c r="B46" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F46" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="S46" s="51">
+        <f>(SMALL(P:P,3))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45468</v>
       </c>
@@ -9151,16 +9489,20 @@
         <v>27</v>
       </c>
       <c r="I47" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q47" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S47" s="3">
+        <f>FLOOR(AVERAGE(S44:S46), 1)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45471</v>
       </c>
@@ -9184,7 +9526,7 @@
         <v>12</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -9202,10 +9544,10 @@
         <v>24</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>74</v>
@@ -9226,7 +9568,7 @@
         <v>432</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -9247,10 +9589,10 @@
         <v>27</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>13</v>
@@ -9274,7 +9616,7 @@
         <v>28</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -9292,22 +9634,22 @@
         <v>24</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -9328,10 +9670,10 @@
         <v>27</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -9352,7 +9694,7 @@
         <v>28</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -9370,19 +9712,19 @@
         <v>24</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="J55" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M55" s="3">
         <v>96</v>
@@ -9397,7 +9739,7 @@
         <v>43</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -9418,19 +9760,19 @@
         <v>27</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M56" s="3">
         <v>48</v>
@@ -9445,7 +9787,7 @@
         <v>31</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -9456,42 +9798,42 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="66"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q57" s="24" t="s">
-        <v>96</v>
+      <c r="Q57" s="23" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="23">
+      <c r="A58" s="22">
         <v>45493</v>
       </c>
-      <c r="B58" s="23" t="str">
+      <c r="B58" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
@@ -9501,18 +9843,18 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C59" s="66" t="s">
+      <c r="C59" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="66"/>
-      <c r="F59" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q59" s="24" t="s">
-        <v>96</v>
+      <c r="D59" s="77"/>
+      <c r="F59" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q59" s="23" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -9523,23 +9865,23 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C60" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
-      <c r="O60" s="67"/>
-      <c r="P60" s="67"/>
-      <c r="Q60" s="67"/>
+      <c r="C60" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="78"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="78"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -9559,13 +9901,13 @@
         <v>27</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>83</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -9586,13 +9928,13 @@
         <v>27</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
@@ -9610,34 +9952,34 @@
         <v>41</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="60">
+      <c r="A63" s="73">
         <v>45501</v>
       </c>
-      <c r="B63" s="58" t="str">
+      <c r="B63" s="70" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="59" t="s">
+      <c r="E63" s="72" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>87</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>16</v>
@@ -9655,20 +9997,20 @@
         <v>38</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="60"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="59"/>
+      <c r="A64" s="73"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="72"/>
       <c r="F64" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>16</v>
@@ -9684,24 +10026,24 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="60">
+      <c r="A65" s="73">
         <v>45503</v>
       </c>
-      <c r="B65" s="58" t="str">
+      <c r="B65" s="70" t="str">
         <f>TEXT(A65, "dddd")</f>
         <v>Tuesday</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="59" t="s">
+      <c r="E65" s="72" t="s">
         <v>27</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>16</v>
@@ -9719,20 +10061,20 @@
         <v>34</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="60"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="59"/>
+      <c r="A66" s="73"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="72"/>
       <c r="F66" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>16</v>
@@ -9765,13 +10107,13 @@
         <v>27</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -9788,14 +10130,14 @@
       <c r="D68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="25" t="s">
-        <v>92</v>
+      <c r="F68" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>87</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>16</v>
@@ -9813,7 +10155,7 @@
         <v>39</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -9833,14 +10175,14 @@
       <c r="E69" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G69" s="25" t="s">
-        <v>157</v>
+      <c r="F69" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>12</v>
@@ -9858,7 +10200,7 @@
         <v>216</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -9891,14 +10233,14 @@
         <v>720</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="44">
+      <c r="A71" s="42">
         <v>45515</v>
       </c>
-      <c r="B71" s="37" t="str">
+      <c r="B71" s="36" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
@@ -9911,19 +10253,19 @@
       <c r="E71" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="H71" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="I71" s="25" t="s">
+      <c r="F71" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I71" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J71" s="25" t="s">
+      <c r="J71" s="24" t="s">
         <v>83</v>
       </c>
       <c r="M71" s="3">
@@ -9939,14 +10281,14 @@
         <v>34</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
+      <c r="A72" s="21">
         <v>45517</v>
       </c>
-      <c r="B72" s="48" t="str">
+      <c r="B72" s="46" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
@@ -9993,7 +10335,7 @@
         <v>27</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>16</v>
@@ -10006,24 +10348,24 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="57">
+      <c r="A74" s="69">
         <v>45521</v>
       </c>
-      <c r="B74" s="58" t="str">
-        <f t="shared" ref="B74:B89" si="2">TEXT(A74, "dddd")</f>
+      <c r="B74" s="70" t="str">
+        <f t="shared" ref="B74:B94" si="2">TEXT(A74, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="C74" s="49" t="s">
+      <c r="C74" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="55" t="s">
+      <c r="D74" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="65" t="s">
+      <c r="F74" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="G74" s="45"/>
-      <c r="H74" s="32" t="s">
+      <c r="G74" s="43"/>
+      <c r="H74" s="31" t="s">
         <v>78</v>
       </c>
       <c r="I74" s="5" t="s">
@@ -10042,18 +10384,18 @@
         <v>30</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="55"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="31" t="s">
-        <v>170</v>
+      <c r="A75" s="69"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="64"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>16</v>
@@ -10068,18 +10410,18 @@
         <v>150</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="55"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="31" t="s">
-        <v>170</v>
+      <c r="A76" s="69"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="64"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>16</v>
@@ -10094,7 +10436,7 @@
         <v>150</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -10105,11 +10447,11 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C77" s="49"/>
-      <c r="D77" s="55"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="31" t="s">
+      <c r="C77" s="66"/>
+      <c r="D77" s="64"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="30" t="s">
         <v>76</v>
       </c>
       <c r="I77" s="3" t="s">
@@ -10137,7 +10479,7 @@
         <v>34</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -10154,23 +10496,20 @@
       <c r="D78" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F78" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G78" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="H78" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="I78" s="24" t="s">
+      <c r="F78" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I78" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J78" s="24" t="s">
+      <c r="J78" s="23" t="s">
         <v>13</v>
-      </c>
-      <c r="O78" s="3">
-        <v>432</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -10194,7 +10533,7 @@
         <v>13</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -10214,120 +10553,133 @@
       <c r="E80" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G80" s="25" t="s">
-        <v>157</v>
+      <c r="F80" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J80" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="M80" s="3">
-        <v>48</v>
+        <v>24</v>
+      </c>
+      <c r="N80" s="3">
+        <v>206</v>
       </c>
       <c r="O80" s="3">
-        <v>432</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="42">
         <v>45529</v>
       </c>
-      <c r="B81" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B81" s="36" t="str">
+        <f>TEXT(A81, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M81" s="3">
-        <v>96</v>
-      </c>
-      <c r="O81" s="3">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="E81" s="24"/>
+      <c r="F81" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="42">
         <v>45531</v>
       </c>
-      <c r="B82" s="1" t="str">
+      <c r="B82" s="36" t="str">
         <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="50" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="F82" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="H82" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="I82" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="66"/>
+      <c r="M82" s="24">
+        <v>36</v>
+      </c>
+      <c r="N82" s="66">
+        <v>612</v>
+      </c>
+      <c r="O82" s="66">
+        <v>720</v>
+      </c>
+      <c r="P82" s="66">
+        <v>27</v>
+      </c>
+      <c r="Q82" s="66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="42">
         <v>45534</v>
       </c>
-      <c r="B83" s="1" t="str">
+      <c r="B83" s="36" t="str">
         <f t="shared" si="2"/>
         <v>Friday</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F83" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G83" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M83" s="3">
-        <v>48</v>
-      </c>
-      <c r="O83" s="3">
-        <v>432</v>
-      </c>
+      <c r="F83" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="66"/>
+      <c r="L83" s="66"/>
+      <c r="M83" s="24">
+        <v>36</v>
+      </c>
+      <c r="N83" s="66"/>
+      <c r="O83" s="66"/>
+      <c r="P83" s="66"/>
+      <c r="Q83" s="66"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
@@ -10343,12 +10695,12 @@
       <c r="D84" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F84" s="38" t="s">
+      <c r="F84" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G84" s="31"/>
+      <c r="G84" s="30"/>
       <c r="H84" s="3" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>15</v>
@@ -10358,9 +10710,6 @@
       </c>
       <c r="K84" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="M84" s="5">
-        <v>108</v>
       </c>
       <c r="O84" s="3">
         <v>972</v>
@@ -10380,14 +10729,32 @@
       <c r="D85" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F85" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G85" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="H85" s="24" t="s">
+      <c r="F85" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="30" t="s">
         <v>153</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M85" s="3">
+        <v>72</v>
+      </c>
+      <c r="N85" s="3">
+        <v>599</v>
+      </c>
+      <c r="O85" s="3">
+        <v>720</v>
+      </c>
+      <c r="P85" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -10408,25 +10775,34 @@
         <v>27</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M86" s="3">
-        <v>48</v>
-      </c>
-      <c r="O86" s="3">
-        <v>432</v>
+        <v>149</v>
+      </c>
+      <c r="H86" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="I86" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="66"/>
+      <c r="M86" s="24">
+        <v>36</v>
+      </c>
+      <c r="N86" s="66">
+        <v>618</v>
+      </c>
+      <c r="O86" s="66">
+        <v>720</v>
+      </c>
+      <c r="P86" s="66">
+        <v>26</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -10446,6 +10822,23 @@
       <c r="E87" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="F87" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="66"/>
+      <c r="M87" s="24">
+        <v>36</v>
+      </c>
+      <c r="N87" s="66"/>
+      <c r="O87" s="66"/>
+      <c r="P87" s="66"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
@@ -10455,80 +10848,143 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C88" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="61"/>
-      <c r="K88" s="61"/>
-      <c r="L88" s="61"/>
-      <c r="M88" s="61"/>
-      <c r="N88" s="61"/>
-      <c r="O88" s="61"/>
-      <c r="P88" s="61"/>
-      <c r="Q88" s="61"/>
+      <c r="C88" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="58"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="58"/>
+      <c r="L88" s="58"/>
+      <c r="M88" s="58"/>
+      <c r="N88" s="58"/>
+      <c r="O88" s="58"/>
+      <c r="P88" s="58"/>
+      <c r="Q88" s="58"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="27">
         <v>45543</v>
       </c>
-      <c r="B89" s="1" t="str">
+      <c r="B89" s="45" t="str">
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F89" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G89" s="7"/>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M89" s="3">
-        <v>72</v>
-      </c>
-      <c r="O89" s="3">
-        <v>648</v>
-      </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="1"/>
+      <c r="A90" s="21">
+        <v>45545</v>
+      </c>
+      <c r="B90" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="1"/>
+      <c r="A91" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Friday</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="22">
+        <v>45550</v>
+      </c>
+      <c r="B92" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G92" s="28" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="1"/>
+      <c r="A93" s="2">
+        <v>45557</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="1"/>
+      <c r="A94" s="2">
+        <v>45564</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="65">
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="C40:Q40"/>
     <mergeCell ref="C38:D39"/>
@@ -10577,14 +11033,31 @@
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="D65:D66"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="N86:N87"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="L86:L87"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C20 C24:C25 C27:C36 C44:C56 C72:C76">
-    <cfRule type="containsText" dxfId="35" priority="142" operator="containsText" text="Yelverton">
+    <cfRule type="containsText" dxfId="36" priority="143" operator="containsText" text="Yelverton">
       <formula>NOT(ISERROR(SEARCH("Yelverton",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C56 D35:D36 D15 D28 C27:C36 C24:C25 C2:C20">
-    <cfRule type="colorScale" priority="144">
+    <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10592,7 +11065,7 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="143">
+    <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10604,7 +11077,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C63 C65 C67">
-    <cfRule type="colorScale" priority="354">
+    <cfRule type="colorScale" priority="355">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10612,7 +11085,7 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="353">
+    <cfRule type="colorScale" priority="354">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10623,16 +11096,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C63 C65 C67:C71 C78:C89">
-    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="University">
+  <conditionalFormatting sqref="C61:C63 C65 C67:C71 C78:C94">
+    <cfRule type="containsText" dxfId="35" priority="14" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="14" operator="containsText" text="Yelverton">
+    <cfRule type="containsText" dxfId="34" priority="15" operator="containsText" text="Yelverton">
       <formula>NOT(ISERROR(SEARCH("Yelverton",C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10642,7 +11115,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10652,7 +11125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10662,7 +11135,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="84">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10672,7 +11145,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C71">
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10682,7 +11155,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="77">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10692,7 +11165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10702,7 +11175,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10712,12 +11185,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72:C76 C2:C20 C24:C25 C27:C36 C44:C56">
-    <cfRule type="containsText" dxfId="32" priority="141" operator="containsText" text="University">
+    <cfRule type="containsText" dxfId="33" priority="142" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10727,7 +11200,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10737,7 +11210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:C76">
-    <cfRule type="colorScale" priority="91">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10745,7 +11218,7 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10757,7 +11230,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10767,7 +11240,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10776,8 +11249,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79:C89">
-    <cfRule type="colorScale" priority="381">
+  <conditionalFormatting sqref="C79:C94">
+    <cfRule type="colorScale" priority="388">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10787,7 +11260,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="382">
+    <cfRule type="colorScale" priority="389">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10797,135 +11270,140 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D11 D44:D50 D52:D53 D55:D59 D61:D63 D65 D67:D71 D73:D87 D89:D1048576">
-    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11 D13:D20 D24:D25 D27:D36 D44:D48 D49:E49 D73">
-    <cfRule type="containsText" dxfId="30" priority="140" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="31" priority="141" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D20 D24:D25 D27:D36 D49:E49 D73:D76 D2:D11 D44:D48">
-    <cfRule type="containsText" dxfId="29" priority="139" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="30" priority="140" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D42 D49:E49">
-    <cfRule type="containsText" dxfId="28" priority="137" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="29" priority="138" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50 D52:D53 D55:D56">
-    <cfRule type="containsText" dxfId="27" priority="122" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="28" priority="124" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="123" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="123" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61:D63 D65 D67:D71">
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78:D87 D89">
-    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="Lip">
+  <conditionalFormatting sqref="D78:D87 D89:D94">
+    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="32" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:E76">
-    <cfRule type="containsText" dxfId="21" priority="46" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="22" priority="47" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8 E18">
-    <cfRule type="containsText" dxfId="20" priority="133" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="21" priority="134" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="135" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="20" priority="136" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="134" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="19" priority="135" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="17" priority="128" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="18" priority="128" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="129" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="129" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="16" priority="130" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="127" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" dxfId="14" priority="120" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="15" priority="121" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="119" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="14" priority="120" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="118" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="13" priority="119" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" dxfId="11" priority="117" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E55)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="116" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="116" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="11" priority="117" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="115" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E55)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="118" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="8" priority="113" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="9" priority="113" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="114" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="114" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="7" priority="115" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="112" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E76">
-    <cfRule type="containsText" dxfId="5" priority="45" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="6" priority="46" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="44" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="5" priority="45" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="containsText" dxfId="3" priority="24" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="4" priority="25" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="25" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="3" priority="26" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="26" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="2" priority="27" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E84)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:G42 F44:G59 F61:G62 F63 F64:G67 F68 F69:G87 F89:G1048576">
-    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="Club Target Day">
+  <conditionalFormatting sqref="F94">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Club Target Day">
+      <formula>NOT(ISERROR(SEARCH("Club Target Day",F94)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G42 F44:G59 F61:G62 F63 F64:G67 F68 F69:G87 F89:G93 F95:G1048576">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Club Target Day">
       <formula>NOT(ISERROR(SEARCH("Club Target Day",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10937,7 +11415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10949,7 +11427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:L42 I24:L25 I3:L22 I27:L30 I32:L35 I37:L39">
-    <cfRule type="colorScale" priority="159">
+    <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10961,7 +11439,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89:L89">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10973,7 +11451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M89:M1048576 M1:M30 M44:M59 M32:M42 M61:M87">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10982,8 +11460,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P89:P1048576 P41:P42 P59 P1:P30 P32:P39 P44:P57 P61:P87">
-    <cfRule type="colorScale" priority="136">
+  <conditionalFormatting sqref="P89:P1048576 P41:P42 P59 P1:P30 P32:P39 P84:P86 P44:P57 P61:P82">
+    <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/ARCHERY SHEETS/Archery.xlsx
+++ b/ARCHERY SHEETS/Archery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\corey-richardson\ARCHERY SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F54CA0F-8733-44CF-BDAC-FE85C18ADB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7636E46B-969B-4D7E-916E-463296065BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="204">
   <si>
     <t>Swansea SWWU</t>
   </si>
@@ -1098,6 +1098,21 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1113,40 +1128,34 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1158,16 +1167,7 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1213,14 +1213,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1269,6 +1269,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1276,7 +1290,42 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1304,34 +1353,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -1353,28 +1374,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1451,14 +1451,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1599,6 +1599,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:yVal>
             <c:numRef>
               <c:f>'24-25-Indoors'!$P$2:$P$139</c:f>
@@ -1616,6 +1631,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,6 +1721,8 @@
         <c:axId val="598351807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5088,9 +5108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003F6F8B-BAAF-49C4-80DC-F0AA35A5CBAB}">
   <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5133,12 +5153,12 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
       <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
@@ -5209,21 +5229,21 @@
         <v>20</v>
       </c>
       <c r="D3" s="48"/>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
       <c r="R3" s="11" t="s">
         <v>31</v>
       </c>
@@ -5369,21 +5389,21 @@
       <c r="D8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="67"/>
       <c r="R8" s="17" t="s">
         <v>35</v>
       </c>
@@ -5429,21 +5449,21 @@
       <c r="D10" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="67"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -5491,21 +5511,21 @@
       <c r="D13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -5519,21 +5539,21 @@
         <v>20</v>
       </c>
       <c r="D14" s="55"/>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -5545,21 +5565,21 @@
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -5636,21 +5656,21 @@
         <v>20</v>
       </c>
       <c r="D19" s="48"/>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -5660,23 +5680,23 @@
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="58" t="s">
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -5812,6 +5832,21 @@
       <c r="H26" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="I26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="3">
+        <v>60</v>
+      </c>
+      <c r="N26" s="3">
+        <v>558</v>
+      </c>
+      <c r="O26" s="3">
+        <v>600</v>
+      </c>
+      <c r="P26" s="3">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -5895,20 +5930,20 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="69">
+      <c r="A31" s="59">
         <v>45592</v>
       </c>
-      <c r="B31" s="70" t="str">
+      <c r="B31" s="60" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="61" t="s">
         <v>131</v>
       </c>
       <c r="G31" s="40"/>
@@ -5923,11 +5958,11 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="64"/>
-      <c r="F32" s="63"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="68"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="40"/>
       <c r="H32" s="52" t="s">
         <v>190</v>
@@ -6287,13 +6322,13 @@
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="64" t="s">
+      <c r="D52" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="F52" s="63" t="s">
+      <c r="F52" s="61" t="s">
         <v>135</v>
       </c>
       <c r="G52" s="41"/>
@@ -6315,9 +6350,9 @@
         <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="64"/>
-      <c r="F53" s="63"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="68"/>
+      <c r="F53" s="61"/>
       <c r="G53" s="41"/>
       <c r="H53" s="3" t="s">
         <v>190</v>
@@ -6331,8 +6366,8 @@
         <f t="shared" ref="B54" si="2">TEXT(A54, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="64"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="68"/>
       <c r="F54" s="56" t="s">
         <v>136</v>
       </c>
@@ -6469,11 +6504,11 @@
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C61" s="68" t="s">
+      <c r="C61" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
@@ -6483,9 +6518,9 @@
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="37">
@@ -6495,9 +6530,9 @@
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
@@ -6507,9 +6542,9 @@
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="37">
@@ -6519,9 +6554,9 @@
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -6672,23 +6707,23 @@
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="58" t="s">
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="58"/>
-      <c r="N75" s="58"/>
-      <c r="O75" s="58"/>
-      <c r="P75" s="58"/>
-      <c r="Q75" s="58"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="63"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="63"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -7564,11 +7599,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C61:E65"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="C52:C54"/>
     <mergeCell ref="E75:Q75"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="I1:L1"/>
@@ -7585,6 +7615,11 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="E13:Q13"/>
     <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="C61:E65"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="C52:C54"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C3">
     <cfRule type="colorScale" priority="27">
@@ -7613,14 +7648,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="colorScale" priority="178">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
@@ -7629,6 +7656,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -7641,14 +7676,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="colorScale" priority="153">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
@@ -7657,6 +7684,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -7761,14 +7796,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:C61 C9:C11 C15:C16 C18 C20:C31 C66:C112 C33:C52">
-    <cfRule type="colorScale" priority="192">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
@@ -7779,9 +7806,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C113">
-    <cfRule type="colorScale" priority="146">
+    <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7789,6 +7814,8 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C113">
     <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
@@ -7799,9 +7826,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114:C115">
-    <cfRule type="colorScale" priority="113">
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7809,6 +7834,8 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114:C115">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -7819,9 +7846,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116">
-    <cfRule type="colorScale" priority="139">
+    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7829,6 +7854,8 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
@@ -7839,9 +7866,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117:C118">
-    <cfRule type="colorScale" priority="100">
+    <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7849,6 +7874,8 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117:C118">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -7859,9 +7886,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
-    <cfRule type="colorScale" priority="87">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7869,6 +7894,8 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -7877,6 +7904,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -7921,14 +7956,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C123:C124">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -7939,13 +7966,21 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E31 E32 D33:E60 D66:E66 D67 D68:E69 D70 D71:E74 E75 D76:E1048576">
-    <cfRule type="containsText" dxfId="40" priority="6" operator="containsText" text="Widewell">
+    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="Lipson">
+      <formula>NOT(ISERROR(SEARCH("Lipson",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="Widewell">
       <formula>NOT(ISERROR(SEARCH("Widewell",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="Lipson">
-      <formula>NOT(ISERROR(SEARCH("Lipson",D1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
@@ -8063,10 +8098,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF9BC55-E030-4D83-A3CE-E85DC3922C40}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="S47" sqref="S44:S47"/>
+      <selection pane="bottomLeft" activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8109,12 +8144,12 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
       <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
@@ -8662,7 +8697,7 @@
       <c r="P16" s="32">
         <v>38</v>
       </c>
-      <c r="Q16" s="66" t="s">
+      <c r="Q16" s="62" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8683,7 +8718,7 @@
       <c r="E17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="66"/>
+      <c r="Q17" s="62"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -8699,7 +8734,7 @@
       <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="66"/>
+      <c r="Q18" s="62"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -8718,7 +8753,7 @@
       <c r="E19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="66"/>
+      <c r="Q19" s="62"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -8728,16 +8763,16 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="68" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="66"/>
+      <c r="Q20" s="62"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -8747,9 +8782,9 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="64"/>
-      <c r="F21" s="80" t="s">
+      <c r="C21" s="62"/>
+      <c r="D21" s="68"/>
+      <c r="F21" s="73" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="24"/>
@@ -8767,33 +8802,33 @@
       </c>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
-      <c r="Q21" s="66" t="s">
+      <c r="Q21" s="62" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="69">
+      <c r="A22" s="59">
         <v>45431</v>
       </c>
-      <c r="B22" s="73" t="str">
+      <c r="B22" s="77" t="str">
         <f>TEXT(A22, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="80"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="81" t="s">
+      <c r="H22" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="81" t="s">
+      <c r="I22" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="81" t="s">
+      <c r="J22" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="79"/>
+      <c r="K22" s="75"/>
       <c r="M22" s="5">
         <v>72</v>
       </c>
@@ -8806,20 +8841,20 @@
       <c r="P22" s="3">
         <v>37</v>
       </c>
-      <c r="Q22" s="66"/>
+      <c r="Q22" s="62"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="24"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="79"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
       <c r="M23" s="5">
         <v>72</v>
       </c>
@@ -8832,11 +8867,11 @@
       <c r="P23" s="3">
         <v>37</v>
       </c>
-      <c r="Q23" s="66"/>
+      <c r="Q23" s="62"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="73"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
@@ -8859,10 +8894,10 @@
       <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="73">
+      <c r="A25" s="77">
         <v>45433</v>
       </c>
-      <c r="B25" s="73" t="str">
+      <c r="B25" s="77" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
@@ -8880,25 +8915,25 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="78" t="s">
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -9017,10 +9052,10 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="73">
+      <c r="A30" s="77">
         <v>45443</v>
       </c>
-      <c r="B30" s="73" t="str">
+      <c r="B30" s="77" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
@@ -9044,25 +9079,25 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="58" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -9170,20 +9205,20 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="69">
+      <c r="A35" s="59">
         <v>45451</v>
       </c>
-      <c r="B35" s="73" t="str">
+      <c r="B35" s="77" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="80" t="s">
+      <c r="F35" s="73" t="s">
         <v>52</v>
       </c>
       <c r="G35" s="24"/>
@@ -9210,11 +9245,11 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="64"/>
-      <c r="F36" s="80"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="68"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="24"/>
       <c r="H36" s="30" t="s">
         <v>162</v>
@@ -9243,9 +9278,9 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="64"/>
-      <c r="F37" s="80"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="68"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="24"/>
       <c r="H37" s="5" t="s">
         <v>7</v>
@@ -9283,10 +9318,10 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C38" s="74" t="s">
+      <c r="C38" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="74"/>
+      <c r="D38" s="72"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="Q38" s="23" t="s">
@@ -9301,8 +9336,8 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="Q39" s="23" t="s">
@@ -9343,10 +9378,10 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="74"/>
+      <c r="D41" s="72"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="Q41" s="23" t="s">
@@ -9361,8 +9396,8 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="Q42" s="23" t="s">
@@ -9377,23 +9412,23 @@
         <f>TEXT(A43, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="75"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
@@ -9798,10 +9833,10 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="77"/>
+      <c r="D57" s="80"/>
       <c r="E57" s="8" t="s">
         <v>27</v>
       </c>
@@ -9843,10 +9878,10 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C59" s="77" t="s">
+      <c r="C59" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="77"/>
+      <c r="D59" s="80"/>
       <c r="F59" s="23" t="s">
         <v>91</v>
       </c>
@@ -9865,23 +9900,23 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C60" s="78" t="s">
+      <c r="C60" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="78"/>
-      <c r="Q60" s="78"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="76"/>
+      <c r="O60" s="76"/>
+      <c r="P60" s="76"/>
+      <c r="Q60" s="76"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -9956,20 +9991,20 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="73">
+      <c r="A63" s="77">
         <v>45501</v>
       </c>
-      <c r="B63" s="70" t="str">
+      <c r="B63" s="60" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="66" t="s">
+      <c r="D63" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="72" t="s">
+      <c r="E63" s="81" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -10001,11 +10036,11 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="73"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="72"/>
+      <c r="A64" s="77"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="81"/>
       <c r="F64" s="3" t="s">
         <v>145</v>
       </c>
@@ -10026,20 +10061,20 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="73">
+      <c r="A65" s="77">
         <v>45503</v>
       </c>
-      <c r="B65" s="70" t="str">
+      <c r="B65" s="60" t="str">
         <f>TEXT(A65, "dddd")</f>
         <v>Tuesday</v>
       </c>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="66" t="s">
+      <c r="D65" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="72" t="s">
+      <c r="E65" s="81" t="s">
         <v>27</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -10065,11 +10100,11 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="73"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="72"/>
+      <c r="A66" s="77"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="81"/>
       <c r="F66" s="3" t="s">
         <v>145</v>
       </c>
@@ -10348,20 +10383,20 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="69">
+      <c r="A74" s="59">
         <v>45521</v>
       </c>
-      <c r="B74" s="70" t="str">
+      <c r="B74" s="60" t="str">
         <f t="shared" ref="B74:B94" si="2">TEXT(A74, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="C74" s="66" t="s">
+      <c r="C74" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="64" t="s">
+      <c r="D74" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="76" t="s">
+      <c r="F74" s="79" t="s">
         <v>77</v>
       </c>
       <c r="G74" s="43"/>
@@ -10388,11 +10423,11 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="69"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="64"/>
-      <c r="F75" s="76"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="68"/>
+      <c r="F75" s="79"/>
       <c r="G75" s="43"/>
       <c r="H75" s="30" t="s">
         <v>162</v>
@@ -10414,11 +10449,11 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="69"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="64"/>
-      <c r="F76" s="76"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="68"/>
+      <c r="F76" s="79"/>
       <c r="G76" s="43"/>
       <c r="H76" s="30" t="s">
         <v>162</v>
@@ -10447,9 +10482,9 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="64"/>
-      <c r="F77" s="76"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="68"/>
+      <c r="F77" s="79"/>
       <c r="G77" s="43"/>
       <c r="H77" s="30" t="s">
         <v>76</v>
@@ -10620,28 +10655,28 @@
       <c r="G82" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="H82" s="66" t="s">
+      <c r="H82" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I82" s="66" t="s">
+      <c r="I82" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="66"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="62"/>
       <c r="M82" s="24">
         <v>36</v>
       </c>
-      <c r="N82" s="66">
+      <c r="N82" s="62">
         <v>612</v>
       </c>
-      <c r="O82" s="66">
+      <c r="O82" s="62">
         <v>720</v>
       </c>
-      <c r="P82" s="66">
+      <c r="P82" s="62">
         <v>27</v>
       </c>
-      <c r="Q82" s="66" t="s">
+      <c r="Q82" s="62" t="s">
         <v>186</v>
       </c>
     </row>
@@ -10668,18 +10703,18 @@
       <c r="G83" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="66"/>
-      <c r="L83" s="66"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="62"/>
       <c r="M83" s="24">
         <v>36</v>
       </c>
-      <c r="N83" s="66"/>
-      <c r="O83" s="66"/>
-      <c r="P83" s="66"/>
-      <c r="Q83" s="66"/>
+      <c r="N83" s="62"/>
+      <c r="O83" s="62"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
@@ -10780,25 +10815,25 @@
       <c r="G86" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H86" s="66" t="s">
+      <c r="H86" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I86" s="66" t="s">
+      <c r="I86" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66"/>
-      <c r="L86" s="66"/>
+      <c r="J86" s="62"/>
+      <c r="K86" s="62"/>
+      <c r="L86" s="62"/>
       <c r="M86" s="24">
         <v>36</v>
       </c>
-      <c r="N86" s="66">
+      <c r="N86" s="62">
         <v>618</v>
       </c>
-      <c r="O86" s="66">
+      <c r="O86" s="62">
         <v>720</v>
       </c>
-      <c r="P86" s="66">
+      <c r="P86" s="62">
         <v>26</v>
       </c>
       <c r="Q86" s="3" t="s">
@@ -10828,17 +10863,17 @@
       <c r="G87" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="66"/>
-      <c r="L87" s="66"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="62"/>
       <c r="M87" s="24">
         <v>36</v>
       </c>
-      <c r="N87" s="66"/>
-      <c r="O87" s="66"/>
-      <c r="P87" s="66"/>
+      <c r="N87" s="62"/>
+      <c r="O87" s="62"/>
+      <c r="P87" s="62"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
@@ -10848,23 +10883,23 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C88" s="58" t="s">
+      <c r="C88" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="58"/>
-      <c r="L88" s="58"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="58"/>
-      <c r="O88" s="58"/>
-      <c r="P88" s="58"/>
-      <c r="Q88" s="58"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="63"/>
+      <c r="L88" s="63"/>
+      <c r="M88" s="63"/>
+      <c r="N88" s="63"/>
+      <c r="O88" s="63"/>
+      <c r="P88" s="63"/>
+      <c r="Q88" s="63"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="27">
@@ -10985,26 +11020,35 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="C40:Q40"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="Q16:Q20"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="N86:N87"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="C58:Q58"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="D65:D66"/>
     <mergeCell ref="C88:Q88"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A30:A31"/>
@@ -11021,35 +11065,26 @@
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C58:Q58"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="N86:N87"/>
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="P86:P87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C40:Q40"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="Q16:Q20"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F21:F23"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C20 C24:C25 C27:C36 C44:C56 C72:C76">
     <cfRule type="containsText" dxfId="36" priority="143" operator="containsText" text="Yelverton">
@@ -11057,14 +11092,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C56 D35:D36 D15 D28 C27:C36 C24:C25 C2:C20">
-    <cfRule type="colorScale" priority="145">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
@@ -11075,9 +11102,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C63 C65 C67">
-    <cfRule type="colorScale" priority="355">
+    <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11085,6 +11110,8 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:C63 C65 C67">
     <cfRule type="colorScale" priority="354">
       <colorScale>
         <cfvo type="min"/>
@@ -11093,6 +11120,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="355">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -11210,14 +11245,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:C76">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -11226,6 +11253,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -11290,11 +11325,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50 D52:D53 D55:D56">
-    <cfRule type="containsText" dxfId="28" priority="124" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="28" priority="123" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="124" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="123" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61:D63 D65 D67:D71">
@@ -11306,11 +11341,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78:D87 D89:D94">
-    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="24" priority="32" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="32" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:E76">
@@ -11322,11 +11357,11 @@
     <cfRule type="containsText" dxfId="21" priority="134" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="136" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="20" priority="135" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="136" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="135" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
@@ -11341,14 +11376,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" dxfId="15" priority="121" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E52)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="119" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E52)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="120" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="119" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E52)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="121" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
@@ -11374,11 +11409,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E76">
-    <cfRule type="containsText" dxfId="6" priority="46" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="6" priority="45" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="46" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="45" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">

--- a/ARCHERY SHEETS/Archery.xlsx
+++ b/ARCHERY SHEETS/Archery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\corey-richardson\ARCHERY SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7636E46B-969B-4D7E-916E-463296065BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FABBC96-B65E-46B7-BE42-841001D15D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
   </bookViews>
   <sheets>
     <sheet name="24-25-Indoors" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'24-25-Indoors'!$M$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'24-25-Indoors'!$M$2:$M$103</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'24-25-Indoors'!$M$2:$M$105</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'24-Outdoors'!$M$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'24-Outdoors'!$M$2:$M$94</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="210">
   <si>
     <t>Swansea SWWU</t>
   </si>
@@ -655,13 +655,31 @@
   </si>
   <si>
     <t>New arrow tuning- VTAC-23s</t>
+  </si>
+  <si>
+    <t>D-Loop was getting thiiinnnn so stopped shooting early; retied a new one.</t>
+  </si>
+  <si>
+    <t>SWWU Leg 2 Experienced</t>
+  </si>
+  <si>
+    <t>SWWU Leg 2 Novice</t>
+  </si>
+  <si>
+    <t>Possible CTD? Check small hall</t>
+  </si>
+  <si>
+    <t>Retied nother new D-Loop; previous was looonnnngggggg</t>
+  </si>
+  <si>
+    <t>D-Loop slightly angled compared to peep sight; not making any changes before Exmouth though.  Helped with coaching.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,6 +797,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -929,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1098,21 +1125,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1128,34 +1140,40 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1167,14 +1185,26 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="53">
     <dxf>
       <fill>
         <patternFill>
@@ -1213,14 +1243,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1269,6 +1299,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -1277,6 +1328,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1304,34 +1376,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -1353,13 +1397,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -1368,13 +1405,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1444,6 +1474,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -1452,6 +1510,41 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1480,13 +1573,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1616,10 +1702,10 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'24-25-Indoors'!$P$2:$P$139</c:f>
+              <c:f>'24-25-Indoors'!$P$2:$P$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="138"/>
+                <c:ptCount val="140"/>
                 <c:pt idx="0">
                   <c:v>29</c:v>
                 </c:pt>
@@ -1634,6 +1720,15 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4599,7 +4694,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>149087</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4637,7 +4732,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="24155400" y="5334000"/>
-              <a:ext cx="4568687" cy="3124200"/>
+              <a:ext cx="4568687" cy="3314700"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5106,11 +5201,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003F6F8B-BAAF-49C4-80DC-F0AA35A5CBAB}">
-  <dimension ref="A1:S124"/>
+  <dimension ref="A1:S126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5153,12 +5248,12 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
       <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
@@ -5229,21 +5324,21 @@
         <v>20</v>
       </c>
       <c r="D3" s="48"/>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
       <c r="R3" s="11" t="s">
         <v>31</v>
       </c>
@@ -5256,7 +5351,7 @@
         <v>45541</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B79" si="1">TEXT(A4, "dddd")</f>
+        <f t="shared" ref="B4:B81" si="1">TEXT(A4, "dddd")</f>
         <v>Friday</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -5389,21 +5484,21 @@
       <c r="D8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="67"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="62"/>
       <c r="R8" s="17" t="s">
         <v>35</v>
       </c>
@@ -5449,21 +5544,21 @@
       <c r="D10" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="67"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="62"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -5511,21 +5606,21 @@
       <c r="D13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -5539,21 +5634,21 @@
         <v>20</v>
       </c>
       <c r="D14" s="55"/>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -5565,21 +5660,21 @@
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -5640,7 +5735,7 @@
       <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="82">
         <v>29</v>
       </c>
     </row>
@@ -5656,21 +5751,21 @@
         <v>20</v>
       </c>
       <c r="D19" s="48"/>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -5680,23 +5775,23 @@
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="63" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -5730,7 +5825,7 @@
       <c r="O21" s="3">
         <v>270</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="82">
         <v>37</v>
       </c>
       <c r="Q21" s="3" t="s">
@@ -5866,7 +5961,22 @@
         <v>27</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="M27" s="3">
+        <v>9</v>
+      </c>
+      <c r="N27" s="3">
+        <v>83</v>
+      </c>
+      <c r="O27" s="3">
+        <v>90</v>
+      </c>
+      <c r="P27" s="82">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -5905,7 +6015,22 @@
         <v>27</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>132</v>
+        <v>201</v>
+      </c>
+      <c r="M29" s="3">
+        <v>12</v>
+      </c>
+      <c r="N29" s="3">
+        <v>107</v>
+      </c>
+      <c r="O29" s="3">
+        <v>120</v>
+      </c>
+      <c r="P29" s="82">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -5926,24 +6051,39 @@
         <v>27</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>132</v>
+        <v>201</v>
+      </c>
+      <c r="M30" s="3">
+        <v>21</v>
+      </c>
+      <c r="N30" s="3">
+        <v>191</v>
+      </c>
+      <c r="O30" s="3">
+        <v>210</v>
+      </c>
+      <c r="P30" s="82">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="59">
+      <c r="A31" s="69">
         <v>45592</v>
       </c>
-      <c r="B31" s="60" t="str">
+      <c r="B31" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="63" t="s">
         <v>131</v>
       </c>
       <c r="G31" s="40"/>
@@ -5958,11 +6098,11 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="68"/>
-      <c r="F32" s="61"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="64"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="40"/>
       <c r="H32" s="52" t="s">
         <v>190</v>
@@ -6042,62 +6182,62 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>24</v>
+      <c r="D37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45601</v>
+        <v>45599</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Tuesday</v>
+        <v>Sunday</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45604</v>
+        <v>45601</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45606</v>
+        <v>45604</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Friday</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>20</v>
@@ -6106,49 +6246,49 @@
         <v>26</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45608</v>
+        <v>45606</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Tuesday</v>
+        <v>Sunday</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45611</v>
+        <v>45608</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45613</v>
+        <v>45611</v>
       </c>
       <c r="B43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Friday</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>20</v>
@@ -6157,49 +6297,55 @@
         <v>26</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45615</v>
+        <v>45613</v>
       </c>
       <c r="B44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Tuesday</v>
+        <v>Sunday</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45618</v>
+        <v>45615</v>
       </c>
       <c r="B45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45620</v>
+        <v>45618</v>
       </c>
       <c r="B46" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Friday</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>20</v>
@@ -6208,1403 +6354,1445 @@
         <v>26</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
+        <v>45619</v>
+      </c>
+      <c r="B47" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45620</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S48" s="3">
         <f>(SMALL(P:P,1))</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>45622</v>
       </c>
-      <c r="B47" s="1" t="str">
+      <c r="B49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S49" s="3">
         <f>(SMALL(P:P,2))</f>
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>45625</v>
       </c>
-      <c r="B48" s="1" t="str">
+      <c r="B50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S48" s="51">
+      <c r="S50" s="51">
         <f>(SMALL(P:P,3))</f>
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>45627</v>
       </c>
-      <c r="B49" s="1" t="str">
+      <c r="B51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="S49" s="3">
-        <f>FLOOR(AVERAGE(S46:S48), 1)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="S51" s="3">
+        <f>FLOOR(AVERAGE(S48:S50), 1)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>45629</v>
       </c>
-      <c r="B50" s="1" t="str">
+      <c r="B52" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>45632</v>
       </c>
-      <c r="B51" s="1" t="str">
+      <c r="B53" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>45632</v>
       </c>
-      <c r="B52" s="1" t="str">
+      <c r="B54" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C54" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="D54" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="F52" s="61" t="s">
+      <c r="F54" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="G52" s="41"/>
-      <c r="H52" s="3" t="s">
+      <c r="G54" s="41"/>
+      <c r="H54" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M54" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>45633</v>
       </c>
-      <c r="B53" s="1" t="str">
+      <c r="B55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
-      <c r="C53" s="62"/>
-      <c r="D53" s="68"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="3" t="s">
+      <c r="C55" s="66"/>
+      <c r="D55" s="64"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>45634</v>
       </c>
-      <c r="B54" s="1" t="str">
-        <f t="shared" ref="B54" si="2">TEXT(A54, "dddd")</f>
+      <c r="B56" s="1" t="str">
+        <f t="shared" ref="B56" si="2">TEXT(A56, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="68"/>
-      <c r="F54" s="56" t="s">
+      <c r="C56" s="66"/>
+      <c r="D56" s="64"/>
+      <c r="F56" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="G54" s="41"/>
-      <c r="H54" s="5" t="s">
+      <c r="G56" s="41"/>
+      <c r="H56" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M56" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>45634</v>
       </c>
-      <c r="B55" s="1" t="str">
+      <c r="B57" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>45636</v>
       </c>
-      <c r="B56" s="1" t="str">
+      <c r="B58" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>45639</v>
       </c>
-      <c r="B57" s="1" t="str">
+      <c r="B59" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>45641</v>
       </c>
-      <c r="B58" s="1" t="str">
+      <c r="B60" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="40" t="s">
+      <c r="F60" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H60" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M60" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>45643</v>
       </c>
-      <c r="B59" s="1" t="str">
+      <c r="B61" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G59" s="39" t="s">
+      <c r="G61" s="39" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>45646</v>
       </c>
-      <c r="B60" s="1" t="str">
+      <c r="B62" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="37">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="37">
         <v>45648</v>
       </c>
-      <c r="B61" s="38" t="str">
+      <c r="B63" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="C63" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="37">
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="37">
         <v>45650</v>
       </c>
-      <c r="B62" s="38" t="str">
+      <c r="B64" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="37">
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="37">
         <v>45653</v>
       </c>
-      <c r="B63" s="38" t="str">
+      <c r="B65" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="37">
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="37">
         <v>45655</v>
       </c>
-      <c r="B64" s="38" t="str">
+      <c r="B66" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="37">
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="37">
         <v>45657</v>
       </c>
-      <c r="B65" s="38" t="str">
+      <c r="B67" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>45660</v>
       </c>
-      <c r="B66" s="1" t="str">
+      <c r="B68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>45662</v>
       </c>
-      <c r="B67" s="1" t="str">
+      <c r="B69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>45664</v>
       </c>
-      <c r="B68" s="1" t="str">
+      <c r="B70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
         <v>45667</v>
       </c>
-      <c r="B69" s="1" t="str">
+      <c r="B71" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
         <v>45669</v>
       </c>
-      <c r="B70" s="1" t="str">
+      <c r="B72" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
         <v>45671</v>
       </c>
-      <c r="B71" s="1" t="str">
+      <c r="B73" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
         <v>45674</v>
       </c>
-      <c r="B72" s="1" t="str">
+      <c r="B74" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <v>45676</v>
       </c>
-      <c r="B73" s="1" t="str">
+      <c r="B75" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F75" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
         <v>45678</v>
       </c>
-      <c r="B74" s="1" t="str">
+      <c r="B76" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>45678</v>
       </c>
-      <c r="B75" s="1" t="str">
+      <c r="B77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="63" t="s">
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="63"/>
-      <c r="O75" s="63"/>
-      <c r="P75" s="63"/>
-      <c r="Q75" s="63"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="F77" s="58"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="58"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="58"/>
+      <c r="L77" s="58"/>
+      <c r="M77" s="58"/>
+      <c r="N77" s="58"/>
+      <c r="O77" s="58"/>
+      <c r="P77" s="58"/>
+      <c r="Q77" s="58"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
         <v>45681</v>
       </c>
-      <c r="B76" s="1" t="str">
+      <c r="B78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
         <v>45683</v>
       </c>
-      <c r="B77" s="1" t="str">
+      <c r="B79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D79" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <v>45683</v>
       </c>
-      <c r="B78" s="1" t="str">
+      <c r="B80" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>45685</v>
       </c>
-      <c r="B79" s="1" t="str">
+      <c r="B81" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
         <v>45688</v>
       </c>
-      <c r="B80" s="1" t="str">
-        <f t="shared" ref="B80:B124" si="3">TEXT(A80, "dddd")</f>
+      <c r="B82" s="1" t="str">
+        <f t="shared" ref="B82:B126" si="3">TEXT(A82, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
         <v>45690</v>
       </c>
-      <c r="B81" s="1" t="str">
+      <c r="B83" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
         <v>45692</v>
       </c>
-      <c r="B82" s="1" t="str">
+      <c r="B84" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
         <v>45695</v>
       </c>
-      <c r="B83" s="1" t="str">
+      <c r="B85" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
         <v>45697</v>
       </c>
-      <c r="B84" s="1" t="str">
+      <c r="B86" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
         <v>45699</v>
       </c>
-      <c r="B85" s="1" t="str">
+      <c r="B87" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
         <v>45702</v>
       </c>
-      <c r="B86" s="1" t="str">
+      <c r="B88" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
         <v>45704</v>
       </c>
-      <c r="B87" s="1" t="str">
+      <c r="B89" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
         <v>45706</v>
       </c>
-      <c r="B88" s="1" t="str">
+      <c r="B90" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
         <v>45709</v>
       </c>
-      <c r="B89" s="1" t="str">
+      <c r="B91" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
         <v>45710</v>
       </c>
-      <c r="B90" s="1" t="str">
+      <c r="B92" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Saturday</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D92" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F90" s="40" t="s">
+      <c r="F92" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G90" s="40"/>
-      <c r="H90" s="3" t="s">
+      <c r="G92" s="40"/>
+      <c r="H92" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M90" s="3">
+      <c r="M92" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
         <v>45711</v>
       </c>
-      <c r="B91" s="1" t="str">
+      <c r="B93" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F91" s="40" t="s">
+      <c r="F93" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="G91" s="40"/>
-      <c r="H91" s="3" t="s">
+      <c r="G93" s="40"/>
+      <c r="H93" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M93" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
         <v>45711</v>
       </c>
-      <c r="B92" s="1" t="str">
+      <c r="B94" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
         <v>45713</v>
       </c>
-      <c r="B93" s="1" t="str">
+      <c r="B95" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
         <v>45716</v>
       </c>
-      <c r="B94" s="1" t="str">
+      <c r="B96" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
         <v>45718</v>
       </c>
-      <c r="B95" s="1" t="str">
+      <c r="B97" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D97" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F97" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
         <v>45718</v>
       </c>
-      <c r="B96" s="1" t="str">
+      <c r="B98" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E98" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
         <v>45720</v>
       </c>
-      <c r="B97" s="1" t="str">
+      <c r="B99" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
         <v>45723</v>
       </c>
-      <c r="B98" s="1" t="str">
+      <c r="B100" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
         <v>45725</v>
       </c>
-      <c r="B99" s="1" t="str">
+      <c r="B101" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
         <v>45727</v>
       </c>
-      <c r="B100" s="1" t="str">
+      <c r="B102" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
         <v>45730</v>
       </c>
-      <c r="B101" s="1" t="str">
+      <c r="B103" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
         <v>45731</v>
       </c>
-      <c r="B102" s="1" t="str">
+      <c r="B104" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Saturday</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D104" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F104" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="H104" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M104" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
         <v>45732</v>
       </c>
-      <c r="B103" s="1" t="str">
+      <c r="B105" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
         <v>45734</v>
       </c>
-      <c r="B104" s="1" t="str">
+      <c r="B106" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
         <v>45737</v>
       </c>
-      <c r="B105" s="1" t="str">
+      <c r="B107" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
         <v>45739</v>
       </c>
-      <c r="B106" s="1" t="str">
+      <c r="B108" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
         <v>45741</v>
       </c>
-      <c r="B107" s="1" t="str">
+      <c r="B109" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
         <v>45744</v>
       </c>
-      <c r="B108" s="1" t="str">
+      <c r="B110" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
         <v>45746</v>
       </c>
-      <c r="B109" s="1" t="str">
+      <c r="B111" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
         <v>45748</v>
       </c>
-      <c r="B110" s="1" t="str">
+      <c r="B112" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G110" s="39" t="s">
+      <c r="G112" s="39" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
         <v>45751</v>
       </c>
-      <c r="B111" s="1" t="str">
+      <c r="B113" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
         <v>45753</v>
       </c>
-      <c r="B112" s="1" t="str">
+      <c r="B114" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
         <v>45755</v>
       </c>
-      <c r="B113" s="1" t="str">
+      <c r="B115" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
         <v>45758</v>
       </c>
-      <c r="B114" s="1" t="str">
+      <c r="B116" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
         <v>45760</v>
       </c>
-      <c r="B115" s="1" t="str">
+      <c r="B117" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
         <v>45762</v>
       </c>
-      <c r="B116" s="1" t="str">
+      <c r="B118" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E118" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G116" s="39" t="s">
+      <c r="G118" s="39" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
         <v>45765</v>
       </c>
-      <c r="B117" s="1" t="str">
+      <c r="B119" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
         <v>45767</v>
       </c>
-      <c r="B118" s="1" t="str">
+      <c r="B120" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E120" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
         <v>45769</v>
       </c>
-      <c r="B119" s="1" t="str">
+      <c r="B121" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E121" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
         <v>45772</v>
       </c>
-      <c r="B120" s="1" t="str">
+      <c r="B122" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
         <v>45774</v>
       </c>
-      <c r="B121" s="1" t="str">
+      <c r="B123" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E123" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
         <v>45776</v>
       </c>
-      <c r="B122" s="1" t="str">
+      <c r="B124" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E124" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
         <v>45779</v>
       </c>
-      <c r="B123" s="1" t="str">
+      <c r="B125" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
         <v>45781</v>
       </c>
-      <c r="B124" s="1" t="str">
+      <c r="B126" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E126" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G124" s="39" t="s">
+      <c r="G126" s="39" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E75:Q75"/>
-    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C63:E67"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="E77:Q77"/>
+    <mergeCell ref="C77:D77"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="D54:D56"/>
     <mergeCell ref="E10:Q10"/>
     <mergeCell ref="E20:Q20"/>
     <mergeCell ref="C20:D20"/>
@@ -7615,14 +7803,9 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="E13:Q13"/>
     <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="C61:E65"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="C52:C54"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7632,7 +7815,13 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="containsText" dxfId="52" priority="45" operator="containsText" text="Yelverton">
+      <formula>NOT(ISERROR(SEARCH("Yelverton",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="44" operator="containsText" text="University">
+      <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7640,15 +7829,9 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="30" operator="containsText" text="University">
-      <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C2)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="colorScale" priority="177">
+    <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7658,7 +7841,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="178">
+    <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7667,15 +7850,251 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C31 C33:C52 C55:C61 C66:C124">
-    <cfRule type="containsText" dxfId="42" priority="57" operator="containsText" text="University">
+  <conditionalFormatting sqref="C4:C31 C57:C63 C68:C126">
+    <cfRule type="containsText" dxfId="50" priority="72" operator="containsText" text="Yelverton">
+      <formula>NOT(ISERROR(SEARCH("Yelverton",C4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="71" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="58" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C8">
+    <cfRule type="colorScale" priority="213">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="212">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C14">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C54">
+    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="University">
+      <formula>NOT(ISERROR(SEARCH("University",C33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="Yelverton">
+      <formula>NOT(ISERROR(SEARCH("Yelverton",C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C63 C9:C11 C15:C16 C18 C20:C31 C68:C114 C33:C36 C38:C46 C48:C54">
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116:C117">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
@@ -7686,7 +8105,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="153">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:C120">
+    <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7694,9 +8115,7 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C8">
-    <cfRule type="colorScale" priority="198">
+    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7706,17 +8125,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="199">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="C121">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7726,7 +8137,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7735,8 +8146,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C14">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="C122:C123">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7746,7 +8157,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7755,8 +8166,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="C124">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7766,17 +8185,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="C125:C126">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7786,7 +8197,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7795,8 +8206,98 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55:C61 C9:C11 C15:C16 C18 C20:C31 C66:C112 C33:C52">
-    <cfRule type="colorScale" priority="191">
+  <conditionalFormatting sqref="D37">
+    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="8" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="2" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:E31 E32 D33:E36 E37 D38:E46 E47 D48:E62 D68:E68 D69 D70:E71 D72 D73:E76 E77 D78:E1048576">
+    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="Lipson">
+      <formula>NOT(ISERROR(SEARCH("Lipson",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="20" operator="containsText" text="Widewell">
+      <formula>NOT(ISERROR(SEARCH("Widewell",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G2">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Club Target Day">
+      <formula>NOT(ISERROR(SEARCH("Club Target Day",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1">
+    <cfRule type="colorScale" priority="387">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M78:M1048576 M6:M7 M1 M9 M11:M12 M4 M16:M18 M21:M76">
+    <cfRule type="colorScale" priority="217">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1">
+    <cfRule type="colorScale" priority="388">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7806,17 +8307,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="192">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C113">
-    <cfRule type="colorScale" priority="145">
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7826,17 +8319,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="146">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C114:C115">
-    <cfRule type="colorScale" priority="112">
+  <conditionalFormatting sqref="P2">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7846,165 +8331,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C116">
-    <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="139">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117:C118">
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120:C121">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123:C124">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E31 E32 D33:E60 D66:E66 D67 D68:E69 D70 D71:E74 E75 D76:E1048576">
-    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="Lipson">
-      <formula>NOT(ISERROR(SEARCH("Lipson",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="Widewell">
-      <formula>NOT(ISERROR(SEARCH("Widewell",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:G2">
-    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="Club Target Day">
-      <formula>NOT(ISERROR(SEARCH("Club Target Day",F1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1">
-    <cfRule type="colorScale" priority="373">
+  <conditionalFormatting sqref="P78:P1048576 P6:P7 P1 P9 P11:P12 P4 P16:P18 P21:P76">
+    <cfRule type="colorScale" priority="215">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8013,84 +8342,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M76:M1048576 M6:M7 M1 M9 M11:M12 M4 M16:M18 M21:M74">
-    <cfRule type="colorScale" priority="203">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1">
-    <cfRule type="colorScale" priority="374">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P76:P1048576 P6:P7 P1 P9 P11:P12 P4 P16:P18 P21:P74">
-    <cfRule type="colorScale" priority="201">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8098,10 +8352,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF9BC55-E030-4D83-A3CE-E85DC3922C40}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="X16" sqref="X16"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8144,12 +8398,12 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
       <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
@@ -8697,7 +8951,7 @@
       <c r="P16" s="32">
         <v>38</v>
       </c>
-      <c r="Q16" s="62" t="s">
+      <c r="Q16" s="66" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8718,7 +8972,7 @@
       <c r="E17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="62"/>
+      <c r="Q17" s="66"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -8734,7 +8988,7 @@
       <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="62"/>
+      <c r="Q18" s="66"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -8753,7 +9007,7 @@
       <c r="E19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="62"/>
+      <c r="Q19" s="66"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -8763,16 +9017,16 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="64" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="62"/>
+      <c r="Q20" s="66"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -8782,9 +9036,9 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="68"/>
-      <c r="F21" s="73" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="64"/>
+      <c r="F21" s="80" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="24"/>
@@ -8802,33 +9056,33 @@
       </c>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
-      <c r="Q21" s="62" t="s">
+      <c r="Q21" s="66" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="59">
+      <c r="A22" s="69">
         <v>45431</v>
       </c>
-      <c r="B22" s="77" t="str">
+      <c r="B22" s="73" t="str">
         <f>TEXT(A22, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="73"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="80"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="74" t="s">
+      <c r="H22" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="74" t="s">
+      <c r="I22" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="74" t="s">
+      <c r="J22" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="75"/>
+      <c r="K22" s="79"/>
       <c r="M22" s="5">
         <v>72</v>
       </c>
@@ -8841,20 +9095,20 @@
       <c r="P22" s="3">
         <v>37</v>
       </c>
-      <c r="Q22" s="62"/>
+      <c r="Q22" s="66"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="73"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="24"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="79"/>
       <c r="M23" s="5">
         <v>72</v>
       </c>
@@ -8867,11 +9121,11 @@
       <c r="P23" s="3">
         <v>37</v>
       </c>
-      <c r="Q23" s="62"/>
+      <c r="Q23" s="66"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="77"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
@@ -8894,10 +9148,10 @@
       <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="77">
+      <c r="A25" s="73">
         <v>45433</v>
       </c>
-      <c r="B25" s="77" t="str">
+      <c r="B25" s="73" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
@@ -8915,25 +9169,25 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="76" t="s">
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -9052,10 +9306,10 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="77">
+      <c r="A30" s="73">
         <v>45443</v>
       </c>
-      <c r="B30" s="77" t="str">
+      <c r="B30" s="73" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
@@ -9079,25 +9333,25 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="63" t="s">
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -9205,20 +9459,20 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="59">
+      <c r="A35" s="69">
         <v>45451</v>
       </c>
-      <c r="B35" s="77" t="str">
+      <c r="B35" s="73" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="73" t="s">
+      <c r="F35" s="80" t="s">
         <v>52</v>
       </c>
       <c r="G35" s="24"/>
@@ -9245,11 +9499,11 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="68"/>
-      <c r="F36" s="73"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="64"/>
+      <c r="F36" s="80"/>
       <c r="G36" s="24"/>
       <c r="H36" s="30" t="s">
         <v>162</v>
@@ -9278,9 +9532,9 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="68"/>
-      <c r="F37" s="73"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="64"/>
+      <c r="F37" s="80"/>
       <c r="G37" s="24"/>
       <c r="H37" s="5" t="s">
         <v>7</v>
@@ -9318,10 +9572,10 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="72"/>
+      <c r="D38" s="74"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="Q38" s="23" t="s">
@@ -9336,8 +9590,8 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="Q39" s="23" t="s">
@@ -9378,10 +9632,10 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="72"/>
+      <c r="D41" s="74"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="Q41" s="23" t="s">
@@ -9396,8 +9650,8 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="Q42" s="23" t="s">
@@ -9412,23 +9666,23 @@
         <f>TEXT(A43, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C43" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="78"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="75"/>
+      <c r="Q43" s="75"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
@@ -9833,10 +10087,10 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C57" s="80" t="s">
+      <c r="C57" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="80"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="8" t="s">
         <v>27</v>
       </c>
@@ -9878,10 +10132,10 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C59" s="80" t="s">
+      <c r="C59" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="80"/>
+      <c r="D59" s="77"/>
       <c r="F59" s="23" t="s">
         <v>91</v>
       </c>
@@ -9900,23 +10154,23 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C60" s="76" t="s">
+      <c r="C60" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="76"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="78"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="78"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -9991,20 +10245,20 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="77">
+      <c r="A63" s="73">
         <v>45501</v>
       </c>
-      <c r="B63" s="60" t="str">
+      <c r="B63" s="70" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="62" t="s">
+      <c r="D63" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="81" t="s">
+      <c r="E63" s="72" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -10036,11 +10290,11 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="77"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="81"/>
+      <c r="A64" s="73"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="72"/>
       <c r="F64" s="3" t="s">
         <v>145</v>
       </c>
@@ -10061,20 +10315,20 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="77">
+      <c r="A65" s="73">
         <v>45503</v>
       </c>
-      <c r="B65" s="60" t="str">
+      <c r="B65" s="70" t="str">
         <f>TEXT(A65, "dddd")</f>
         <v>Tuesday</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="62" t="s">
+      <c r="D65" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="81" t="s">
+      <c r="E65" s="72" t="s">
         <v>27</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -10100,11 +10354,11 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="77"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="81"/>
+      <c r="A66" s="73"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="72"/>
       <c r="F66" s="3" t="s">
         <v>145</v>
       </c>
@@ -10383,20 +10637,20 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="59">
+      <c r="A74" s="69">
         <v>45521</v>
       </c>
-      <c r="B74" s="60" t="str">
+      <c r="B74" s="70" t="str">
         <f t="shared" ref="B74:B94" si="2">TEXT(A74, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="C74" s="62" t="s">
+      <c r="C74" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="68" t="s">
+      <c r="D74" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="79" t="s">
+      <c r="F74" s="76" t="s">
         <v>77</v>
       </c>
       <c r="G74" s="43"/>
@@ -10423,11 +10677,11 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="59"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="68"/>
-      <c r="F75" s="79"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="64"/>
+      <c r="F75" s="76"/>
       <c r="G75" s="43"/>
       <c r="H75" s="30" t="s">
         <v>162</v>
@@ -10449,11 +10703,11 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="59"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="68"/>
-      <c r="F76" s="79"/>
+      <c r="A76" s="69"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="64"/>
+      <c r="F76" s="76"/>
       <c r="G76" s="43"/>
       <c r="H76" s="30" t="s">
         <v>162</v>
@@ -10482,9 +10736,9 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="68"/>
-      <c r="F77" s="79"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="64"/>
+      <c r="F77" s="76"/>
       <c r="G77" s="43"/>
       <c r="H77" s="30" t="s">
         <v>76</v>
@@ -10655,28 +10909,28 @@
       <c r="G82" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="H82" s="62" t="s">
+      <c r="H82" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="I82" s="62" t="s">
+      <c r="I82" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="J82" s="62"/>
-      <c r="K82" s="62"/>
-      <c r="L82" s="62"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="66"/>
       <c r="M82" s="24">
         <v>36</v>
       </c>
-      <c r="N82" s="62">
+      <c r="N82" s="66">
         <v>612</v>
       </c>
-      <c r="O82" s="62">
+      <c r="O82" s="66">
         <v>720</v>
       </c>
-      <c r="P82" s="62">
+      <c r="P82" s="66">
         <v>27</v>
       </c>
-      <c r="Q82" s="62" t="s">
+      <c r="Q82" s="66" t="s">
         <v>186</v>
       </c>
     </row>
@@ -10703,18 +10957,18 @@
       <c r="G83" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="66"/>
+      <c r="L83" s="66"/>
       <c r="M83" s="24">
         <v>36</v>
       </c>
-      <c r="N83" s="62"/>
-      <c r="O83" s="62"/>
-      <c r="P83" s="62"/>
-      <c r="Q83" s="62"/>
+      <c r="N83" s="66"/>
+      <c r="O83" s="66"/>
+      <c r="P83" s="66"/>
+      <c r="Q83" s="66"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
@@ -10815,25 +11069,25 @@
       <c r="G86" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H86" s="62" t="s">
+      <c r="H86" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="I86" s="62" t="s">
+      <c r="I86" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="J86" s="62"/>
-      <c r="K86" s="62"/>
-      <c r="L86" s="62"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="66"/>
       <c r="M86" s="24">
         <v>36</v>
       </c>
-      <c r="N86" s="62">
+      <c r="N86" s="66">
         <v>618</v>
       </c>
-      <c r="O86" s="62">
+      <c r="O86" s="66">
         <v>720</v>
       </c>
-      <c r="P86" s="62">
+      <c r="P86" s="66">
         <v>26</v>
       </c>
       <c r="Q86" s="3" t="s">
@@ -10863,17 +11117,17 @@
       <c r="G87" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H87" s="62"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="62"/>
-      <c r="K87" s="62"/>
-      <c r="L87" s="62"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="66"/>
       <c r="M87" s="24">
         <v>36</v>
       </c>
-      <c r="N87" s="62"/>
-      <c r="O87" s="62"/>
-      <c r="P87" s="62"/>
+      <c r="N87" s="66"/>
+      <c r="O87" s="66"/>
+      <c r="P87" s="66"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
@@ -10883,23 +11137,23 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C88" s="63" t="s">
+      <c r="C88" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="63"/>
-      <c r="K88" s="63"/>
-      <c r="L88" s="63"/>
-      <c r="M88" s="63"/>
-      <c r="N88" s="63"/>
-      <c r="O88" s="63"/>
-      <c r="P88" s="63"/>
-      <c r="Q88" s="63"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="58"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="58"/>
+      <c r="L88" s="58"/>
+      <c r="M88" s="58"/>
+      <c r="N88" s="58"/>
+      <c r="O88" s="58"/>
+      <c r="P88" s="58"/>
+      <c r="Q88" s="58"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="27">
@@ -11020,35 +11274,26 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="N86:N87"/>
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="P86:P87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="C58:Q58"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C40:Q40"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="Q16:Q20"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C20:C23"/>
     <mergeCell ref="C88:Q88"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A30:A31"/>
@@ -11065,26 +11310,35 @@
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="C40:Q40"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="Q16:Q20"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="C58:Q58"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="N86:N87"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="L86:L87"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C20 C24:C25 C27:C36 C44:C56 C72:C76">
     <cfRule type="containsText" dxfId="36" priority="143" operator="containsText" text="Yelverton">
@@ -11092,6 +11346,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C56 D35:D36 D15 D28 C27:C36 C24:C25 C2:C20">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
@@ -11102,7 +11364,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="145">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:C63 C65 C67">
+    <cfRule type="colorScale" priority="355">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11110,8 +11374,6 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C63 C65 C67">
     <cfRule type="colorScale" priority="354">
       <colorScale>
         <cfvo type="min"/>
@@ -11120,14 +11382,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="355">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -11245,6 +11499,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:C76">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -11253,14 +11515,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -11325,11 +11579,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50 D52:D53 D55:D56">
-    <cfRule type="containsText" dxfId="28" priority="123" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="28" priority="124" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="123" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="124" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61:D63 D65 D67:D71">
@@ -11341,11 +11595,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78:D87 D89:D94">
-    <cfRule type="containsText" dxfId="24" priority="32" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="32" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:E76">
@@ -11357,11 +11611,11 @@
     <cfRule type="containsText" dxfId="21" priority="134" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="135" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="20" priority="136" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="135" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="136" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
@@ -11376,14 +11630,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" dxfId="15" priority="119" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E52)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="121" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E52)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="120" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="121" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E52)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="119" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
@@ -11409,11 +11663,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E76">
-    <cfRule type="containsText" dxfId="6" priority="45" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="6" priority="46" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="45" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="46" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">

--- a/ARCHERY SHEETS/Archery.xlsx
+++ b/ARCHERY SHEETS/Archery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\corey-richardson\ARCHERY SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FABBC96-B65E-46B7-BE42-841001D15D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD8348A-3C86-4DCD-80D1-EFDF265581D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
   </bookViews>
   <sheets>
     <sheet name="24-25-Indoors" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="210">
   <si>
     <t>Swansea SWWU</t>
   </si>
@@ -588,9 +588,6 @@
     <t>Uni Club Beginners Course</t>
   </si>
   <si>
-    <t>Could hold a uni comp with YB?</t>
-  </si>
-  <si>
     <t>Internal Competition</t>
   </si>
   <si>
@@ -666,20 +663,23 @@
     <t>SWWU Leg 2 Novice</t>
   </si>
   <si>
-    <t>Possible CTD? Check small hall</t>
-  </si>
-  <si>
     <t>Retied nother new D-Loop; previous was looonnnngggggg</t>
   </si>
   <si>
     <t>D-Loop slightly angled compared to peep sight; not making any changes before Exmouth though.  Helped with coaching.</t>
+  </si>
+  <si>
+    <t>sml hl</t>
+  </si>
+  <si>
+    <t>CTD?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,13 +790,6 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -956,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1111,9 +1104,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1124,6 +1114,24 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1140,40 +1148,34 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1185,19 +1187,25 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1474,6 +1482,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1482,13 +1497,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1516,14 +1524,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1565,14 +1573,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4731,8 +4739,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="24155400" y="5334000"/>
-              <a:ext cx="4568687" cy="3314700"/>
+              <a:off x="25301575" y="5245100"/>
+              <a:ext cx="4775062" cy="3260725"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4850,8 +4858,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="24155400" y="4960454"/>
-              <a:ext cx="4568687" cy="2933700"/>
+              <a:off x="25301575" y="4877904"/>
+              <a:ext cx="4775062" cy="2886075"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5203,27 +5211,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003F6F8B-BAAF-49C4-80DC-F0AA35A5CBAB}">
   <dimension ref="A1:S126"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="2" width="13.7265625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="13.7265625" style="3" customWidth="1"/>
     <col min="6" max="7" width="28" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="11.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
-    <col min="14" max="16" width="11.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="114.28515625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="36.5703125" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="29.7265625" style="3" customWidth="1"/>
+    <col min="9" max="12" width="11.40625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" style="3" customWidth="1"/>
+    <col min="14" max="16" width="11.40625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="114.26953125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="11.40625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="36.54296875" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -5248,12 +5256,12 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
       <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
@@ -5270,7 +5278,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A2" s="2">
         <v>45517</v>
       </c>
@@ -5312,7 +5320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A3" s="2">
         <v>45536</v>
       </c>
@@ -5324,21 +5332,21 @@
         <v>20</v>
       </c>
       <c r="D3" s="48"/>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
       <c r="R3" s="11" t="s">
         <v>31</v>
       </c>
@@ -5346,7 +5354,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A4" s="2">
         <v>45541</v>
       </c>
@@ -5370,7 +5378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A5" s="22">
         <v>45543</v>
       </c>
@@ -5384,19 +5392,19 @@
       <c r="D5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="54"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="53"/>
       <c r="R5" s="15" t="s">
         <v>33</v>
       </c>
@@ -5404,7 +5412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A6" s="2">
         <v>45545</v>
       </c>
@@ -5422,7 +5430,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>28</v>
@@ -5446,7 +5454,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="22">
         <v>45548</v>
       </c>
@@ -5466,11 +5474,11 @@
       <c r="R7" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="S7" s="57" t="s">
+      <c r="S7" s="56" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A8" s="22">
         <v>45550</v>
       </c>
@@ -5484,21 +5492,21 @@
       <c r="D8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="67"/>
       <c r="R8" s="17" t="s">
         <v>35</v>
       </c>
@@ -5506,7 +5514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A9" s="2">
         <v>45552</v>
       </c>
@@ -5521,7 +5529,7 @@
         <v>27</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R9" s="18" t="s">
         <v>36</v>
@@ -5530,7 +5538,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A10" s="22">
         <v>45553</v>
       </c>
@@ -5541,26 +5549,26 @@
       <c r="C10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="67"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A11" s="2">
         <v>45555</v>
       </c>
@@ -5575,7 +5583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A12" s="2">
         <v>45557</v>
       </c>
@@ -5592,7 +5600,7 @@
       <c r="R12" s="44"/>
       <c r="S12" s="30"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A13" s="2">
         <v>45559</v>
       </c>
@@ -5606,23 +5614,23 @@
       <c r="D13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E13" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A14" s="2">
         <v>45560</v>
       </c>
@@ -5633,24 +5641,24 @@
       <c r="C14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D14" s="54"/>
+      <c r="E14" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A15" s="2">
         <v>45561</v>
       </c>
@@ -5660,23 +5668,23 @@
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A16" s="2">
         <v>45562</v>
       </c>
@@ -5691,7 +5699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A17" s="2">
         <v>45564</v>
       </c>
@@ -5706,7 +5714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A18" s="2">
         <v>45566</v>
       </c>
@@ -5721,7 +5729,7 @@
         <v>27</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>28</v>
@@ -5735,11 +5743,11 @@
       <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="82">
+      <c r="P18" s="57">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A19" s="22">
         <v>45567</v>
       </c>
@@ -5747,27 +5755,27 @@
         <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="48"/>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A20" s="2">
         <v>45568</v>
       </c>
@@ -5775,25 +5783,25 @@
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="58" t="s">
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A21" s="2">
         <v>45569</v>
       </c>
@@ -5811,10 +5819,10 @@
         <v>27</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M21" s="3">
         <v>27</v>
@@ -5825,14 +5833,14 @@
       <c r="O21" s="3">
         <v>270</v>
       </c>
-      <c r="P21" s="82">
+      <c r="P21" s="57">
         <v>37</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A22" s="22">
         <v>45571</v>
       </c>
@@ -5853,7 +5861,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A23" s="22">
         <v>45573</v>
       </c>
@@ -5868,7 +5876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A24" s="2">
         <v>45576</v>
       </c>
@@ -5886,10 +5894,10 @@
         <v>27</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A25" s="22">
         <v>45578</v>
       </c>
@@ -5910,7 +5918,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A26" s="2">
         <v>45580</v>
       </c>
@@ -5943,7 +5951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A27" s="2">
         <v>45583</v>
       </c>
@@ -5972,14 +5980,14 @@
       <c r="O27" s="3">
         <v>90</v>
       </c>
-      <c r="P27" s="82">
+      <c r="P27" s="57">
         <v>32</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A28" s="22">
         <v>45585</v>
       </c>
@@ -6000,7 +6008,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A29" s="2">
         <v>45587</v>
       </c>
@@ -6015,7 +6023,7 @@
         <v>27</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M29" s="3">
         <v>12</v>
@@ -6026,14 +6034,14 @@
       <c r="O29" s="3">
         <v>120</v>
       </c>
-      <c r="P29" s="82">
+      <c r="P29" s="57">
         <v>32</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A30" s="2">
         <v>45590</v>
       </c>
@@ -6051,7 +6059,7 @@
         <v>27</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M30" s="3">
         <v>21</v>
@@ -6062,53 +6070,50 @@
       <c r="O30" s="3">
         <v>210</v>
       </c>
-      <c r="P30" s="82">
+      <c r="P30" s="57">
         <v>27</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="69">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A31" s="82">
         <v>45592</v>
       </c>
-      <c r="B31" s="70" t="str">
+      <c r="B31" s="83" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="86" t="s">
         <v>131</v>
       </c>
       <c r="G31" s="40"/>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="M31" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="64"/>
-      <c r="F32" s="63"/>
+      <c r="I31" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A32" s="82"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
+      <c r="F32" s="86"/>
       <c r="G32" s="40"/>
-      <c r="H32" s="52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H32" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A33" s="22">
         <v>45592</v>
       </c>
@@ -6129,7 +6134,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A34" s="2">
         <v>45594</v>
       </c>
@@ -6144,7 +6149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A35" s="2">
         <v>45597</v>
       </c>
@@ -6162,7 +6167,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A36" s="2">
         <v>45597</v>
       </c>
@@ -6180,7 +6185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A37" s="2">
         <v>45598</v>
       </c>
@@ -6195,10 +6200,10 @@
         <v>47</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A38" s="2">
         <v>45599</v>
       </c>
@@ -6216,7 +6221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A39" s="2">
         <v>45601</v>
       </c>
@@ -6231,7 +6236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A40" s="2">
         <v>45604</v>
       </c>
@@ -6249,7 +6254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A41" s="2">
         <v>45606</v>
       </c>
@@ -6267,7 +6272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A42" s="2">
         <v>45608</v>
       </c>
@@ -6282,49 +6287,43 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A43" s="22">
         <v>45611</v>
       </c>
-      <c r="B43" s="1" t="str">
+      <c r="B43" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A44" s="22">
         <v>45613</v>
       </c>
-      <c r="B44" s="1" t="str">
+      <c r="B44" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A45" s="2">
         <v>45615</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A46" s="2">
         <v>45618</v>
       </c>
@@ -6351,13 +6350,13 @@
         <v>20</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A47" s="22">
         <v>45619</v>
       </c>
@@ -6373,10 +6372,10 @@
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A48" s="2">
         <v>45620</v>
       </c>
@@ -6388,7 +6387,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>24</v>
@@ -6398,7 +6397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A49" s="2">
         <v>45622</v>
       </c>
@@ -6417,7 +6416,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A50" s="2">
         <v>45625</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A51" s="2">
         <v>45627</v>
       </c>
@@ -6457,14 +6456,14 @@
         <v>24</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S51" s="3">
         <f>FLOOR(AVERAGE(S48:S50), 1)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A52" s="2">
         <v>45629</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A53" s="2">
         <v>45632</v>
       </c>
@@ -6497,7 +6496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A54" s="4">
         <v>45632</v>
       </c>
@@ -6505,13 +6504,13 @@
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="64" t="s">
+      <c r="D54" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="F54" s="63" t="s">
+      <c r="F54" s="61" t="s">
         <v>135</v>
       </c>
       <c r="G54" s="41"/>
@@ -6519,13 +6518,13 @@
         <v>132</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M54" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A55" s="4">
         <v>45633</v>
       </c>
@@ -6533,15 +6532,15 @@
         <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="64"/>
-      <c r="F55" s="63"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="68"/>
+      <c r="F55" s="61"/>
       <c r="G55" s="41"/>
       <c r="H55" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A56" s="4">
         <v>45634</v>
       </c>
@@ -6549,9 +6548,9 @@
         <f t="shared" ref="B56" si="2">TEXT(A56, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C56" s="66"/>
-      <c r="D56" s="64"/>
-      <c r="F56" s="56" t="s">
+      <c r="C56" s="62"/>
+      <c r="D56" s="68"/>
+      <c r="F56" s="55" t="s">
         <v>136</v>
       </c>
       <c r="G56" s="41"/>
@@ -6565,7 +6564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A57" s="2">
         <v>45634</v>
       </c>
@@ -6583,7 +6582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A58" s="2">
         <v>45636</v>
       </c>
@@ -6598,7 +6597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A59" s="2">
         <v>45639</v>
       </c>
@@ -6616,7 +6615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A60" s="2">
         <v>45641</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>24</v>
       </c>
       <c r="F60" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>66</v>
@@ -6646,7 +6645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A61" s="2">
         <v>45643</v>
       </c>
@@ -6664,7 +6663,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A62" s="2">
         <v>45646</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A63" s="37">
         <v>45648</v>
       </c>
@@ -6687,13 +6686,13 @@
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C63" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C63" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A64" s="37">
         <v>45650</v>
       </c>
@@ -6701,11 +6700,11 @@
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A65" s="37">
         <v>45653</v>
       </c>
@@ -6713,11 +6712,11 @@
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A66" s="37">
         <v>45655</v>
       </c>
@@ -6725,11 +6724,11 @@
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A67" s="37">
         <v>45657</v>
       </c>
@@ -6737,11 +6736,11 @@
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="68"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A68" s="2">
         <v>45660</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A69" s="2">
         <v>45662</v>
       </c>
@@ -6771,7 +6770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A70" s="2">
         <v>45664</v>
       </c>
@@ -6786,7 +6785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A71" s="2">
         <v>45667</v>
       </c>
@@ -6801,7 +6800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A72" s="2">
         <v>45669</v>
       </c>
@@ -6816,7 +6815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A73" s="2">
         <v>45671</v>
       </c>
@@ -6831,7 +6830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A74" s="2">
         <v>45674</v>
       </c>
@@ -6846,7 +6845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A75" s="2">
         <v>45676</v>
       </c>
@@ -6863,11 +6862,11 @@
       <c r="E75" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F75" s="87" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A76" s="2">
         <v>45678</v>
       </c>
@@ -6882,7 +6881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A77" s="2">
         <v>45678</v>
       </c>
@@ -6890,25 +6889,25 @@
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="58"/>
-      <c r="K77" s="58"/>
-      <c r="L77" s="58"/>
-      <c r="M77" s="58"/>
-      <c r="N77" s="58"/>
-      <c r="O77" s="58"/>
-      <c r="P77" s="58"/>
-      <c r="Q77" s="58"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
+      <c r="O77" s="63"/>
+      <c r="P77" s="63"/>
+      <c r="Q77" s="63"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A78" s="2">
         <v>45681</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A79" s="4">
         <v>45683</v>
       </c>
@@ -6940,11 +6939,11 @@
       <c r="D79" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="40" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A80" s="2">
         <v>45683</v>
       </c>
@@ -6962,7 +6961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A81" s="2">
         <v>45685</v>
       </c>
@@ -6977,7 +6976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A82" s="2">
         <v>45688</v>
       </c>
@@ -6995,7 +6994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A83" s="2">
         <v>45690</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A84" s="2">
         <v>45692</v>
       </c>
@@ -7028,7 +7027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A85" s="2">
         <v>45695</v>
       </c>
@@ -7046,7 +7045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A86" s="2">
         <v>45697</v>
       </c>
@@ -7067,7 +7066,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A87" s="2">
         <v>45699</v>
       </c>
@@ -7082,7 +7081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A88" s="2">
         <v>45702</v>
       </c>
@@ -7100,7 +7099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A89" s="2">
         <v>45704</v>
       </c>
@@ -7121,7 +7120,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A90" s="2">
         <v>45706</v>
       </c>
@@ -7136,7 +7135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A91" s="2">
         <v>45709</v>
       </c>
@@ -7154,7 +7153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A92" s="4">
         <v>45710</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A93" s="4">
         <v>45711</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A94" s="2">
         <v>45711</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A95" s="2">
         <v>45713</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A96" s="2">
         <v>45716</v>
       </c>
@@ -7255,7 +7254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A97" s="2">
         <v>45718</v>
       </c>
@@ -7273,7 +7272,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A98" s="2">
         <v>45718</v>
       </c>
@@ -7291,7 +7290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A99" s="2">
         <v>45720</v>
       </c>
@@ -7306,7 +7305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A100" s="2">
         <v>45723</v>
       </c>
@@ -7324,7 +7323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A101" s="2">
         <v>45725</v>
       </c>
@@ -7342,7 +7341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A102" s="2">
         <v>45727</v>
       </c>
@@ -7357,7 +7356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A103" s="2">
         <v>45730</v>
       </c>
@@ -7375,7 +7374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A104" s="2">
         <v>45731</v>
       </c>
@@ -7399,7 +7398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A105" s="2">
         <v>45732</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A106" s="2">
         <v>45734</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A107" s="2">
         <v>45737</v>
       </c>
@@ -7450,7 +7449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A108" s="2">
         <v>45739</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A109" s="2">
         <v>45741</v>
       </c>
@@ -7483,7 +7482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A110" s="2">
         <v>45744</v>
       </c>
@@ -7498,7 +7497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A111" s="2">
         <v>45746</v>
       </c>
@@ -7516,7 +7515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A112" s="2">
         <v>45748</v>
       </c>
@@ -7534,7 +7533,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A113" s="2">
         <v>45751</v>
       </c>
@@ -7552,7 +7551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A114" s="2">
         <v>45753</v>
       </c>
@@ -7570,7 +7569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A115" s="2">
         <v>45755</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A116" s="2">
         <v>45758</v>
       </c>
@@ -7603,7 +7602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A117" s="2">
         <v>45760</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A118" s="2">
         <v>45762</v>
       </c>
@@ -7642,7 +7641,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A119" s="2">
         <v>45765</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A120" s="2">
         <v>45767</v>
       </c>
@@ -7675,7 +7674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A121" s="2">
         <v>45769</v>
       </c>
@@ -7693,7 +7692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A122" s="2">
         <v>45772</v>
       </c>
@@ -7708,7 +7707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A123" s="2">
         <v>45774</v>
       </c>
@@ -7726,7 +7725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A124" s="2">
         <v>45776</v>
       </c>
@@ -7744,7 +7743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A125" s="2">
         <v>45779</v>
       </c>
@@ -7759,7 +7758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A126" s="2">
         <v>45781</v>
       </c>
@@ -7782,11 +7781,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C63:E67"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="C54:C56"/>
     <mergeCell ref="E77:Q77"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="I1:L1"/>
@@ -7803,6 +7797,11 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="E13:Q13"/>
     <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="C63:E67"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="C54:C56"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C3">
     <cfRule type="colorScale" priority="41">
@@ -7815,12 +7814,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="45" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="44" operator="containsText" text="University">
-      <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
-    </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -7829,8 +7822,22 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="University">
+      <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="Yelverton">
+      <formula>NOT(ISERROR(SEARCH("Yelverton",C2)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
@@ -7841,14 +7848,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="192">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31 C57:C63 C68:C126">
     <cfRule type="containsText" dxfId="50" priority="72" operator="containsText" text="Yelverton">
@@ -7879,14 +7878,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C8">
-    <cfRule type="colorScale" priority="213">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="min"/>
@@ -7897,9 +7888,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="213">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7907,6 +7896,8 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -7917,9 +7908,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C14">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7927,6 +7916,8 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C14">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -7937,9 +7928,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7947,6 +7936,8 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -7957,9 +7948,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7967,6 +7956,8 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -7977,17 +7968,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:C54">
-    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="University">
-      <formula>NOT(ISERROR(SEARCH("University",C33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7995,6 +7976,16 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C54">
+    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="University">
+      <formula>NOT(ISERROR(SEARCH("University",C33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="Yelverton">
+      <formula>NOT(ISERROR(SEARCH("Yelverton",C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -8003,6 +7994,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8027,6 +8026,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C63 C9:C11 C15:C16 C18 C20:C31 C68:C114 C33:C36 C38:C46 C48:C54">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
@@ -8037,7 +8044,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="206">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115">
+    <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8045,8 +8054,6 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115">
     <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
@@ -8057,14 +8064,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="160">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:C117">
     <cfRule type="colorScale" priority="127">
@@ -8087,14 +8086,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118">
-    <cfRule type="colorScale" priority="153">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
@@ -8105,9 +8096,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:C120">
-    <cfRule type="colorScale" priority="114">
+    <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8115,6 +8104,8 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:C120">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -8123,6 +8114,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8167,14 +8166,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -8183,6 +8174,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8210,11 +8209,11 @@
     <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="8" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
@@ -8229,14 +8228,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E31 E32 D33:E36 E37 D38:E46 E47 D48:E62 D68:E68 D69 D70:E71 D72 D73:E76 E77 D78:E1048576">
-    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="Lipson">
+    <cfRule type="containsText" dxfId="40" priority="21" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="20" operator="containsText" text="Widewell">
+      <formula>NOT(ISERROR(SEARCH("Widewell",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="Lipson">
       <formula>NOT(ISERROR(SEARCH("Lipson",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="20" operator="containsText" text="Widewell">
-      <formula>NOT(ISERROR(SEARCH("Widewell",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G2">
@@ -8352,28 +8351,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF9BC55-E030-4D83-A3CE-E85DC3922C40}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="5" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="5" width="13.7265625" style="3" customWidth="1"/>
     <col min="6" max="7" width="28" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="11.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
-    <col min="14" max="16" width="11.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="114.28515625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.5703125" style="3" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="29.7265625" style="3" customWidth="1"/>
+    <col min="9" max="12" width="11.40625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" style="3" customWidth="1"/>
+    <col min="14" max="16" width="11.40625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="114.26953125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="11.40625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.54296875" style="3" customWidth="1"/>
+    <col min="20" max="21" width="9.1328125" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -8398,12 +8397,12 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
       <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A2" s="22">
         <v>45389</v>
       </c>
@@ -8454,7 +8453,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A3" s="20">
         <v>45391</v>
       </c>
@@ -8488,7 +8487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A4" s="2">
         <v>45394</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A5" s="2">
         <v>45396</v>
       </c>
@@ -8575,7 +8574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A6" s="2">
         <v>45398</v>
       </c>
@@ -8599,7 +8598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A7" s="2">
         <v>45401</v>
       </c>
@@ -8644,7 +8643,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A8" s="21">
         <v>45403</v>
       </c>
@@ -8677,7 +8676,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A9" s="2">
         <v>45405</v>
       </c>
@@ -8723,7 +8722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A10" s="22">
         <v>45408</v>
       </c>
@@ -8750,7 +8749,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A11" s="21">
         <v>45410</v>
       </c>
@@ -8783,7 +8782,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A12" s="21">
         <v>45410</v>
       </c>
@@ -8817,7 +8816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A13" s="22">
         <v>45415</v>
       </c>
@@ -8835,7 +8834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A14" s="4">
         <v>45416</v>
       </c>
@@ -8877,7 +8876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A15" s="4">
         <v>45417</v>
       </c>
@@ -8916,7 +8915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A16" s="2">
         <v>45419</v>
       </c>
@@ -8951,11 +8950,11 @@
       <c r="P16" s="32">
         <v>38</v>
       </c>
-      <c r="Q16" s="66" t="s">
+      <c r="Q16" s="62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A17" s="2">
         <v>45422</v>
       </c>
@@ -8972,9 +8971,9 @@
       <c r="E17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="66"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q17" s="62"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A18" s="2">
         <v>45424</v>
       </c>
@@ -8988,9 +8987,9 @@
       <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="66"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q18" s="62"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A19" s="2">
         <v>45426</v>
       </c>
@@ -9007,9 +9006,9 @@
       <c r="E19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="66"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q19" s="62"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A20" s="2">
         <v>45429</v>
       </c>
@@ -9017,18 +9016,18 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="68" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="66"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q20" s="62"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A21" s="4">
         <v>45430</v>
       </c>
@@ -9036,9 +9035,9 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="64"/>
-      <c r="F21" s="80" t="s">
+      <c r="C21" s="62"/>
+      <c r="D21" s="68"/>
+      <c r="F21" s="73" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="24"/>
@@ -9056,33 +9055,33 @@
       </c>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
-      <c r="Q21" s="66" t="s">
+      <c r="Q21" s="62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="69">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A22" s="59">
         <v>45431</v>
       </c>
-      <c r="B22" s="73" t="str">
+      <c r="B22" s="77" t="str">
         <f>TEXT(A22, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="80"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="81" t="s">
+      <c r="H22" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="81" t="s">
+      <c r="I22" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="81" t="s">
+      <c r="J22" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="79"/>
+      <c r="K22" s="75"/>
       <c r="M22" s="5">
         <v>72</v>
       </c>
@@ -9095,20 +9094,20 @@
       <c r="P22" s="3">
         <v>37</v>
       </c>
-      <c r="Q22" s="66"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
+      <c r="Q22" s="62"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A23" s="59"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="24"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="79"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
       <c r="M23" s="5">
         <v>72</v>
       </c>
@@ -9121,11 +9120,11 @@
       <c r="P23" s="3">
         <v>37</v>
       </c>
-      <c r="Q23" s="66"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="73"/>
+      <c r="Q23" s="62"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A24" s="59"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
@@ -9147,11 +9146,11 @@
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="73">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A25" s="77">
         <v>45433</v>
       </c>
-      <c r="B25" s="73" t="str">
+      <c r="B25" s="77" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
@@ -9168,28 +9167,28 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="78" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A27" s="2">
         <v>45436</v>
       </c>
@@ -9231,7 +9230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A28" s="4">
         <v>45438</v>
       </c>
@@ -9277,7 +9276,7 @@
       </c>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A29" s="2">
         <v>45440</v>
       </c>
@@ -9305,11 +9304,11 @@
       </c>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="73">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A30" s="77">
         <v>45443</v>
       </c>
-      <c r="B30" s="73" t="str">
+      <c r="B30" s="77" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
@@ -9332,28 +9331,28 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="58" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A32" s="2">
         <v>45445</v>
       </c>
@@ -9398,7 +9397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A33" s="2">
         <v>45447</v>
       </c>
@@ -9437,7 +9436,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A34" s="22">
         <v>45450</v>
       </c>
@@ -9458,21 +9457,21 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="69">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A35" s="59">
         <v>45451</v>
       </c>
-      <c r="B35" s="73" t="str">
+      <c r="B35" s="77" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="80" t="s">
+      <c r="F35" s="73" t="s">
         <v>52</v>
       </c>
       <c r="G35" s="24"/>
@@ -9498,12 +9497,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="64"/>
-      <c r="F36" s="80"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A36" s="59"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="68"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="24"/>
       <c r="H36" s="30" t="s">
         <v>162</v>
@@ -9524,7 +9523,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A37" s="4">
         <v>45452</v>
       </c>
@@ -9532,9 +9531,9 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="64"/>
-      <c r="F37" s="80"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="68"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="24"/>
       <c r="H37" s="5" t="s">
         <v>7</v>
@@ -9564,7 +9563,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A38" s="6">
         <v>45454</v>
       </c>
@@ -9572,17 +9571,17 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C38" s="74" t="s">
+      <c r="C38" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="74"/>
+      <c r="D38" s="72"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="Q38" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A39" s="6">
         <v>45457</v>
       </c>
@@ -9590,15 +9589,15 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="Q39" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A40" s="22">
         <v>45458</v>
       </c>
@@ -9624,7 +9623,7 @@
       <c r="P40" s="71"/>
       <c r="Q40" s="71"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A41" s="6">
         <v>45459</v>
       </c>
@@ -9632,17 +9631,17 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="74"/>
+      <c r="D41" s="72"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="Q41" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A42" s="6">
         <v>45461</v>
       </c>
@@ -9650,15 +9649,15 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="Q42" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A43" s="34">
         <v>45464</v>
       </c>
@@ -9666,25 +9665,25 @@
         <f>TEXT(A43, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="75"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A44" s="33">
         <v>45464</v>
       </c>
@@ -9706,7 +9705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A45" s="27">
         <v>45465</v>
       </c>
@@ -9735,7 +9734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A46" s="22">
         <v>45466</v>
       </c>
@@ -9760,7 +9759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A47" s="2">
         <v>45468</v>
       </c>
@@ -9791,7 +9790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A48" s="2">
         <v>45471</v>
       </c>
@@ -9818,7 +9817,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A49" s="2">
         <v>45473</v>
       </c>
@@ -9860,7 +9859,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A50" s="2">
         <v>45475</v>
       </c>
@@ -9887,7 +9886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A51" s="2">
         <v>45478</v>
       </c>
@@ -9908,7 +9907,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A52" s="2">
         <v>45480</v>
       </c>
@@ -9941,7 +9940,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A53" s="2">
         <v>45482</v>
       </c>
@@ -9965,7 +9964,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A54" s="2">
         <v>45485</v>
       </c>
@@ -9986,7 +9985,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A55" s="2">
         <v>45487</v>
       </c>
@@ -10031,7 +10030,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A56" s="2">
         <v>45489</v>
       </c>
@@ -10079,7 +10078,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A57" s="6">
         <v>45492</v>
       </c>
@@ -10087,10 +10086,10 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="77"/>
+      <c r="D57" s="80"/>
       <c r="E57" s="8" t="s">
         <v>27</v>
       </c>
@@ -10098,7 +10097,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A58" s="22">
         <v>45493</v>
       </c>
@@ -10124,7 +10123,7 @@
       <c r="P58" s="71"/>
       <c r="Q58" s="71"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A59" s="6">
         <v>45494</v>
       </c>
@@ -10132,10 +10131,10 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C59" s="77" t="s">
+      <c r="C59" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="77"/>
+      <c r="D59" s="80"/>
       <c r="F59" s="23" t="s">
         <v>91</v>
       </c>
@@ -10146,7 +10145,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A60" s="2">
         <v>45496</v>
       </c>
@@ -10154,25 +10153,25 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C60" s="78" t="s">
+      <c r="C60" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="78"/>
-      <c r="Q60" s="78"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="76"/>
+      <c r="O60" s="76"/>
+      <c r="P60" s="76"/>
+      <c r="Q60" s="76"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A61" s="2">
         <v>45496</v>
       </c>
@@ -10199,7 +10198,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A62" s="2">
         <v>45499</v>
       </c>
@@ -10244,21 +10243,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="73">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A63" s="77">
         <v>45501</v>
       </c>
-      <c r="B63" s="70" t="str">
+      <c r="B63" s="60" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="66" t="s">
+      <c r="D63" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="72" t="s">
+      <c r="E63" s="81" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -10289,12 +10288,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="73"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="72"/>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A64" s="77"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="81"/>
       <c r="F64" s="3" t="s">
         <v>145</v>
       </c>
@@ -10314,21 +10313,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="73">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A65" s="77">
         <v>45503</v>
       </c>
-      <c r="B65" s="70" t="str">
+      <c r="B65" s="60" t="str">
         <f>TEXT(A65, "dddd")</f>
         <v>Tuesday</v>
       </c>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="66" t="s">
+      <c r="D65" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="72" t="s">
+      <c r="E65" s="81" t="s">
         <v>27</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -10353,17 +10352,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="73"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="72"/>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A66" s="77"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="81"/>
       <c r="F66" s="3" t="s">
         <v>145</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>16</v>
@@ -10378,7 +10377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A67" s="2">
         <v>45506</v>
       </c>
@@ -10405,7 +10404,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A68" s="2">
         <v>45508</v>
       </c>
@@ -10447,7 +10446,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A69" s="2">
         <v>45510</v>
       </c>
@@ -10492,7 +10491,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A70" s="2">
         <v>45513</v>
       </c>
@@ -10525,7 +10524,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A71" s="42">
         <v>45515</v>
       </c>
@@ -10573,7 +10572,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A72" s="21">
         <v>45517</v>
       </c>
@@ -10606,7 +10605,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A73" s="2">
         <v>45520</v>
       </c>
@@ -10636,21 +10635,21 @@
         <v>720</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="69">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A74" s="59">
         <v>45521</v>
       </c>
-      <c r="B74" s="70" t="str">
+      <c r="B74" s="60" t="str">
         <f t="shared" ref="B74:B94" si="2">TEXT(A74, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="C74" s="66" t="s">
+      <c r="C74" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="64" t="s">
+      <c r="D74" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="76" t="s">
+      <c r="F74" s="79" t="s">
         <v>77</v>
       </c>
       <c r="G74" s="43"/>
@@ -10676,12 +10675,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="69"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="64"/>
-      <c r="F75" s="76"/>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A75" s="59"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="68"/>
+      <c r="F75" s="79"/>
       <c r="G75" s="43"/>
       <c r="H75" s="30" t="s">
         <v>162</v>
@@ -10702,12 +10701,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="69"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="64"/>
-      <c r="F76" s="76"/>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A76" s="59"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="68"/>
+      <c r="F76" s="79"/>
       <c r="G76" s="43"/>
       <c r="H76" s="30" t="s">
         <v>162</v>
@@ -10728,7 +10727,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A77" s="4">
         <v>45522</v>
       </c>
@@ -10736,9 +10735,9 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="64"/>
-      <c r="F77" s="76"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="68"/>
+      <c r="F77" s="79"/>
       <c r="G77" s="43"/>
       <c r="H77" s="30" t="s">
         <v>76</v>
@@ -10771,7 +10770,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A78" s="2">
         <v>45522</v>
       </c>
@@ -10801,7 +10800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A79" s="2">
         <v>45524</v>
       </c>
@@ -10825,7 +10824,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A80" s="2">
         <v>45527</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A81" s="42">
         <v>45529</v>
       </c>
@@ -10886,7 +10885,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A82" s="42">
         <v>45531</v>
       </c>
@@ -10907,34 +10906,34 @@
         <v>91</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="H82" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="H82" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I82" s="66" t="s">
+      <c r="I82" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="66"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="62"/>
       <c r="M82" s="24">
         <v>36</v>
       </c>
-      <c r="N82" s="66">
+      <c r="N82" s="62">
         <v>612</v>
       </c>
-      <c r="O82" s="66">
+      <c r="O82" s="62">
         <v>720</v>
       </c>
-      <c r="P82" s="66">
+      <c r="P82" s="62">
         <v>27</v>
       </c>
-      <c r="Q82" s="66" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q82" s="62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A83" s="42">
         <v>45534</v>
       </c>
@@ -10957,20 +10956,20 @@
       <c r="G83" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="66"/>
-      <c r="L83" s="66"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="62"/>
       <c r="M83" s="24">
         <v>36</v>
       </c>
-      <c r="N83" s="66"/>
-      <c r="O83" s="66"/>
-      <c r="P83" s="66"/>
-      <c r="Q83" s="66"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N83" s="62"/>
+      <c r="O83" s="62"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A84" s="4">
         <v>45536</v>
       </c>
@@ -11004,7 +11003,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A85" s="2">
         <v>45536</v>
       </c>
@@ -11043,10 +11042,10 @@
         <v>30</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A86" s="2">
         <v>45538</v>
       </c>
@@ -11069,32 +11068,32 @@
       <c r="G86" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H86" s="66" t="s">
+      <c r="H86" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I86" s="66" t="s">
+      <c r="I86" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66"/>
-      <c r="L86" s="66"/>
+      <c r="J86" s="62"/>
+      <c r="K86" s="62"/>
+      <c r="L86" s="62"/>
       <c r="M86" s="24">
         <v>36</v>
       </c>
-      <c r="N86" s="66">
+      <c r="N86" s="62">
         <v>618</v>
       </c>
-      <c r="O86" s="66">
+      <c r="O86" s="62">
         <v>720</v>
       </c>
-      <c r="P86" s="66">
+      <c r="P86" s="62">
         <v>26</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A87" s="2">
         <v>45541</v>
       </c>
@@ -11117,19 +11116,19 @@
       <c r="G87" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="66"/>
-      <c r="L87" s="66"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="62"/>
       <c r="M87" s="24">
         <v>36</v>
       </c>
-      <c r="N87" s="66"/>
-      <c r="O87" s="66"/>
-      <c r="P87" s="66"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N87" s="62"/>
+      <c r="O87" s="62"/>
+      <c r="P87" s="62"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A88" s="4">
         <v>45543</v>
       </c>
@@ -11137,25 +11136,25 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C88" s="58" t="s">
+      <c r="C88" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="58"/>
-      <c r="L88" s="58"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="58"/>
-      <c r="O88" s="58"/>
-      <c r="P88" s="58"/>
-      <c r="Q88" s="58"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="63"/>
+      <c r="L88" s="63"/>
+      <c r="M88" s="63"/>
+      <c r="N88" s="63"/>
+      <c r="O88" s="63"/>
+      <c r="P88" s="63"/>
+      <c r="Q88" s="63"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A89" s="27">
         <v>45543</v>
       </c>
@@ -11170,7 +11169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A90" s="21">
         <v>45545</v>
       </c>
@@ -11185,7 +11184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A91" s="2">
         <v>45548</v>
       </c>
@@ -11209,7 +11208,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A92" s="22">
         <v>45550</v>
       </c>
@@ -11224,13 +11223,13 @@
         <v>24</v>
       </c>
       <c r="F92" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G92" s="28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A93" s="2">
         <v>45557</v>
       </c>
@@ -11245,13 +11244,13 @@
         <v>24</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A94" s="2">
         <v>45564</v>
       </c>
@@ -11269,31 +11268,40 @@
         <v>91</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="C40:Q40"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="Q16:Q20"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="N86:N87"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="C58:Q58"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="D65:D66"/>
     <mergeCell ref="C88:Q88"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A30:A31"/>
@@ -11310,35 +11318,26 @@
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C58:Q58"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="N86:N87"/>
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="P86:P87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C40:Q40"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="Q16:Q20"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F21:F23"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C20 C24:C25 C27:C36 C44:C56 C72:C76">
     <cfRule type="containsText" dxfId="36" priority="143" operator="containsText" text="Yelverton">

--- a/ARCHERY SHEETS/Archery.xlsx
+++ b/ARCHERY SHEETS/Archery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\corey-richardson\ARCHERY SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD8348A-3C86-4DCD-80D1-EFDF265581D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366EE1FD-DDA4-475C-A101-516230C856B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
   </bookViews>
   <sheets>
     <sheet name="24-25-Indoors" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="216">
   <si>
     <t>Swansea SWWU</t>
   </si>
@@ -639,9 +639,6 @@
     <t>Half Portsmouth</t>
   </si>
   <si>
-    <t>Possible CTD?</t>
-  </si>
-  <si>
     <t>PROBABLE CLOSING DATE FOR BUCS INDOOR ENTRIES</t>
   </si>
   <si>
@@ -669,10 +666,31 @@
     <t>D-Loop slightly angled compared to peep sight; not making any changes before Exmouth though.  Helped with coaching.</t>
   </si>
   <si>
-    <t>sml hl</t>
-  </si>
-  <si>
     <t>CTD?</t>
+  </si>
+  <si>
+    <t>RIBS AND BACK OUCHIE</t>
+  </si>
+  <si>
+    <t>Small Hall</t>
+  </si>
+  <si>
+    <t>Newquay</t>
+  </si>
+  <si>
+    <t>Newquay Bowmen</t>
+  </si>
+  <si>
+    <t>Double Worcester</t>
+  </si>
+  <si>
+    <t>Still a bit ouchie, D-Loop still a tiny bit long</t>
+  </si>
+  <si>
+    <t>Fireworks night :)</t>
+  </si>
+  <si>
+    <t>PB!</t>
   </si>
 </sst>
 </file>
@@ -949,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1118,19 +1136,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1148,11 +1175,20 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1175,6 +1211,9 @@
     <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1187,32 +1226,20 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="51">
     <dxf>
       <fill>
         <patternFill>
@@ -1251,14 +1278,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1307,6 +1334,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1314,7 +1355,42 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1342,34 +1418,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -1391,28 +1439,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1482,6 +1509,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -1510,35 +1565,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1553,20 +1580,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1736,6 +1749,15 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
@@ -4702,7 +4724,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>149087</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4739,8 +4761,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="25301575" y="5245100"/>
-              <a:ext cx="4775062" cy="3260725"/>
+              <a:off x="24155400" y="5334000"/>
+              <a:ext cx="4568687" cy="3124200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4858,8 +4880,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="25301575" y="4877904"/>
-              <a:ext cx="4775062" cy="2886075"/>
+              <a:off x="24155400" y="4960454"/>
+              <a:ext cx="4568687" cy="2933700"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5211,27 +5233,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003F6F8B-BAAF-49C4-80DC-F0AA35A5CBAB}">
   <dimension ref="A1:S126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.7265625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="13.7109375" style="3" customWidth="1"/>
     <col min="6" max="7" width="28" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.7265625" style="3" customWidth="1"/>
-    <col min="9" max="12" width="11.40625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" style="3" customWidth="1"/>
-    <col min="14" max="16" width="11.40625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="114.26953125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.40625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="36.54296875" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.1328125" style="3"/>
+    <col min="8" max="8" width="29.7109375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="11.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="114.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="36.5703125" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -5256,12 +5278,12 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
       <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
@@ -5278,7 +5300,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45517</v>
       </c>
@@ -5320,7 +5342,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45536</v>
       </c>
@@ -5332,21 +5354,21 @@
         <v>20</v>
       </c>
       <c r="D3" s="48"/>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
       <c r="R3" s="11" t="s">
         <v>31</v>
       </c>
@@ -5354,7 +5376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45541</v>
       </c>
@@ -5378,7 +5400,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>45543</v>
       </c>
@@ -5412,7 +5434,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45545</v>
       </c>
@@ -5454,7 +5476,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>45548</v>
       </c>
@@ -5478,7 +5500,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>45550</v>
       </c>
@@ -5492,21 +5514,21 @@
       <c r="D8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="67"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
       <c r="R8" s="17" t="s">
         <v>35</v>
       </c>
@@ -5514,7 +5536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45552</v>
       </c>
@@ -5538,7 +5560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>45553</v>
       </c>
@@ -5552,23 +5574,23 @@
       <c r="D10" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="67"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="70"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45555</v>
       </c>
@@ -5583,7 +5605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45557</v>
       </c>
@@ -5600,7 +5622,7 @@
       <c r="R12" s="44"/>
       <c r="S12" s="30"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45559</v>
       </c>
@@ -5614,23 +5636,23 @@
       <c r="D13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45560</v>
       </c>
@@ -5642,23 +5664,23 @@
         <v>20</v>
       </c>
       <c r="D14" s="54"/>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45561</v>
       </c>
@@ -5668,23 +5690,23 @@
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45562</v>
       </c>
@@ -5699,7 +5721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45564</v>
       </c>
@@ -5714,7 +5736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45566</v>
       </c>
@@ -5747,7 +5769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>45567</v>
       </c>
@@ -5759,23 +5781,23 @@
         <v>20</v>
       </c>
       <c r="D19" s="48"/>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45568</v>
       </c>
@@ -5783,25 +5805,25 @@
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="63" t="s">
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45569</v>
       </c>
@@ -5819,7 +5841,7 @@
         <v>27</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>191</v>
@@ -5837,10 +5859,10 @@
         <v>37</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>45571</v>
       </c>
@@ -5861,7 +5883,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>45573</v>
       </c>
@@ -5876,7 +5898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45576</v>
       </c>
@@ -5894,10 +5916,10 @@
         <v>27</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.75">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>45578</v>
       </c>
@@ -5918,7 +5940,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45580</v>
       </c>
@@ -5951,7 +5973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45583</v>
       </c>
@@ -5984,10 +6006,10 @@
         <v>32</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.75">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>45585</v>
       </c>
@@ -6008,7 +6030,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45587</v>
       </c>
@@ -6023,7 +6045,7 @@
         <v>27</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M29" s="3">
         <v>12</v>
@@ -6038,10 +6060,10 @@
         <v>32</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.75">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45590</v>
       </c>
@@ -6059,7 +6081,7 @@
         <v>27</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M30" s="3">
         <v>21</v>
@@ -6074,24 +6096,24 @@
         <v>27</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A31" s="82">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="63">
         <v>45592</v>
       </c>
-      <c r="B31" s="83" t="str">
+      <c r="B31" s="64" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="86" t="s">
+      <c r="F31" s="65" t="s">
         <v>131</v>
       </c>
       <c r="G31" s="40"/>
@@ -6101,19 +6123,23 @@
       <c r="I31" s="29" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A32" s="82"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
-      <c r="F32" s="86"/>
+      <c r="Q31" s="61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="74"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="40"/>
       <c r="H32" s="23" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="Q32" s="61"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>45592</v>
       </c>
@@ -6134,7 +6160,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45594</v>
       </c>
@@ -6148,8 +6174,26 @@
       <c r="D34" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="H34" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="M34" s="3">
+        <v>45</v>
+      </c>
+      <c r="N34" s="3">
+        <v>401</v>
+      </c>
+      <c r="O34" s="3">
+        <v>450</v>
+      </c>
+      <c r="P34" s="57">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45597</v>
       </c>
@@ -6157,225 +6201,304 @@
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="27">
+        <v>45598</v>
+      </c>
+      <c r="B36" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="M36" s="3">
+        <v>60</v>
+      </c>
+      <c r="O36" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>45599</v>
+      </c>
+      <c r="B37" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>45601</v>
+      </c>
+      <c r="B38" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D38" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A36" s="2">
-        <v>45597</v>
-      </c>
-      <c r="B36" s="1" t="str">
+      <c r="Q38" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45604</v>
+      </c>
+      <c r="B39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A37" s="2">
-        <v>45598</v>
-      </c>
-      <c r="B37" s="1" t="str">
+      <c r="H39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" s="3">
+        <v>36</v>
+      </c>
+      <c r="N39" s="3">
+        <v>332</v>
+      </c>
+      <c r="O39" s="3">
+        <v>360</v>
+      </c>
+      <c r="P39" s="57">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>45606</v>
+      </c>
+      <c r="B40" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="3">
+        <v>45</v>
+      </c>
+      <c r="N41" s="90">
+        <v>561</v>
+      </c>
+      <c r="O41" s="90">
+        <v>600</v>
+      </c>
+      <c r="P41" s="90">
+        <v>27</v>
+      </c>
+      <c r="Q41" s="90" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>45611</v>
+      </c>
+      <c r="B42" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30">
+        <v>15</v>
+      </c>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="90"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>45613</v>
+      </c>
+      <c r="B43" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45615</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45618</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="27">
+        <v>45619</v>
+      </c>
+      <c r="B46" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C46" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D46" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="E46" s="23"/>
+      <c r="F46" s="23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A38" s="2">
-        <v>45599</v>
-      </c>
-      <c r="B38" s="1" t="str">
-        <f t="shared" si="1"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="27">
+        <v>45620</v>
+      </c>
+      <c r="B47" s="45" t="str">
+        <f>TEXT(A47, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A39" s="2">
-        <v>45601</v>
-      </c>
-      <c r="B39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="C47" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A40" s="2">
-        <v>45604</v>
-      </c>
-      <c r="B40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Friday</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A41" s="2">
-        <v>45606</v>
-      </c>
-      <c r="B41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A42" s="2">
-        <v>45608</v>
-      </c>
-      <c r="B42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A43" s="22">
-        <v>45611</v>
-      </c>
-      <c r="B43" s="45" t="str">
-        <f t="shared" si="1"/>
-        <v>Friday</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A44" s="22">
-        <v>45613</v>
-      </c>
-      <c r="B44" s="45" t="str">
-        <f t="shared" si="1"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A45" s="2">
-        <v>45615</v>
-      </c>
-      <c r="B45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A46" s="2">
-        <v>45618</v>
-      </c>
-      <c r="B46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Friday</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A47" s="22">
-        <v>45619</v>
-      </c>
-      <c r="B47" s="45" t="str">
-        <f t="shared" si="1"/>
-        <v>Saturday</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>20</v>
-      </c>
       <c r="D47" s="28" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.75">
+        <v>211</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45620</v>
       </c>
@@ -6386,8 +6509,8 @@
       <c r="C48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>208</v>
+      <c r="D48" s="48" t="s">
+        <v>209</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>24</v>
@@ -6397,7 +6520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45622</v>
       </c>
@@ -6413,10 +6536,10 @@
       </c>
       <c r="S49" s="3">
         <f>(SMALL(P:P,2))</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45625</v>
       </c>
@@ -6438,7 +6561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45627</v>
       </c>
@@ -6456,14 +6579,23 @@
         <v>24</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>198</v>
+        <v>91</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="3">
+        <v>60</v>
       </c>
       <c r="S51" s="3">
         <f>FLOOR(AVERAGE(S48:S50), 1)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45629</v>
       </c>
@@ -6478,7 +6610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45632</v>
       </c>
@@ -6496,7 +6628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45632</v>
       </c>
@@ -6504,13 +6636,13 @@
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C54" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="68" t="s">
+      <c r="C54" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="F54" s="61" t="s">
+      <c r="F54" s="71" t="s">
         <v>135</v>
       </c>
       <c r="G54" s="41"/>
@@ -6524,7 +6656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45633</v>
       </c>
@@ -6532,15 +6664,15 @@
         <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="68"/>
-      <c r="F55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="72"/>
+      <c r="F55" s="71"/>
       <c r="G55" s="41"/>
       <c r="H55" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>45634</v>
       </c>
@@ -6548,8 +6680,8 @@
         <f t="shared" ref="B56" si="2">TEXT(A56, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="68"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="72"/>
       <c r="F56" s="55" t="s">
         <v>136</v>
       </c>
@@ -6564,7 +6696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45634</v>
       </c>
@@ -6582,7 +6714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45636</v>
       </c>
@@ -6597,7 +6729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45639</v>
       </c>
@@ -6615,8 +6747,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A60" s="2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>45641</v>
       </c>
       <c r="B60" s="1" t="str">
@@ -6645,7 +6777,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45643</v>
       </c>
@@ -6663,7 +6795,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45646</v>
       </c>
@@ -6678,7 +6810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="37">
         <v>45648</v>
       </c>
@@ -6686,13 +6818,13 @@
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <v>45650</v>
       </c>
@@ -6700,11 +6832,11 @@
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="37">
         <v>45653</v>
       </c>
@@ -6712,11 +6844,11 @@
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
         <v>45655</v>
       </c>
@@ -6724,11 +6856,11 @@
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="37">
         <v>45657</v>
       </c>
@@ -6736,11 +6868,11 @@
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45660</v>
       </c>
@@ -6755,7 +6887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45662</v>
       </c>
@@ -6770,7 +6902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45664</v>
       </c>
@@ -6785,7 +6917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45667</v>
       </c>
@@ -6800,7 +6932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45669</v>
       </c>
@@ -6809,13 +6941,16 @@
         <v>Sunday</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45671</v>
       </c>
@@ -6830,7 +6965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45674</v>
       </c>
@@ -6839,13 +6974,13 @@
         <v>Friday</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.75">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45676</v>
       </c>
@@ -6862,11 +6997,11 @@
       <c r="E75" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F75" s="87" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="F75" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45678</v>
       </c>
@@ -6881,7 +7016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45678</v>
       </c>
@@ -6889,25 +7024,25 @@
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="F77" s="63"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="63"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
-      <c r="L77" s="63"/>
-      <c r="M77" s="63"/>
-      <c r="N77" s="63"/>
-      <c r="O77" s="63"/>
-      <c r="P77" s="63"/>
-      <c r="Q77" s="63"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="66"/>
+      <c r="M77" s="66"/>
+      <c r="N77" s="66"/>
+      <c r="O77" s="66"/>
+      <c r="P77" s="66"/>
+      <c r="Q77" s="66"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45681</v>
       </c>
@@ -6925,7 +7060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>45683</v>
       </c>
@@ -6934,16 +7069,16 @@
         <v>Sunday</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F79" s="40" t="s">
+      <c r="F79" s="58" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45683</v>
       </c>
@@ -6961,7 +7096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45685</v>
       </c>
@@ -6976,7 +7111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45688</v>
       </c>
@@ -6994,7 +7129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45690</v>
       </c>
@@ -7012,7 +7147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45692</v>
       </c>
@@ -7027,7 +7162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45695</v>
       </c>
@@ -7045,7 +7180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45697</v>
       </c>
@@ -7066,7 +7201,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45699</v>
       </c>
@@ -7081,7 +7216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45702</v>
       </c>
@@ -7099,7 +7234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45704</v>
       </c>
@@ -7120,7 +7255,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45706</v>
       </c>
@@ -7135,7 +7270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45709</v>
       </c>
@@ -7153,7 +7288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>45710</v>
       </c>
@@ -7178,7 +7313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>45711</v>
       </c>
@@ -7203,7 +7338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45711</v>
       </c>
@@ -7221,7 +7356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45713</v>
       </c>
@@ -7236,7 +7371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45716</v>
       </c>
@@ -7254,8 +7389,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A97" s="2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
         <v>45718</v>
       </c>
       <c r="B97" s="1" t="str">
@@ -7272,7 +7407,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45718</v>
       </c>
@@ -7290,7 +7425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45720</v>
       </c>
@@ -7305,7 +7440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45723</v>
       </c>
@@ -7323,7 +7458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45725</v>
       </c>
@@ -7341,7 +7476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45727</v>
       </c>
@@ -7356,7 +7491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45730</v>
       </c>
@@ -7374,8 +7509,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A104" s="2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
         <v>45731</v>
       </c>
       <c r="B104" s="1" t="str">
@@ -7394,11 +7529,8 @@
       <c r="H104" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M104" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.75">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45732</v>
       </c>
@@ -7416,7 +7548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45734</v>
       </c>
@@ -7431,7 +7563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45737</v>
       </c>
@@ -7449,7 +7581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45739</v>
       </c>
@@ -7467,7 +7599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>45741</v>
       </c>
@@ -7482,7 +7614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45744</v>
       </c>
@@ -7497,7 +7629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>45746</v>
       </c>
@@ -7515,7 +7647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>45748</v>
       </c>
@@ -7533,7 +7665,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45751</v>
       </c>
@@ -7551,7 +7683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>45753</v>
       </c>
@@ -7569,7 +7701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>45755</v>
       </c>
@@ -7587,7 +7719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>45758</v>
       </c>
@@ -7602,7 +7734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>45760</v>
       </c>
@@ -7620,7 +7752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>45762</v>
       </c>
@@ -7641,7 +7773,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>45765</v>
       </c>
@@ -7656,7 +7788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>45767</v>
       </c>
@@ -7674,7 +7806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>45769</v>
       </c>
@@ -7692,7 +7824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>45772</v>
       </c>
@@ -7707,7 +7839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>45774</v>
       </c>
@@ -7725,7 +7857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>45776</v>
       </c>
@@ -7743,7 +7875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>45779</v>
       </c>
@@ -7758,7 +7890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>45781</v>
       </c>
@@ -7780,7 +7912,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="28">
     <mergeCell ref="E77:Q77"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="I1:L1"/>
@@ -7797,11 +7929,18 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="E13:Q13"/>
     <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="Q31:Q32"/>
     <mergeCell ref="C63:E67"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="C54:C56"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q41:Q42"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C3">
     <cfRule type="colorScale" priority="41">
@@ -7822,22 +7961,14 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="University">
+    <cfRule type="containsText" dxfId="50" priority="44" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="Yelverton">
+    <cfRule type="containsText" dxfId="49" priority="45" operator="containsText" text="Yelverton">
       <formula>NOT(ISERROR(SEARCH("Yelverton",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="colorScale" priority="192">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
@@ -7848,17 +7979,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C31 C57:C63 C68:C126">
-    <cfRule type="containsText" dxfId="50" priority="72" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="71" operator="containsText" text="University">
-      <formula>NOT(ISERROR(SEARCH("University",C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="colorScale" priority="167">
+    <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7866,6 +7987,16 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C31 C33:C54 C57:C63 C68:C126">
+    <cfRule type="containsText" dxfId="48" priority="71" operator="containsText" text="University">
+      <formula>NOT(ISERROR(SEARCH("University",C4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="72" operator="containsText" text="Yelverton">
+      <formula>NOT(ISERROR(SEARCH("Yelverton",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
@@ -7874,6 +8005,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -7977,15 +8116,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:C54">
-    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="University">
-      <formula>NOT(ISERROR(SEARCH("University",C33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+  <conditionalFormatting sqref="C36">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -8005,7 +8136,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="C46">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -8025,15 +8156,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C63 C9:C11 C15:C16 C18 C20:C31 C68:C114 C33:C36 C38:C46 C48:C54">
-    <cfRule type="colorScale" priority="206">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="C57:C63 C9:C11 C15:C16 C18 C20:C31 C33:C35 C47:C54 C68:C114 C37:C45">
     <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
@@ -8044,9 +8167,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115">
-    <cfRule type="colorScale" priority="160">
+    <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8054,6 +8175,8 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115">
     <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
@@ -8064,9 +8187,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116:C117">
-    <cfRule type="colorScale" priority="127">
+    <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8074,6 +8195,8 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116:C117">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -8082,6 +8205,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8205,37 +8336,39 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D37)))</formula>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="containsText" dxfId="46" priority="8" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Lip",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="10" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D46:D47">
     <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="2" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YMCA",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E31 E32 D33:E36 E37 D38:E46 E47 D48:E62 D68:E68 D69 D70:E71 D72 D73:E76 E77 D78:E1048576">
-    <cfRule type="containsText" dxfId="40" priority="21" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="D47 D1:E31 E32 D33:E35 E36 D37:E44 D45 E45:E47 D48:E62 D68:E68 D69 D70:E76 E77 D78:E1048576">
+    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="Lipson">
+      <formula>NOT(ISERROR(SEARCH("Lipson",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:E31 E32 D33:E35 E36 D37:E44 D45 E45:E47 D47 D48:E62 D68:E68 D69 D70:E76 E77 D78:E1048576">
     <cfRule type="containsText" dxfId="39" priority="20" operator="containsText" text="Widewell">
       <formula>NOT(ISERROR(SEARCH("Widewell",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="Lipson">
-      <formula>NOT(ISERROR(SEARCH("Lipson",D1)))</formula>
+    <cfRule type="containsText" dxfId="38" priority="21" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G2">
@@ -8307,18 +8440,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P2">
     <cfRule type="colorScale" priority="43">
       <colorScale>
@@ -8331,8 +8452,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P78:P1048576 P6:P7 P1 P9 P11:P12 P4 P16:P18 P21:P76">
-    <cfRule type="colorScale" priority="215">
+  <conditionalFormatting sqref="P43:P1048576 P1:P41">
+    <cfRule type="colorScale" priority="399">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P78:P1048576 P6:P7 P1 P9 P11:P12 P4 P16:P18 P43:P76 P21:P41">
+    <cfRule type="colorScale" priority="402">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8352,27 +8485,27 @@
   <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14:D14"/>
+      <selection pane="bottomLeft" activeCell="N23" sqref="N22:N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="5" width="13.7109375" style="3" customWidth="1"/>
     <col min="6" max="7" width="28" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.7265625" style="3" customWidth="1"/>
-    <col min="9" max="12" width="11.40625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" style="3" customWidth="1"/>
-    <col min="14" max="16" width="11.40625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="114.26953125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.40625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.54296875" style="3" customWidth="1"/>
-    <col min="20" max="21" width="9.1328125" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="9.1328125" style="3"/>
+    <col min="8" max="8" width="29.7109375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="11.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="114.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.5703125" style="3" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -8397,12 +8530,12 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
       <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
@@ -8419,7 +8552,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>45389</v>
       </c>
@@ -8453,7 +8586,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>45391</v>
       </c>
@@ -8487,7 +8620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45394</v>
       </c>
@@ -8532,7 +8665,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45396</v>
       </c>
@@ -8574,7 +8707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45398</v>
       </c>
@@ -8598,7 +8731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45401</v>
       </c>
@@ -8643,7 +8776,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>45403</v>
       </c>
@@ -8676,7 +8809,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45405</v>
       </c>
@@ -8722,7 +8855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>45408</v>
       </c>
@@ -8749,7 +8882,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>45410</v>
       </c>
@@ -8782,7 +8915,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>45410</v>
       </c>
@@ -8816,7 +8949,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>45415</v>
       </c>
@@ -8834,7 +8967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45416</v>
       </c>
@@ -8876,7 +9009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45417</v>
       </c>
@@ -8915,7 +9048,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45419</v>
       </c>
@@ -8950,11 +9083,11 @@
       <c r="P16" s="32">
         <v>38</v>
       </c>
-      <c r="Q16" s="62" t="s">
+      <c r="Q16" s="61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45422</v>
       </c>
@@ -8971,9 +9104,9 @@
       <c r="E17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="62"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="Q17" s="61"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45424</v>
       </c>
@@ -8987,9 +9120,9 @@
       <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="62"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="Q18" s="61"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45426</v>
       </c>
@@ -9006,9 +9139,9 @@
       <c r="E19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="62"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="Q19" s="61"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45429</v>
       </c>
@@ -9016,18 +9149,18 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="72" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="62"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="Q20" s="61"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45430</v>
       </c>
@@ -9035,9 +9168,9 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="68"/>
-      <c r="F21" s="73" t="s">
+      <c r="C21" s="61"/>
+      <c r="D21" s="72"/>
+      <c r="F21" s="79" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="24"/>
@@ -9055,37 +9188,37 @@
       </c>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
-      <c r="Q21" s="62" t="s">
+      <c r="Q21" s="61" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A22" s="59">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="83">
         <v>45431</v>
       </c>
-      <c r="B22" s="77" t="str">
+      <c r="B22" s="84" t="str">
         <f>TEXT(A22, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="73"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="79"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="74" t="s">
+      <c r="H22" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="74" t="s">
+      <c r="I22" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="74" t="s">
+      <c r="J22" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="75"/>
+      <c r="K22" s="81"/>
       <c r="M22" s="5">
         <v>72</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="5">
         <v>552</v>
       </c>
       <c r="O22" s="3">
@@ -9094,24 +9227,24 @@
       <c r="P22" s="3">
         <v>37</v>
       </c>
-      <c r="Q22" s="62"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A23" s="59"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="73"/>
+      <c r="Q22" s="61"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="83"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="79"/>
       <c r="G23" s="24"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="81"/>
       <c r="M23" s="5">
         <v>72</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="5">
         <v>555</v>
       </c>
       <c r="O23" s="3">
@@ -9120,11 +9253,11 @@
       <c r="P23" s="3">
         <v>37</v>
       </c>
-      <c r="Q23" s="62"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A24" s="59"/>
-      <c r="B24" s="77"/>
+      <c r="Q23" s="61"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
@@ -9146,11 +9279,11 @@
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A25" s="77">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="84">
         <v>45433</v>
       </c>
-      <c r="B25" s="77" t="str">
+      <c r="B25" s="84" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
@@ -9167,28 +9300,28 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="76" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45436</v>
       </c>
@@ -9230,7 +9363,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45438</v>
       </c>
@@ -9276,7 +9409,7 @@
       </c>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45440</v>
       </c>
@@ -9304,11 +9437,11 @@
       </c>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A30" s="77">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="84">
         <v>45443</v>
       </c>
-      <c r="B30" s="77" t="str">
+      <c r="B30" s="84" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
@@ -9331,28 +9464,28 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="63" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="84"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45445</v>
       </c>
@@ -9397,7 +9530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45447</v>
       </c>
@@ -9436,7 +9569,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>45450</v>
       </c>
@@ -9457,21 +9590,21 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A35" s="59">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="83">
         <v>45451</v>
       </c>
-      <c r="B35" s="77" t="str">
+      <c r="B35" s="84" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="73" t="s">
+      <c r="F35" s="79" t="s">
         <v>52</v>
       </c>
       <c r="G35" s="24"/>
@@ -9497,12 +9630,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A36" s="59"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="68"/>
-      <c r="F36" s="73"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="83"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="72"/>
+      <c r="F36" s="79"/>
       <c r="G36" s="24"/>
       <c r="H36" s="30" t="s">
         <v>162</v>
@@ -9523,7 +9656,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45452</v>
       </c>
@@ -9531,9 +9664,9 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="68"/>
-      <c r="F37" s="73"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="72"/>
+      <c r="F37" s="79"/>
       <c r="G37" s="24"/>
       <c r="H37" s="5" t="s">
         <v>7</v>
@@ -9563,7 +9696,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>45454</v>
       </c>
@@ -9571,17 +9704,17 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="72"/>
+      <c r="D38" s="78"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="Q38" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>45457</v>
       </c>
@@ -9589,15 +9722,15 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="Q39" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>45458</v>
       </c>
@@ -9605,25 +9738,25 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="77"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>45459</v>
       </c>
@@ -9631,17 +9764,17 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="72"/>
+      <c r="D41" s="78"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="Q41" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>45461</v>
       </c>
@@ -9649,15 +9782,15 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="Q42" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>45464</v>
       </c>
@@ -9665,25 +9798,25 @@
         <f>TEXT(A43, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C43" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="78"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="85"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
         <v>45464</v>
       </c>
@@ -9705,7 +9838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>45465</v>
       </c>
@@ -9734,7 +9867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22">
         <v>45466</v>
       </c>
@@ -9759,7 +9892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45468</v>
       </c>
@@ -9790,7 +9923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45471</v>
       </c>
@@ -9817,7 +9950,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45473</v>
       </c>
@@ -9859,7 +9992,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45475</v>
       </c>
@@ -9886,7 +10019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45478</v>
       </c>
@@ -9907,7 +10040,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45480</v>
       </c>
@@ -9940,7 +10073,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45482</v>
       </c>
@@ -9964,7 +10097,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45485</v>
       </c>
@@ -9985,7 +10118,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45487</v>
       </c>
@@ -10030,7 +10163,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45489</v>
       </c>
@@ -10078,7 +10211,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>45492</v>
       </c>
@@ -10086,10 +10219,10 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C57" s="80" t="s">
+      <c r="C57" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="80"/>
+      <c r="D57" s="87"/>
       <c r="E57" s="8" t="s">
         <v>27</v>
       </c>
@@ -10097,7 +10230,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>45493</v>
       </c>
@@ -10105,25 +10238,25 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C58" s="71" t="s">
+      <c r="C58" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="71"/>
-      <c r="Q58" s="71"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="77"/>
+      <c r="O58" s="77"/>
+      <c r="P58" s="77"/>
+      <c r="Q58" s="77"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>45494</v>
       </c>
@@ -10131,10 +10264,10 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C59" s="80" t="s">
+      <c r="C59" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="80"/>
+      <c r="D59" s="87"/>
       <c r="F59" s="23" t="s">
         <v>91</v>
       </c>
@@ -10145,7 +10278,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45496</v>
       </c>
@@ -10153,25 +10286,25 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C60" s="76" t="s">
+      <c r="C60" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="76"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="82"/>
+      <c r="O60" s="82"/>
+      <c r="P60" s="82"/>
+      <c r="Q60" s="82"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45496</v>
       </c>
@@ -10198,7 +10331,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45499</v>
       </c>
@@ -10243,21 +10376,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A63" s="77">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="84">
         <v>45501</v>
       </c>
-      <c r="B63" s="60" t="str">
+      <c r="B63" s="88" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="62" t="s">
+      <c r="D63" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="81" t="s">
+      <c r="E63" s="89" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -10288,12 +10421,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A64" s="77"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="81"/>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="84"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="89"/>
       <c r="F64" s="3" t="s">
         <v>145</v>
       </c>
@@ -10313,21 +10446,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A65" s="77">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="84">
         <v>45503</v>
       </c>
-      <c r="B65" s="60" t="str">
+      <c r="B65" s="88" t="str">
         <f>TEXT(A65, "dddd")</f>
         <v>Tuesday</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="62" t="s">
+      <c r="D65" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="81" t="s">
+      <c r="E65" s="89" t="s">
         <v>27</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -10352,12 +10485,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A66" s="77"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="81"/>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="84"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="89"/>
       <c r="F66" s="3" t="s">
         <v>145</v>
       </c>
@@ -10377,7 +10510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45506</v>
       </c>
@@ -10404,7 +10537,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45508</v>
       </c>
@@ -10446,7 +10579,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45510</v>
       </c>
@@ -10491,7 +10624,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45513</v>
       </c>
@@ -10524,7 +10657,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>45515</v>
       </c>
@@ -10572,7 +10705,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
         <v>45517</v>
       </c>
@@ -10605,7 +10738,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45520</v>
       </c>
@@ -10635,21 +10768,21 @@
         <v>720</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A74" s="59">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="83">
         <v>45521</v>
       </c>
-      <c r="B74" s="60" t="str">
+      <c r="B74" s="88" t="str">
         <f t="shared" ref="B74:B94" si="2">TEXT(A74, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="C74" s="62" t="s">
+      <c r="C74" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="68" t="s">
+      <c r="D74" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="79" t="s">
+      <c r="F74" s="86" t="s">
         <v>77</v>
       </c>
       <c r="G74" s="43"/>
@@ -10675,12 +10808,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A75" s="59"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="68"/>
-      <c r="F75" s="79"/>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="83"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="72"/>
+      <c r="F75" s="86"/>
       <c r="G75" s="43"/>
       <c r="H75" s="30" t="s">
         <v>162</v>
@@ -10701,12 +10834,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A76" s="59"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="68"/>
-      <c r="F76" s="79"/>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="83"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="72"/>
+      <c r="F76" s="86"/>
       <c r="G76" s="43"/>
       <c r="H76" s="30" t="s">
         <v>162</v>
@@ -10727,7 +10860,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>45522</v>
       </c>
@@ -10735,9 +10868,9 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="68"/>
-      <c r="F77" s="79"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="72"/>
+      <c r="F77" s="86"/>
       <c r="G77" s="43"/>
       <c r="H77" s="30" t="s">
         <v>76</v>
@@ -10770,7 +10903,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45522</v>
       </c>
@@ -10800,7 +10933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45524</v>
       </c>
@@ -10824,7 +10957,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45527</v>
       </c>
@@ -10863,7 +10996,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="42">
         <v>45529</v>
       </c>
@@ -10885,7 +11018,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="42">
         <v>45531</v>
       </c>
@@ -10908,32 +11041,32 @@
       <c r="G82" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="H82" s="62" t="s">
+      <c r="H82" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="I82" s="62" t="s">
+      <c r="I82" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="J82" s="62"/>
-      <c r="K82" s="62"/>
-      <c r="L82" s="62"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="61"/>
       <c r="M82" s="24">
         <v>36</v>
       </c>
-      <c r="N82" s="62">
+      <c r="N82" s="61">
         <v>612</v>
       </c>
-      <c r="O82" s="62">
+      <c r="O82" s="61">
         <v>720</v>
       </c>
-      <c r="P82" s="62">
+      <c r="P82" s="61">
         <v>27</v>
       </c>
-      <c r="Q82" s="62" t="s">
+      <c r="Q82" s="61" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="42">
         <v>45534</v>
       </c>
@@ -10956,20 +11089,20 @@
       <c r="G83" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="61"/>
       <c r="M83" s="24">
         <v>36</v>
       </c>
-      <c r="N83" s="62"/>
-      <c r="O83" s="62"/>
-      <c r="P83" s="62"/>
-      <c r="Q83" s="62"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="N83" s="61"/>
+      <c r="O83" s="61"/>
+      <c r="P83" s="61"/>
+      <c r="Q83" s="61"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>45536</v>
       </c>
@@ -11003,7 +11136,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45536</v>
       </c>
@@ -11045,7 +11178,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45538</v>
       </c>
@@ -11068,32 +11201,32 @@
       <c r="G86" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H86" s="62" t="s">
+      <c r="H86" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="I86" s="62" t="s">
+      <c r="I86" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="J86" s="62"/>
-      <c r="K86" s="62"/>
-      <c r="L86" s="62"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="61"/>
+      <c r="L86" s="61"/>
       <c r="M86" s="24">
         <v>36</v>
       </c>
-      <c r="N86" s="62">
+      <c r="N86" s="61">
         <v>618</v>
       </c>
-      <c r="O86" s="62">
+      <c r="O86" s="61">
         <v>720</v>
       </c>
-      <c r="P86" s="62">
+      <c r="P86" s="61">
         <v>26</v>
       </c>
       <c r="Q86" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45541</v>
       </c>
@@ -11116,19 +11249,19 @@
       <c r="G87" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H87" s="62"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="62"/>
-      <c r="K87" s="62"/>
-      <c r="L87" s="62"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="61"/>
       <c r="M87" s="24">
         <v>36</v>
       </c>
-      <c r="N87" s="62"/>
-      <c r="O87" s="62"/>
-      <c r="P87" s="62"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="N87" s="61"/>
+      <c r="O87" s="61"/>
+      <c r="P87" s="61"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>45543</v>
       </c>
@@ -11136,25 +11269,25 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C88" s="63" t="s">
+      <c r="C88" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="63"/>
-      <c r="K88" s="63"/>
-      <c r="L88" s="63"/>
-      <c r="M88" s="63"/>
-      <c r="N88" s="63"/>
-      <c r="O88" s="63"/>
-      <c r="P88" s="63"/>
-      <c r="Q88" s="63"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="66"/>
+      <c r="I88" s="66"/>
+      <c r="J88" s="66"/>
+      <c r="K88" s="66"/>
+      <c r="L88" s="66"/>
+      <c r="M88" s="66"/>
+      <c r="N88" s="66"/>
+      <c r="O88" s="66"/>
+      <c r="P88" s="66"/>
+      <c r="Q88" s="66"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="27">
         <v>45543</v>
       </c>
@@ -11169,7 +11302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="21">
         <v>45545</v>
       </c>
@@ -11184,7 +11317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45548</v>
       </c>
@@ -11208,7 +11341,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="22">
         <v>45550</v>
       </c>
@@ -11229,7 +11362,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45557</v>
       </c>
@@ -11250,7 +11383,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45564</v>
       </c>
@@ -11345,14 +11478,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C56 D35:D36 D15 D28 C27:C36 C24:C25 C2:C20">
-    <cfRule type="colorScale" priority="145">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
@@ -11363,9 +11488,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C63 C65 C67">
-    <cfRule type="colorScale" priority="355">
+    <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11373,6 +11496,8 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:C63 C65 C67">
     <cfRule type="colorScale" priority="354">
       <colorScale>
         <cfvo type="min"/>
@@ -11381,6 +11506,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="355">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -11498,14 +11631,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:C76">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -11514,6 +11639,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -11578,11 +11711,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50 D52:D53 D55:D56">
-    <cfRule type="containsText" dxfId="28" priority="124" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="28" priority="123" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="124" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="123" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61:D63 D65 D67:D71">
@@ -11594,11 +11727,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78:D87 D89:D94">
-    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="24" priority="32" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="32" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:E76">
@@ -11610,11 +11743,11 @@
     <cfRule type="containsText" dxfId="21" priority="134" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="136" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="20" priority="135" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="136" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="135" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
@@ -11629,14 +11762,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" dxfId="15" priority="121" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E52)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="119" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E52)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="120" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="119" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E52)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="121" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
@@ -11662,11 +11795,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E76">
-    <cfRule type="containsText" dxfId="6" priority="46" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="6" priority="45" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="46" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="45" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">

--- a/ARCHERY SHEETS/Archery.xlsx
+++ b/ARCHERY SHEETS/Archery.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\corey-richardson\ARCHERY SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366EE1FD-DDA4-475C-A101-516230C856B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80983E44-014A-4D7C-8FD0-EBEAE03119DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="24-Outdoors" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'24-25-Indoors'!$M$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'24-25-Indoors'!$M$2:$M$105</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'24-25-Indoors'!$J$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'24-25-Indoors'!$J$2:$J$105</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'24-Outdoors'!$M$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'24-Outdoors'!$M$2:$M$94</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="225">
   <si>
     <t>Swansea SWWU</t>
   </si>
@@ -537,9 +537,6 @@
     <t>poopy, lost the match but opponent went on to win the competition, as is ranked UK &lt;=10</t>
   </si>
   <si>
-    <t>NEW PORTSMOUTH PB!</t>
-  </si>
-  <si>
     <t>New stabilisers!</t>
   </si>
   <si>
@@ -558,9 +555,6 @@
     <t>(Half) Warwick</t>
   </si>
   <si>
-    <t>Could hold a uni comp?</t>
-  </si>
-  <si>
     <t>I was so tired :(</t>
   </si>
   <si>
@@ -639,9 +633,6 @@
     <t>Half Portsmouth</t>
   </si>
   <si>
-    <t>PROBABLE CLOSING DATE FOR BUCS INDOOR ENTRIES</t>
-  </si>
-  <si>
     <t>Partial WA 18m</t>
   </si>
   <si>
@@ -675,15 +666,6 @@
     <t>Small Hall</t>
   </si>
   <si>
-    <t>Newquay</t>
-  </si>
-  <si>
-    <t>Newquay Bowmen</t>
-  </si>
-  <si>
-    <t>Double Worcester</t>
-  </si>
-  <si>
     <t>Still a bit ouchie, D-Loop still a tiny bit long</t>
   </si>
   <si>
@@ -691,13 +673,58 @@
   </si>
   <si>
     <t>PB!</t>
+  </si>
+  <si>
+    <t>Vegas 300</t>
+  </si>
+  <si>
+    <t>IB1 score!</t>
+  </si>
+  <si>
+    <t>15yds</t>
+  </si>
+  <si>
+    <t>CLOSING DATE FOR BUCS INDOOR ENTRIES</t>
+  </si>
+  <si>
+    <t>DCAS INDOOR CHAMPIONSHIP SETUP</t>
+  </si>
+  <si>
+    <t>SWWU Leg 4</t>
+  </si>
+  <si>
+    <t>Frostbite</t>
+  </si>
+  <si>
+    <t>Stafford</t>
+  </si>
+  <si>
+    <t>CHRISTMAS DINNER</t>
+  </si>
+  <si>
+    <t>Waypoint</t>
+  </si>
+  <si>
+    <t>DCAS COUNTY TRAINING</t>
+  </si>
+  <si>
+    <t>IB1 achieved!</t>
+  </si>
+  <si>
+    <t>SWWU Leg 7</t>
+  </si>
+  <si>
+    <t>Bray I + H2Hs</t>
+  </si>
+  <si>
+    <t>VEGAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,6 +844,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -967,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1145,20 +1179,20 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1166,7 +1200,34 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1181,40 +1242,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1226,20 +1269,278 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="57">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1320,7 +1621,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1328,111 +1629,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1461,111 +1657,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1656,17 +1747,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.4398805442337887E-2"/>
-          <c:y val="0.19486111111111112"/>
-          <c:w val="0.88460179670939743"/>
-          <c:h val="0.72125801983085447"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1675,7 +1756,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'24-25-Indoors'!$P$1</c:f>
+              <c:f>'24-25-Indoors'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1721,12 +1802,399 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'24-25-Indoors'!$A$2:$A$129</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45559</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45561</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45562</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45564</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45567</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45568</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45569</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45571</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45573</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45576</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45578</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45580</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45583</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45585</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45587</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45590</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45592</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45592</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45594</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45598</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45601</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45604</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45606</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45608</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45611</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45613</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45615</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45618</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45619</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45620</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45622</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45629</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45632</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45633</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45634</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45636</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45639</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45640</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45641</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45643</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45646</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45648</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45650</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45653</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45655</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45660</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45662</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45664</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45667</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45668</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45669</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45671</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45674</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45676</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45678</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45681</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45682</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45683</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45685</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45688</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45690</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45692</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45695</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45696</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45696</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45697</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45699</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45702</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45704</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45706</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45709</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45710</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45711</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45713</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45718</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45718</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45720</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45723</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45725</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45727</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45730</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45731</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45732</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45734</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45737</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45738</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45739</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45739</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45741</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45744</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45746</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45746</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45751</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45753</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>45774</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>45776</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>45779</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>45781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'24-25-Indoors'!$P$2:$P$141</c:f>
+              <c:f>'24-25-Indoors'!$M$2:$M$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="140"/>
+                <c:ptCount val="128"/>
                 <c:pt idx="0">
                   <c:v>29</c:v>
                 </c:pt>
@@ -1759,6 +2227,51 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,7 +2279,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DE6F-4574-BF29-43B3FA1514EC}"/>
+              <c16:uniqueId val="{00000000-5E4D-4C5F-9582-B7CEBBEB5183}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1778,11 +2291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="598351327"/>
-        <c:axId val="598351807"/>
+        <c:axId val="403930144"/>
+        <c:axId val="403932064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="598351327"/>
+        <c:axId val="403930144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,6 +2315,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1838,15 +2352,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598351807"/>
+        <c:crossAx val="403932064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="598351807"/>
+        <c:axId val="403932064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="40"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1902,7 +2416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598351327"/>
+        <c:crossAx val="403930144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2627,6 +3141,514 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3138,514 +4160,6 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4678,54 +5192,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>182217</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810B3FBA-0060-40B7-83C3-7754B92463F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>149087</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76193</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -4746,7 +5222,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -4761,7 +5237,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="24155400" y="5334000"/>
+              <a:off x="21869400" y="4762493"/>
               <a:ext cx="4568687" cy="3124200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4790,6 +5266,42 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>189670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>157369</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>75370</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BCE5B5D-35D0-FB2C-A3D2-F9AE775B1944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5231,11 +5743,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003F6F8B-BAAF-49C4-80DC-F0AA35A5CBAB}">
-  <dimension ref="A1:S126"/>
+  <dimension ref="A1:P129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5244,16 +5756,16 @@
     <col min="3" max="5" width="13.7109375" style="3" customWidth="1"/>
     <col min="6" max="7" width="28" style="3" customWidth="1"/>
     <col min="8" max="8" width="29.7109375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="11.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
-    <col min="14" max="16" width="11.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="114.28515625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="36.5703125" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="9" width="11.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="3" customWidth="1"/>
+    <col min="11" max="13" width="11.42578125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="114.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="36.5703125" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -5278,29 +5790,26 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45517</v>
       </c>
@@ -5320,33 +5829,30 @@
       <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="J2" s="3">
+        <v>60</v>
+      </c>
+      <c r="K2" s="3">
+        <v>558</v>
+      </c>
+      <c r="L2" s="3">
+        <v>700</v>
+      </c>
       <c r="M2" s="3">
-        <v>60</v>
-      </c>
-      <c r="N2" s="3">
-        <v>558</v>
-      </c>
-      <c r="O2" s="3">
-        <v>700</v>
-      </c>
-      <c r="P2" s="3">
         <v>29</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
         <v>45536</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="45" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
@@ -5355,7 +5861,7 @@
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -5366,22 +5872,19 @@
       <c r="L3" s="66"/>
       <c r="M3" s="66"/>
       <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45541</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B81" si="1">TEXT(A4, "dddd")</f>
+        <f t="shared" ref="B4:B80" si="1">TEXT(A4, "dddd")</f>
         <v>Friday</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -5393,14 +5896,14 @@
       <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>45543</v>
       </c>
@@ -5423,18 +5926,15 @@
       <c r="K5" s="52"/>
       <c r="L5" s="52"/>
       <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="15" t="s">
+      <c r="N5" s="53"/>
+      <c r="O5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="P5" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45545</v>
       </c>
@@ -5452,31 +5952,31 @@
         <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="J6" s="3">
+        <v>30</v>
+      </c>
+      <c r="K6" s="3">
+        <v>271</v>
+      </c>
+      <c r="L6" s="3">
+        <v>300</v>
+      </c>
       <c r="M6" s="3">
-        <v>30</v>
-      </c>
-      <c r="N6" s="3">
-        <v>271</v>
-      </c>
-      <c r="O6" s="3">
-        <v>300</v>
-      </c>
-      <c r="P6" s="3">
         <v>29</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="O6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>45548</v>
       </c>
@@ -5493,14 +5993,14 @@
       <c r="E7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="35" t="s">
+      <c r="O7" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="S7" s="56" t="s">
+      <c r="P7" s="56" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>45550</v>
       </c>
@@ -5514,29 +6014,26 @@
       <c r="D8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="17" t="s">
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="P8" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45552</v>
       </c>
@@ -5550,17 +6047,17 @@
       <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="R9" s="18" t="s">
+      <c r="N9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="O9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="P9" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>45553</v>
       </c>
@@ -5574,23 +6071,20 @@
       <c r="D10" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="70"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="79"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45555</v>
       </c>
@@ -5605,7 +6099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45557</v>
       </c>
@@ -5619,14 +6113,14 @@
       <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R12" s="44"/>
-      <c r="S12" s="30"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="O12" s="44"/>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
         <v>45559</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
@@ -5636,27 +6130,24 @@
       <c r="D13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="E13" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>45560</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
@@ -5664,34 +6155,31 @@
         <v>20</v>
       </c>
       <c r="D14" s="54"/>
-      <c r="E14" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="E14" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
         <v>45561</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
       <c r="E15" s="66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F15" s="66"/>
       <c r="G15" s="66"/>
@@ -5702,11 +6190,8 @@
       <c r="L15" s="66"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45562</v>
       </c>
@@ -5721,7 +6206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45564</v>
       </c>
@@ -5736,7 +6221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45566</v>
       </c>
@@ -5751,25 +6236,25 @@
         <v>27</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="3">
+      <c r="J18" s="3">
         <v>30</v>
       </c>
-      <c r="N18" s="3">
+      <c r="K18" s="3">
         <v>279</v>
       </c>
-      <c r="O18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="57">
+      <c r="M18" s="57">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>45567</v>
       </c>
@@ -5781,34 +6266,31 @@
         <v>20</v>
       </c>
       <c r="D19" s="48"/>
-      <c r="E19" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="E19" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
         <v>45568</v>
       </c>
-      <c r="B20" s="1" t="str">
+      <c r="B20" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
       <c r="E20" s="66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F20" s="66"/>
       <c r="G20" s="66"/>
@@ -5819,11 +6301,8 @@
       <c r="L20" s="66"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45569</v>
       </c>
@@ -5841,28 +6320,28 @@
         <v>27</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M21" s="3">
+        <v>189</v>
+      </c>
+      <c r="J21" s="3">
         <v>27</v>
       </c>
-      <c r="N21" s="3">
+      <c r="K21" s="3">
         <v>234</v>
       </c>
-      <c r="O21" s="3">
+      <c r="L21" s="3">
         <v>270</v>
       </c>
-      <c r="P21" s="57">
+      <c r="M21" s="57">
         <v>37</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N21" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>45571</v>
       </c>
@@ -5880,10 +6359,10 @@
         <v>24</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>45573</v>
       </c>
@@ -5898,7 +6377,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45576</v>
       </c>
@@ -5915,11 +6394,11 @@
       <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N24" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>45578</v>
       </c>
@@ -5937,10 +6416,10 @@
         <v>24</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45580</v>
       </c>
@@ -5960,20 +6439,20 @@
       <c r="I26" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="J26" s="3">
+        <v>60</v>
+      </c>
+      <c r="K26" s="3">
+        <v>558</v>
+      </c>
+      <c r="L26" s="3">
+        <v>600</v>
+      </c>
       <c r="M26" s="3">
-        <v>60</v>
-      </c>
-      <c r="N26" s="3">
-        <v>558</v>
-      </c>
-      <c r="O26" s="3">
-        <v>600</v>
-      </c>
-      <c r="P26" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45583</v>
       </c>
@@ -5993,23 +6472,23 @@
       <c r="H27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M27" s="3">
+      <c r="J27" s="3">
         <v>9</v>
       </c>
-      <c r="N27" s="3">
+      <c r="K27" s="3">
         <v>83</v>
       </c>
-      <c r="O27" s="3">
+      <c r="L27" s="3">
         <v>90</v>
       </c>
-      <c r="P27" s="57">
+      <c r="M27" s="57">
         <v>32</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N27" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>45585</v>
       </c>
@@ -6027,10 +6506,10 @@
         <v>24</v>
       </c>
       <c r="G28" s="48" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45587</v>
       </c>
@@ -6045,25 +6524,25 @@
         <v>27</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="M29" s="3">
+        <v>196</v>
+      </c>
+      <c r="J29" s="3">
         <v>12</v>
       </c>
-      <c r="N29" s="3">
+      <c r="K29" s="3">
         <v>107</v>
       </c>
-      <c r="O29" s="3">
+      <c r="L29" s="3">
         <v>120</v>
       </c>
-      <c r="P29" s="57">
+      <c r="M29" s="57">
         <v>32</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N29" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45590</v>
       </c>
@@ -6081,39 +6560,39 @@
         <v>27</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="M30" s="3">
+        <v>196</v>
+      </c>
+      <c r="J30" s="3">
         <v>21</v>
       </c>
-      <c r="N30" s="3">
+      <c r="K30" s="3">
         <v>191</v>
       </c>
-      <c r="O30" s="3">
+      <c r="L30" s="3">
         <v>210</v>
       </c>
-      <c r="P30" s="57">
+      <c r="M30" s="57">
         <v>27</v>
       </c>
-      <c r="Q30" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="63">
+      <c r="N30" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="73">
         <v>45592</v>
       </c>
       <c r="B31" s="64" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="74" t="s">
         <v>131</v>
       </c>
       <c r="G31" s="40"/>
@@ -6121,32 +6600,29 @@
         <v>132</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q31" s="61" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
+        <v>189</v>
+      </c>
+      <c r="N31" s="71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
       <c r="B32" s="64"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="74"/>
-      <c r="F32" s="65"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="75"/>
+      <c r="F32" s="74"/>
       <c r="G32" s="40"/>
       <c r="H32" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q32" s="61"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="N32" s="71"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>45592</v>
       </c>
-      <c r="B33" s="45" t="str">
-        <f t="shared" si="1"/>
-        <v>Sunday</v>
-      </c>
+      <c r="B33" s="64"/>
       <c r="C33" s="23" t="s">
         <v>20</v>
       </c>
@@ -6157,10 +6633,10 @@
         <v>24</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45594</v>
       </c>
@@ -6175,25 +6651,25 @@
         <v>27</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="M34" s="3">
+        <v>196</v>
+      </c>
+      <c r="J34" s="3">
         <v>45</v>
       </c>
-      <c r="N34" s="3">
+      <c r="K34" s="3">
         <v>401</v>
       </c>
-      <c r="O34" s="3">
+      <c r="L34" s="3">
         <v>450</v>
       </c>
-      <c r="P34" s="57">
+      <c r="M34" s="57">
         <v>33</v>
       </c>
-      <c r="Q34" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N34" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45597</v>
       </c>
@@ -6214,7 +6690,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>45598</v>
       </c>
@@ -6229,22 +6705,19 @@
         <v>47</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>132</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M36" s="3">
-        <v>60</v>
-      </c>
-      <c r="O36" s="3">
+        <v>189</v>
+      </c>
+      <c r="L36" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>45599</v>
       </c>
@@ -6262,10 +6735,10 @@
         <v>24</v>
       </c>
       <c r="G37" s="49" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>45601</v>
       </c>
@@ -6279,11 +6752,11 @@
       <c r="D38" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Q38" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N38" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45604</v>
       </c>
@@ -6306,20 +6779,20 @@
       <c r="I39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M39" s="3">
+      <c r="J39" s="3">
         <v>36</v>
       </c>
-      <c r="N39" s="3">
+      <c r="K39" s="3">
         <v>332</v>
       </c>
-      <c r="O39" s="3">
+      <c r="L39" s="3">
         <v>360</v>
       </c>
-      <c r="P39" s="57">
+      <c r="M39" s="57">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>45606</v>
       </c>
@@ -6337,10 +6810,10 @@
         <v>24</v>
       </c>
       <c r="G40" s="49" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45608</v>
       </c>
@@ -6354,29 +6827,27 @@
       <c r="D41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="61" t="s">
+      <c r="H41" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="I41" s="61" t="s">
+      <c r="I41" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="M41" s="3">
+      <c r="J41" s="3">
         <v>45</v>
       </c>
-      <c r="N41" s="90">
+      <c r="K41" s="72">
         <v>561</v>
       </c>
-      <c r="O41" s="90">
+      <c r="L41" s="72">
         <v>600</v>
       </c>
-      <c r="P41" s="90">
+      <c r="M41" s="72">
         <v>27</v>
       </c>
-      <c r="Q41" s="90" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N41" s="72"/>
+    </row>
+    <row r="42" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>45611</v>
       </c>
@@ -6393,20 +6864,17 @@
       <c r="E42" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30">
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="30">
         <v>15</v>
       </c>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>45613</v>
       </c>
@@ -6423,8 +6891,12 @@
       <c r="E43" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P43" s="3">
+        <f>(SMALL(M:M,1))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45615</v>
       </c>
@@ -6438,8 +6910,30 @@
       <c r="D44" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="3">
+        <v>60</v>
+      </c>
+      <c r="K44" s="3">
+        <v>561</v>
+      </c>
+      <c r="L44" s="3">
+        <v>600</v>
+      </c>
+      <c r="M44" s="3">
+        <v>27</v>
+      </c>
+      <c r="P44" s="3">
+        <f>(SMALL(M:M,2))</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45618</v>
       </c>
@@ -6454,10 +6948,35 @@
         <v>27</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="3">
+        <v>30</v>
+      </c>
+      <c r="K45" s="3">
+        <v>288</v>
+      </c>
+      <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
+        <v>21</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="P45" s="51">
+        <f>(SMALL(M:M,3))</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
         <v>45619</v>
       </c>
@@ -6473,466 +6992,592 @@
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="27">
+        <v>201</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" s="3">
+        <f>FLOOR(AVERAGE(P43:P45), 1)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>45620</v>
       </c>
-      <c r="B47" s="45" t="str">
-        <f>TEXT(A47, "dddd")</f>
+      <c r="B47" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45620</v>
+        <v>45622</v>
       </c>
       <c r="B48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S48" s="3">
-        <f>(SMALL(P:P,1))</f>
+        <v>22</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J48" s="3">
+        <v>60</v>
+      </c>
+      <c r="K48" s="3">
+        <v>550</v>
+      </c>
+      <c r="L48" s="3">
+        <v>600</v>
+      </c>
+      <c r="M48" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45622</v>
+        <v>45625</v>
       </c>
       <c r="B49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Tuesday</v>
+        <v>Friday</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S49" s="3">
-        <f>(SMALL(P:P,2))</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I49" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45625</v>
+        <v>45627</v>
       </c>
       <c r="B50" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Friday</v>
+        <v>Sunday</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>26</v>
+      <c r="D50" s="48" t="s">
+        <v>206</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S50" s="51">
-        <f>(SMALL(P:P,3))</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45627</v>
+        <v>45629</v>
       </c>
       <c r="B51" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M51" s="3">
-        <v>60</v>
-      </c>
-      <c r="S51" s="3">
-        <f>FLOOR(AVERAGE(S48:S50), 1)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>45629</v>
+        <v>189</v>
+      </c>
+      <c r="J51" s="3">
+        <v>33</v>
+      </c>
+      <c r="K51" s="3">
+        <v>305</v>
+      </c>
+      <c r="L51" s="3">
+        <v>330</v>
+      </c>
+      <c r="M51" s="57">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>45632</v>
       </c>
       <c r="B52" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C52" s="3" t="s">
+        <v>Friday</v>
+      </c>
+      <c r="C52" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>45632</v>
+      <c r="D52" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="41"/>
+      <c r="H52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J52" s="3">
+        <v>60</v>
+      </c>
+      <c r="K52" s="3">
+        <v>548</v>
+      </c>
+      <c r="L52" s="3">
+        <v>600</v>
+      </c>
+      <c r="M52" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>45633</v>
       </c>
       <c r="B53" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C53" s="71"/>
+      <c r="D53" s="81"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>45634</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f t="shared" ref="B54" si="2">TEXT(A54, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C54" s="71"/>
+      <c r="D54" s="81"/>
+      <c r="F54" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" s="41"/>
+      <c r="H54" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" s="3">
+        <v>60</v>
+      </c>
+      <c r="K54" s="3">
+        <v>563</v>
+      </c>
+      <c r="L54" s="3">
+        <v>600</v>
+      </c>
+      <c r="M54" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45636</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" s="3">
+        <v>30</v>
+      </c>
+      <c r="K55" s="3">
+        <v>288</v>
+      </c>
+      <c r="L55" s="3">
+        <v>300</v>
+      </c>
+      <c r="M55" s="3">
+        <v>21</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <v>45639</v>
+      </c>
+      <c r="B56" s="45" t="str">
+        <f t="shared" ref="B56" si="3">TEXT(A56, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D56" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="70"/>
+      <c r="N56" s="70"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
+        <v>45640</v>
+      </c>
+      <c r="B57" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>45641</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="3">
+        <v>60</v>
+      </c>
+      <c r="K58" s="3">
+        <v>559</v>
+      </c>
+      <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45643</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>45632</v>
-      </c>
-      <c r="B54" s="1" t="str">
+      <c r="G59" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" s="3">
+        <v>30</v>
+      </c>
+      <c r="K59" s="3">
+        <v>286</v>
+      </c>
+      <c r="L59" s="3">
+        <v>300</v>
+      </c>
+      <c r="M59" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45646</v>
+      </c>
+      <c r="B60" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C54" s="61" t="s">
+      <c r="C60" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="F54" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="G54" s="41"/>
-      <c r="H54" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="D60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J60" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>45633</v>
-      </c>
-      <c r="B55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Saturday</v>
-      </c>
-      <c r="C55" s="61"/>
-      <c r="D55" s="72"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>45634</v>
-      </c>
-      <c r="B56" s="1" t="str">
-        <f t="shared" ref="B56" si="2">TEXT(A56, "dddd")</f>
-        <v>Sunday</v>
-      </c>
-      <c r="C56" s="61"/>
-      <c r="D56" s="72"/>
-      <c r="F56" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="G56" s="41"/>
-      <c r="H56" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M56" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>45634</v>
-      </c>
-      <c r="B57" s="1" t="str">
+      <c r="K60" s="3">
+        <v>568</v>
+      </c>
+      <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
+        <v>21</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="37">
+        <v>45648</v>
+      </c>
+      <c r="B61" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>45636</v>
-      </c>
-      <c r="B58" s="1" t="str">
+      <c r="C61" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="37">
+        <v>45650</v>
+      </c>
+      <c r="B62" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>45639</v>
-      </c>
-      <c r="B59" s="1" t="str">
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="37">
+        <v>45653</v>
+      </c>
+      <c r="B63" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>45641</v>
-      </c>
-      <c r="B60" s="1" t="str">
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="37">
+        <v>45655</v>
+      </c>
+      <c r="B64" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M60" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>45643</v>
-      </c>
-      <c r="B61" s="1" t="str">
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="37">
+        <v>45657</v>
+      </c>
+      <c r="B65" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" s="39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>45646</v>
-      </c>
-      <c r="B62" s="1" t="str">
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="22">
+        <v>45660</v>
+      </c>
+      <c r="B66" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C66" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D66" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="37">
-        <v>45648</v>
-      </c>
-      <c r="B63" s="38" t="str">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="22">
+        <v>45662</v>
+      </c>
+      <c r="B67" s="45" t="str">
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="C63" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="37">
-        <v>45650</v>
-      </c>
-      <c r="B64" s="38" t="str">
+      <c r="C67" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="63">
+        <v>45664</v>
+      </c>
+      <c r="B68" s="64" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="37">
-        <v>45653</v>
-      </c>
-      <c r="B65" s="38" t="str">
+      <c r="C68" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="63"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="66"/>
+      <c r="M69" s="66"/>
+      <c r="N69" s="66"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C65" s="62"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="37">
-        <v>45655</v>
-      </c>
-      <c r="B66" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="37">
-        <v>45657</v>
-      </c>
-      <c r="B67" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>45660</v>
-      </c>
-      <c r="B68" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Friday</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="3" t="s">
+      <c r="C70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>45662</v>
-      </c>
-      <c r="B69" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>45664</v>
-      </c>
-      <c r="B70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>45667</v>
-      </c>
-      <c r="B71" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Friday</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="22">
+        <v>45668</v>
+      </c>
+      <c r="B71" s="45" t="str">
+        <f t="shared" ref="B71" si="4">TEXT(A71, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C71" s="65"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="67"/>
+      <c r="L71" s="67"/>
+      <c r="M71" s="67"/>
+      <c r="N71" s="67"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45669</v>
       </c>
@@ -6949,8 +7594,26 @@
       <c r="E72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H72" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" s="3">
+        <v>60</v>
+      </c>
+      <c r="K72" s="3">
+        <v>546</v>
+      </c>
+      <c r="L72" s="3">
+        <v>600</v>
+      </c>
+      <c r="M72" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45671</v>
       </c>
@@ -6964,8 +7627,29 @@
       <c r="D73" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H73" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J73" s="3">
+        <v>60</v>
+      </c>
+      <c r="K73" s="3">
+        <v>569</v>
+      </c>
+      <c r="L73" s="3">
+        <v>600</v>
+      </c>
+      <c r="M73" s="3">
+        <v>21</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45674</v>
       </c>
@@ -6979,8 +7663,26 @@
       <c r="D74" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" s="3">
+        <v>45</v>
+      </c>
+      <c r="K74" s="3">
+        <v>418</v>
+      </c>
+      <c r="L74" s="3">
+        <v>450</v>
+      </c>
+      <c r="M74" s="57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45676</v>
       </c>
@@ -6997,11 +7699,26 @@
       <c r="E75" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H75" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J75" s="3">
+        <v>30</v>
+      </c>
+      <c r="K75" s="3">
+        <v>282</v>
+      </c>
+      <c r="L75" s="3">
+        <v>300</v>
+      </c>
+      <c r="M75" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45678</v>
       </c>
@@ -7015,52 +7732,71 @@
       <c r="D76" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H76" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J76" s="3">
+        <v>60</v>
+      </c>
+      <c r="K76" s="3">
+        <v>571</v>
+      </c>
+      <c r="L76" s="3">
+        <v>600</v>
+      </c>
+      <c r="M76" s="3">
+        <v>19</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45678</v>
+        <v>45681</v>
       </c>
       <c r="B77" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="66"/>
-      <c r="M77" s="66"/>
-      <c r="N77" s="66"/>
-      <c r="O77" s="66"/>
-      <c r="P77" s="66"/>
-      <c r="Q77" s="66"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>45681</v>
-      </c>
-      <c r="B78" s="1" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="27">
+        <v>45682</v>
+      </c>
+      <c r="B78" s="45" t="str">
         <f t="shared" si="1"/>
-        <v>Friday</v>
-      </c>
-      <c r="C78" s="3" t="s">
+        <v>Saturday</v>
+      </c>
+      <c r="C78" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D78" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>45683</v>
       </c>
@@ -7077,47 +7813,59 @@
       <c r="F79" s="58" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H79" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" s="3">
+        <v>60</v>
+      </c>
+      <c r="L79" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45683</v>
+        <v>45685</v>
       </c>
       <c r="B80" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f t="shared" ref="B81:B129" si="5">TEXT(A81, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="62">
+        <v>45690</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>Sunday</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>45685</v>
-      </c>
-      <c r="B81" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>45688</v>
-      </c>
-      <c r="B82" s="1" t="str">
-        <f t="shared" ref="B82:B126" si="3">TEXT(A82, "dddd")</f>
-        <v>Friday</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>20</v>
@@ -7126,121 +7874,139 @@
         <v>26</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>45692</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>45690</v>
-      </c>
-      <c r="B83" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C83" s="3" t="s">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>45695</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>45692</v>
-      </c>
-      <c r="B84" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45695</v>
+        <v>45696</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Friday</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>45697</v>
+        <f t="shared" si="5"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C85" s="65"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="67"/>
+      <c r="L85" s="67"/>
+      <c r="M85" s="67"/>
+      <c r="N85" s="67"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>45696</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Sunday</v>
+        <f t="shared" si="5"/>
+        <v>Saturday</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="G86" s="40"/>
+      <c r="H86" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J86" s="3">
+        <v>60</v>
+      </c>
+      <c r="L86" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>45697</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E87" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
         <v>45699</v>
       </c>
-      <c r="B87" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B88" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
         <v>45702</v>
       </c>
-      <c r="B88" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B89" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>Friday</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>45704</v>
-      </c>
-      <c r="B89" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Sunday</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>20</v>
@@ -7249,119 +8015,127 @@
         <v>26</v>
       </c>
       <c r="E89" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="62">
+        <v>45704</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="F90" s="61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
         <v>45706</v>
       </c>
-      <c r="B90" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B91" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
         <v>45709</v>
       </c>
-      <c r="B91" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B92" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>Friday</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <v>45710</v>
-      </c>
-      <c r="B92" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Saturday</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F92" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="G92" s="40"/>
-      <c r="H92" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M92" s="3">
+      <c r="D92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>45710</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C93" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="F93" s="68"/>
+      <c r="G93" s="68"/>
+      <c r="H93" s="68"/>
+      <c r="I93" s="68"/>
+      <c r="J93" s="68"/>
+      <c r="K93" s="68"/>
+      <c r="L93" s="68"/>
+      <c r="M93" s="68"/>
+      <c r="N93" s="68"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>45711</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="G94" s="40"/>
+      <c r="H94" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J94" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
-        <v>45711</v>
-      </c>
-      <c r="B93" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F93" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="G93" s="40"/>
-      <c r="H93" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M93" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>45711</v>
-      </c>
-      <c r="B94" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L94" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45713</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -7371,12 +8145,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45716</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -7389,12 +8163,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>45718</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Sunday</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -7403,16 +8177,28 @@
       <c r="D97" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F97" s="58" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H97" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J97" s="3">
+        <v>60</v>
+      </c>
+      <c r="L97" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45718</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Sunday</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -7425,12 +8211,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45720</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -7440,12 +8226,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45723</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -7458,12 +8244,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="62">
         <v>45725</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Sunday</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -7475,13 +8261,19 @@
       <c r="E101" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F101" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="G101" s="61" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45727</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -7491,12 +8283,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45730</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -7509,12 +8301,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>45731</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Saturday</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -7526,16 +8318,25 @@
       <c r="F104" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="H104" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J104" s="3">
+        <v>60</v>
+      </c>
+      <c r="L104" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45732</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Sunday</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -7548,12 +8349,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45734</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -7563,12 +8364,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45737</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -7581,46 +8382,67 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
+        <v>45738</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C108" s="65"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="F108" s="67"/>
+      <c r="G108" s="67"/>
+      <c r="H108" s="67"/>
+      <c r="I108" s="67"/>
+      <c r="J108" s="67"/>
+      <c r="K108" s="67"/>
+      <c r="L108" s="67"/>
+      <c r="M108" s="67"/>
+      <c r="N108" s="67"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
         <v>45739</v>
       </c>
-      <c r="B108" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B109" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>Sunday</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>45741</v>
-      </c>
-      <c r="B109" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D109" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J109" s="3">
+        <v>30</v>
+      </c>
+      <c r="L109" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45744</v>
+        <v>45739</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Friday</v>
+        <f t="shared" si="5"/>
+        <v>Sunday</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>20</v>
@@ -7628,50 +8450,47 @@
       <c r="D110" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E110" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
+        <v>45741</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>45744</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="62">
         <v>45746</v>
       </c>
-      <c r="B111" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B113" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>Sunday</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B112" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" s="39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>45751</v>
-      </c>
-      <c r="B113" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Friday</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>20</v>
@@ -7680,51 +8499,63 @@
         <v>26</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>45753</v>
+        <v>24</v>
+      </c>
+      <c r="F113" s="61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>45746</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Sunday</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J114" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45755</v>
+        <v>45748</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E115" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45758</v>
+        <v>45751</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -7733,13 +8564,16 @@
       <c r="D116" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E116" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45760</v>
+        <v>45753</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Sunday</v>
       </c>
       <c r="C117" s="3" t="s">
@@ -7752,12 +8586,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45762</v>
+        <v>45755</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="C118" s="3" t="s">
@@ -7769,16 +8603,13 @@
       <c r="E118" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G118" s="39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45765</v>
+        <v>45758</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -7788,12 +8619,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45767</v>
+        <v>45760</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Sunday</v>
       </c>
       <c r="C120" s="3" t="s">
@@ -7806,12 +8637,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45769</v>
+        <v>45762</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="C121" s="3" t="s">
@@ -7823,13 +8654,16 @@
       <c r="E121" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G121" s="39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45772</v>
+        <v>45765</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -7839,12 +8673,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45774</v>
+        <v>45767</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Sunday</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -7857,12 +8691,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45776</v>
+        <v>45769</v>
       </c>
       <c r="B124" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="C124" s="3" t="s">
@@ -7875,12 +8709,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45779</v>
+        <v>45772</v>
       </c>
       <c r="B125" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="C125" s="3" t="s">
@@ -7890,12 +8724,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45781</v>
+        <v>45774</v>
       </c>
       <c r="B126" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Sunday</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -7907,43 +8741,105 @@
       <c r="E126" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G126" s="39" t="s">
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>45776</v>
+      </c>
+      <c r="B127" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>45779</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>45781</v>
+      </c>
+      <c r="B129" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G129" s="39" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="E77:Q77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E10:Q10"/>
-    <mergeCell ref="E20:Q20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E15:Q15"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="E19:Q19"/>
+  <mergeCells count="39">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E19:N19"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="C63:E67"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="E14:N14"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E15:N15"/>
     <mergeCell ref="I41:I42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
     <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:N108"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:N57"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:N71"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:N85"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:N69"/>
+    <mergeCell ref="E93:N93"/>
+    <mergeCell ref="C61:E65"/>
+    <mergeCell ref="E56:N56"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7953,7 +8849,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7961,15 +8857,15 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="44" operator="containsText" text="University">
+    <cfRule type="containsText" dxfId="56" priority="50" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="45" operator="containsText" text="Yelverton">
+    <cfRule type="containsText" dxfId="55" priority="51" operator="containsText" text="Yelverton">
       <formula>NOT(ISERROR(SEARCH("Yelverton",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="colorScale" priority="191">
+    <cfRule type="colorScale" priority="197">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7979,7 +8875,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="192">
+    <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7988,16 +8884,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C31 C33:C54 C57:C63 C68:C126">
-    <cfRule type="containsText" dxfId="48" priority="71" operator="containsText" text="University">
+  <conditionalFormatting sqref="C4:C31 C33:C52 C55:C61 C66:C129">
+    <cfRule type="containsText" dxfId="54" priority="77" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="72" operator="containsText" text="Yelverton">
+    <cfRule type="containsText" dxfId="53" priority="78" operator="containsText" text="Yelverton">
       <formula>NOT(ISERROR(SEARCH("Yelverton",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="colorScale" priority="166">
+    <cfRule type="colorScale" priority="173">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8007,17 +8911,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="167">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C8">
-    <cfRule type="colorScale" priority="212">
+    <cfRule type="colorScale" priority="218">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8027,7 +8923,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="213">
+    <cfRule type="colorScale" priority="219">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8036,8 +8932,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="C9:C11 C15:C16 C18 C20:C31 C33:C35 C47:C52 C37:C45 C55:C61 C66:C117">
+    <cfRule type="colorScale" priority="514">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="513">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8047,7 +8951,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="49">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8055,9 +8961,7 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C14">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8067,7 +8971,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="18">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C14">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8075,9 +8981,7 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8087,7 +8991,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="47">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8095,9 +9001,7 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8107,7 +9011,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="35">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8115,9 +9021,7 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8127,17 +9031,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="C36">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8147,7 +9043,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8156,8 +9052,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C63 C9:C11 C15:C16 C18 C20:C31 C33:C35 C47:C54 C68:C114 C37:C45">
-    <cfRule type="colorScale" priority="205">
+  <conditionalFormatting sqref="C46">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8167,7 +9063,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="206">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8176,8 +9072,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C115">
-    <cfRule type="colorScale" priority="159">
+  <conditionalFormatting sqref="C118">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8187,7 +9091,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="160">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:C120">
+    <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8195,9 +9101,7 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116:C117">
-    <cfRule type="colorScale" priority="126">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8207,7 +9111,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="127">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8215,9 +9121,7 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
-    <cfRule type="colorScale" priority="152">
+    <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8227,17 +9131,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="153">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C119:C120">
-    <cfRule type="colorScale" priority="113">
+  <conditionalFormatting sqref="C122:C123">
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8247,7 +9143,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="114">
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8256,8 +9152,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="colorScale" priority="100">
+  <conditionalFormatting sqref="C124">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8267,17 +9171,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C122:C123">
-    <cfRule type="colorScale" priority="93">
+  <conditionalFormatting sqref="C125:C126">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8287,7 +9183,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8296,8 +9192,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="colorScale" priority="80">
+  <conditionalFormatting sqref="C127">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8307,7 +9203,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="81">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8316,8 +9212,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C125:C126">
-    <cfRule type="colorScale" priority="73">
+  <conditionalFormatting sqref="C128:C129">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8327,7 +9223,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="74">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8337,47 +9233,67 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="46" priority="8" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="52" priority="16" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="14" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="10" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D36)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D47">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="YMCA">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="containsText" dxfId="49" priority="8" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47 D1:E31 E32 D33:E35 E36 D37:E44 D45 E45:E47 D48:E62 D68:E68 D69 D70:E76 E77 D78:E1048576">
-    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="Lipson">
+  <conditionalFormatting sqref="D70 D72:E84 D86:E107">
+    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="Widewell">
+      <formula>NOT(ISERROR(SEARCH("Widewell",D70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Lipson">
+      <formula>NOT(ISERROR(SEARCH("Lipson",D70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109">
+    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="Widewell">
+      <formula>NOT(ISERROR(SEARCH("Widewell",D109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Lipson">
+      <formula>NOT(ISERROR(SEARCH("Lipson",D109)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:E31 E32 D33:E35 E36 D37:E44 D45 E45:E46 D47:E56 E57 D58:E60 D66:E66 D67 D68:E68 E69:E71 E85 E108:E109 D110:E1048576">
+    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="Widewell">
+      <formula>NOT(ISERROR(SEARCH("Widewell",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="25" operator="containsText" text="Lipson">
       <formula>NOT(ISERROR(SEARCH("Lipson",D1)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E31 E32 D33:E35 E36 D37:E44 D45 E45:E47 D47 D48:E62 D68:E68 D69 D70:E76 E77 D78:E1048576">
-    <cfRule type="containsText" dxfId="39" priority="20" operator="containsText" text="Widewell">
-      <formula>NOT(ISERROR(SEARCH("Widewell",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="21" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="38" priority="27" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G2">
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Club Target Day">
+    <cfRule type="containsText" dxfId="37" priority="45" operator="containsText" text="Club Target Day">
       <formula>NOT(ISERROR(SEARCH("Club Target Day",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8388,8 +9304,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1">
-    <cfRule type="colorScale" priority="387">
+  <conditionalFormatting sqref="J1">
+    <cfRule type="colorScale" priority="393">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8398,8 +9314,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="J2">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8408,8 +9324,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="J110:J1048576 J94:J107 J1:J55 J58:J70 J72:J84 J86:J92">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8418,8 +9334,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M78:M1048576 M6:M7 M1 M9 M11:M12 M4 M16:M18 M21:M76">
-    <cfRule type="colorScale" priority="217">
+  <conditionalFormatting sqref="J110:J1048576 J94:J107 J6:J7 J1 J9 J11:J12 J4 J16:J18 J21:J55 J70 J58:J68 J72:J84 J86:J92">
+    <cfRule type="colorScale" priority="223">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8428,8 +9344,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1">
-    <cfRule type="colorScale" priority="388">
+  <conditionalFormatting sqref="M1">
+    <cfRule type="colorScale" priority="394">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8440,8 +9356,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="colorScale" priority="43">
+  <conditionalFormatting sqref="M2">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8452,8 +9368,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P43:P1048576 P1:P41">
-    <cfRule type="colorScale" priority="399">
+  <conditionalFormatting sqref="M110:M1048576 M94:M107 M1:M41 M43:M55 M58:M70 M72:M84 M86:M92">
+    <cfRule type="colorScale" priority="405">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8464,8 +9380,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P78:P1048576 P6:P7 P1 P9 P11:P12 P4 P16:P18 P43:P76 P21:P41">
-    <cfRule type="colorScale" priority="402">
+  <conditionalFormatting sqref="M110:M1048576 M94:M107 M6:M7 M1 M9 M11:M12 M4 M16:M18 M43:M55 M21:M41 M70 M58:M68 M72:M84 M86:M92">
+    <cfRule type="colorScale" priority="408">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8530,12 +9446,12 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
       <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
@@ -8583,7 +9499,7 @@
         <v>44</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -9083,7 +9999,7 @@
       <c r="P16" s="32">
         <v>38</v>
       </c>
-      <c r="Q16" s="61" t="s">
+      <c r="Q16" s="71" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9104,7 +10020,7 @@
       <c r="E17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="61"/>
+      <c r="Q17" s="71"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -9120,7 +10036,7 @@
       <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="61"/>
+      <c r="Q18" s="71"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -9139,7 +10055,7 @@
       <c r="E19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="61"/>
+      <c r="Q19" s="71"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -9149,16 +10065,16 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="81" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="61"/>
+      <c r="Q20" s="71"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -9168,9 +10084,9 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="72"/>
-      <c r="F21" s="79" t="s">
+      <c r="C21" s="71"/>
+      <c r="D21" s="81"/>
+      <c r="F21" s="94" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="24"/>
@@ -9188,7 +10104,7 @@
       </c>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
-      <c r="Q21" s="61" t="s">
+      <c r="Q21" s="71" t="s">
         <v>96</v>
       </c>
     </row>
@@ -9196,25 +10112,25 @@
       <c r="A22" s="83">
         <v>45431</v>
       </c>
-      <c r="B22" s="84" t="str">
+      <c r="B22" s="86" t="str">
         <f>TEXT(A22, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="79"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="94"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="80" t="s">
+      <c r="H22" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="80" t="s">
+      <c r="I22" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="80" t="s">
+      <c r="J22" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="81"/>
+      <c r="K22" s="92"/>
       <c r="M22" s="5">
         <v>72</v>
       </c>
@@ -9227,20 +10143,20 @@
       <c r="P22" s="3">
         <v>37</v>
       </c>
-      <c r="Q22" s="61"/>
+      <c r="Q22" s="71"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="83"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="79"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="94"/>
       <c r="G23" s="24"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="81"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="92"/>
       <c r="M23" s="5">
         <v>72</v>
       </c>
@@ -9253,11 +10169,11 @@
       <c r="P23" s="3">
         <v>37</v>
       </c>
-      <c r="Q23" s="61"/>
+      <c r="Q23" s="71"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
@@ -9280,10 +10196,10 @@
       <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="84">
+      <c r="A25" s="86">
         <v>45433</v>
       </c>
-      <c r="B25" s="84" t="str">
+      <c r="B25" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
@@ -9301,25 +10217,25 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="82" t="s">
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="91"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -9438,10 +10354,10 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="84">
+      <c r="A30" s="86">
         <v>45443</v>
       </c>
-      <c r="B30" s="84" t="str">
+      <c r="B30" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
@@ -9465,8 +10381,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="84"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="66" t="s">
         <v>99</v>
       </c>
@@ -9594,17 +10510,17 @@
       <c r="A35" s="83">
         <v>45451</v>
       </c>
-      <c r="B35" s="84" t="str">
+      <c r="B35" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="72" t="s">
+      <c r="D35" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="79" t="s">
+      <c r="F35" s="94" t="s">
         <v>52</v>
       </c>
       <c r="G35" s="24"/>
@@ -9632,10 +10548,10 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="83"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="72"/>
-      <c r="F36" s="79"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="81"/>
+      <c r="F36" s="94"/>
       <c r="G36" s="24"/>
       <c r="H36" s="30" t="s">
         <v>162</v>
@@ -9664,9 +10580,9 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="72"/>
-      <c r="F37" s="79"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="81"/>
+      <c r="F37" s="94"/>
       <c r="G37" s="24"/>
       <c r="H37" s="5" t="s">
         <v>7</v>
@@ -9704,10 +10620,10 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="78"/>
+      <c r="D38" s="87"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="Q38" s="23" t="s">
@@ -9722,8 +10638,8 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="Q39" s="23" t="s">
@@ -9738,23 +10654,23 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C40" s="77" t="s">
+      <c r="C40" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="77"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
@@ -9764,10 +10680,10 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="78"/>
+      <c r="D41" s="87"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="Q41" s="23" t="s">
@@ -9782,8 +10698,8 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="Q42" s="23" t="s">
@@ -9798,23 +10714,23 @@
         <f>TEXT(A43, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="85"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="88"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
@@ -10219,10 +11135,10 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C57" s="87" t="s">
+      <c r="C57" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="87"/>
+      <c r="D57" s="90"/>
       <c r="E57" s="8" t="s">
         <v>27</v>
       </c>
@@ -10238,23 +11154,23 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C58" s="77" t="s">
+      <c r="C58" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="77"/>
-      <c r="M58" s="77"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="77"/>
-      <c r="P58" s="77"/>
-      <c r="Q58" s="77"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="82"/>
+      <c r="O58" s="82"/>
+      <c r="P58" s="82"/>
+      <c r="Q58" s="82"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
@@ -10264,10 +11180,10 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C59" s="87" t="s">
+      <c r="C59" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="87"/>
+      <c r="D59" s="90"/>
       <c r="F59" s="23" t="s">
         <v>91</v>
       </c>
@@ -10286,23 +11202,23 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C60" s="82" t="s">
+      <c r="C60" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="82"/>
-      <c r="P60" s="82"/>
-      <c r="Q60" s="82"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="91"/>
+      <c r="K60" s="91"/>
+      <c r="L60" s="91"/>
+      <c r="M60" s="91"/>
+      <c r="N60" s="91"/>
+      <c r="O60" s="91"/>
+      <c r="P60" s="91"/>
+      <c r="Q60" s="91"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -10377,20 +11293,20 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="84">
+      <c r="A63" s="86">
         <v>45501</v>
       </c>
-      <c r="B63" s="88" t="str">
+      <c r="B63" s="84" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="61" t="s">
+      <c r="D63" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="89" t="s">
+      <c r="E63" s="85" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -10422,11 +11338,11 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="84"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="89"/>
+      <c r="A64" s="86"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="85"/>
       <c r="F64" s="3" t="s">
         <v>145</v>
       </c>
@@ -10447,20 +11363,20 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="84">
+      <c r="A65" s="86">
         <v>45503</v>
       </c>
-      <c r="B65" s="88" t="str">
+      <c r="B65" s="84" t="str">
         <f>TEXT(A65, "dddd")</f>
         <v>Tuesday</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="61" t="s">
+      <c r="D65" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="89" t="s">
+      <c r="E65" s="85" t="s">
         <v>27</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -10486,16 +11402,16 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="89"/>
+      <c r="A66" s="86"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="85"/>
       <c r="F66" s="3" t="s">
         <v>145</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>16</v>
@@ -10735,7 +11651,7 @@
         <v>700</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -10772,17 +11688,17 @@
       <c r="A74" s="83">
         <v>45521</v>
       </c>
-      <c r="B74" s="88" t="str">
+      <c r="B74" s="84" t="str">
         <f t="shared" ref="B74:B94" si="2">TEXT(A74, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="C74" s="61" t="s">
+      <c r="C74" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="72" t="s">
+      <c r="D74" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="86" t="s">
+      <c r="F74" s="89" t="s">
         <v>77</v>
       </c>
       <c r="G74" s="43"/>
@@ -10805,15 +11721,15 @@
         <v>30</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="83"/>
-      <c r="B75" s="88"/>
-      <c r="C75" s="61"/>
-      <c r="D75" s="72"/>
-      <c r="F75" s="86"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="81"/>
+      <c r="F75" s="89"/>
       <c r="G75" s="43"/>
       <c r="H75" s="30" t="s">
         <v>162</v>
@@ -10831,15 +11747,15 @@
         <v>150</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="83"/>
-      <c r="B76" s="88"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="72"/>
-      <c r="F76" s="86"/>
+      <c r="B76" s="84"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="81"/>
+      <c r="F76" s="89"/>
       <c r="G76" s="43"/>
       <c r="H76" s="30" t="s">
         <v>162</v>
@@ -10857,7 +11773,7 @@
         <v>150</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -10868,9 +11784,9 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C77" s="61"/>
-      <c r="D77" s="72"/>
-      <c r="F77" s="86"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="81"/>
+      <c r="F77" s="89"/>
       <c r="G77" s="43"/>
       <c r="H77" s="30" t="s">
         <v>76</v>
@@ -10900,7 +11816,7 @@
         <v>34</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -10954,7 +11870,7 @@
         <v>13</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -10981,7 +11897,7 @@
         <v>149</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>12</v>
@@ -11039,31 +11955,31 @@
         <v>91</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="H82" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="H82" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="I82" s="61" t="s">
+      <c r="I82" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="J82" s="61"/>
-      <c r="K82" s="61"/>
-      <c r="L82" s="61"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="71"/>
+      <c r="L82" s="71"/>
       <c r="M82" s="24">
         <v>36</v>
       </c>
-      <c r="N82" s="61">
+      <c r="N82" s="71">
         <v>612</v>
       </c>
-      <c r="O82" s="61">
+      <c r="O82" s="71">
         <v>720</v>
       </c>
-      <c r="P82" s="61">
+      <c r="P82" s="71">
         <v>27</v>
       </c>
-      <c r="Q82" s="61" t="s">
-        <v>185</v>
+      <c r="Q82" s="71" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -11089,18 +12005,18 @@
       <c r="G83" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="61"/>
-      <c r="L83" s="61"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="71"/>
+      <c r="J83" s="71"/>
+      <c r="K83" s="71"/>
+      <c r="L83" s="71"/>
       <c r="M83" s="24">
         <v>36</v>
       </c>
-      <c r="N83" s="61"/>
-      <c r="O83" s="61"/>
-      <c r="P83" s="61"/>
-      <c r="Q83" s="61"/>
+      <c r="N83" s="71"/>
+      <c r="O83" s="71"/>
+      <c r="P83" s="71"/>
+      <c r="Q83" s="71"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
@@ -11121,7 +12037,7 @@
       </c>
       <c r="G84" s="30"/>
       <c r="H84" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>15</v>
@@ -11175,7 +12091,7 @@
         <v>30</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -11201,29 +12117,29 @@
       <c r="G86" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H86" s="61" t="s">
+      <c r="H86" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="I86" s="61" t="s">
+      <c r="I86" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="J86" s="61"/>
-      <c r="K86" s="61"/>
-      <c r="L86" s="61"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="71"/>
+      <c r="L86" s="71"/>
       <c r="M86" s="24">
         <v>36</v>
       </c>
-      <c r="N86" s="61">
+      <c r="N86" s="71">
         <v>618</v>
       </c>
-      <c r="O86" s="61">
+      <c r="O86" s="71">
         <v>720</v>
       </c>
-      <c r="P86" s="61">
+      <c r="P86" s="71">
         <v>26</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -11249,17 +12165,17 @@
       <c r="G87" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="61"/>
-      <c r="K87" s="61"/>
-      <c r="L87" s="61"/>
+      <c r="H87" s="71"/>
+      <c r="I87" s="71"/>
+      <c r="J87" s="71"/>
+      <c r="K87" s="71"/>
+      <c r="L87" s="71"/>
       <c r="M87" s="24">
         <v>36</v>
       </c>
-      <c r="N87" s="61"/>
-      <c r="O87" s="61"/>
-      <c r="P87" s="61"/>
+      <c r="N87" s="71"/>
+      <c r="O87" s="71"/>
+      <c r="P87" s="71"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
@@ -11356,7 +12272,7 @@
         <v>24</v>
       </c>
       <c r="F92" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G92" s="28" t="s">
         <v>151</v>
@@ -11377,7 +12293,7 @@
         <v>24</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>151</v>
@@ -11401,40 +12317,31 @@
         <v>91</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="N86:N87"/>
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="P86:P87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="C58:Q58"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C40:Q40"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="Q16:Q20"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C20:C23"/>
     <mergeCell ref="C88:Q88"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A30:A31"/>
@@ -11451,26 +12358,35 @@
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="C40:Q40"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="Q16:Q20"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="C58:Q58"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="N86:N87"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="L86:L87"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C20 C24:C25 C27:C36 C44:C56 C72:C76">
     <cfRule type="containsText" dxfId="36" priority="143" operator="containsText" text="Yelverton">
@@ -11478,6 +12394,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C56 D35:D36 D15 D28 C27:C36 C24:C25 C2:C20">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
@@ -11488,7 +12412,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="145">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:C63 C65 C67">
+    <cfRule type="colorScale" priority="355">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11496,8 +12422,6 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C63 C65 C67">
     <cfRule type="colorScale" priority="354">
       <colorScale>
         <cfvo type="min"/>
@@ -11506,14 +12430,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="355">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -11631,6 +12547,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:C76">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -11639,14 +12563,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -11711,11 +12627,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50 D52:D53 D55:D56">
-    <cfRule type="containsText" dxfId="28" priority="123" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="28" priority="124" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="123" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="124" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61:D63 D65 D67:D71">
@@ -11727,11 +12643,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78:D87 D89:D94">
-    <cfRule type="containsText" dxfId="24" priority="32" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="32" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:E76">
@@ -11743,11 +12659,11 @@
     <cfRule type="containsText" dxfId="21" priority="134" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="135" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="20" priority="136" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="135" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="136" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
@@ -11762,14 +12678,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" dxfId="15" priority="119" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E52)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="121" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E52)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="120" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="121" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E52)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="119" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
@@ -11795,11 +12711,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E76">
-    <cfRule type="containsText" dxfId="6" priority="45" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="6" priority="46" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="45" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="46" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
